--- a/data/maingraphs-code-size-table.xlsx
+++ b/data/maingraphs-code-size-table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="-20" windowWidth="16800" windowHeight="20540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main table" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="127">
   <si>
     <t>BENCHMARK x</t>
   </si>
@@ -93,9 +93,6 @@
     <t>TAKEN FROM main_summary__0BASE_R___P__C0_A0_S0_G1</t>
   </si>
   <si>
-    <t>TAKEN FROM sumsum_performance.txt</t>
-  </si>
-  <si>
     <t>0BASE_R___P__C0_A0_S0_G1</t>
   </si>
   <si>
@@ -397,6 +394,15 @@
   </si>
   <si>
     <t>Count in bytes, based on using 11 element stack cache, and only counting data that would need to be maintained between processing messages. (the current impl keeps all data and 16 element arrays)</t>
+  </si>
+  <si>
+    <t>TAKEN FROM sumsum_codesize.txt</t>
+  </si>
+  <si>
+    <t>UPDATED 20180301</t>
+  </si>
+  <si>
+    <t>Before adding GETCONSTARRAY: 22363 bytes for full version</t>
   </si>
 </sst>
 </file>
@@ -414,7 +420,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -454,7 +459,7 @@
       <name val="Courier New"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -485,6 +490,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -495,7 +506,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="143">
+  <cellStyleXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -639,8 +650,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -651,8 +700,9 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="143">
+  <cellStyles count="181">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -724,6 +774,25 @@
     <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -795,6 +864,25 @@
     <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1124,10 +1212,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:R49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+      <selection activeCell="Q41" sqref="Q41:R41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1230,46 +1318,46 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>250.8</v>
+        <v>254.2</v>
       </c>
       <c r="C4">
-        <v>231.5</v>
+        <v>235.6</v>
       </c>
       <c r="D4">
-        <v>179.5</v>
+        <v>182.2</v>
       </c>
       <c r="E4">
-        <v>159.9</v>
+        <v>163</v>
       </c>
       <c r="F4">
-        <v>210.1</v>
+        <v>211.9</v>
       </c>
       <c r="G4">
-        <v>345.5</v>
+        <v>349.5</v>
       </c>
       <c r="H4">
-        <v>99.8</v>
+        <v>99.4</v>
       </c>
       <c r="I4">
-        <v>266.8</v>
+        <v>268.89999999999998</v>
       </c>
       <c r="J4">
-        <v>196.4</v>
+        <v>197.5</v>
       </c>
       <c r="K4">
-        <v>121.3</v>
+        <v>122.3</v>
       </c>
       <c r="L4">
-        <v>192.4</v>
+        <v>225.8</v>
       </c>
       <c r="M4">
-        <v>25.9</v>
+        <v>27.3</v>
       </c>
       <c r="N4">
-        <v>237.9</v>
+        <v>239.5</v>
       </c>
       <c r="O4">
-        <v>193.7</v>
+        <v>198.2</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1286,37 +1374,37 @@
         <v>60.3</v>
       </c>
       <c r="E5">
-        <v>102.6</v>
+        <v>103.7</v>
       </c>
       <c r="F5">
-        <v>133.1</v>
+        <v>133.30000000000001</v>
       </c>
       <c r="G5">
-        <v>164.8</v>
+        <v>165.3</v>
       </c>
       <c r="H5">
-        <v>53.9</v>
+        <v>52.6</v>
       </c>
       <c r="I5">
         <v>86.3</v>
       </c>
       <c r="J5">
-        <v>68.599999999999994</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="K5">
-        <v>57</v>
+        <v>56.8</v>
       </c>
       <c r="L5">
-        <v>69.5</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="M5">
-        <v>34.799999999999997</v>
+        <v>35</v>
       </c>
       <c r="N5">
         <v>95.1</v>
       </c>
       <c r="O5">
-        <v>83.3</v>
+        <v>83.7</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1342,7 +1430,7 @@
         <v>67.900000000000006</v>
       </c>
       <c r="H6">
-        <v>20.9</v>
+        <v>19.7</v>
       </c>
       <c r="I6">
         <v>101.1</v>
@@ -1354,7 +1442,7 @@
         <v>44.7</v>
       </c>
       <c r="L6">
-        <v>59.8</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="M6">
         <v>23.5</v>
@@ -1363,7 +1451,7 @@
         <v>56.4</v>
       </c>
       <c r="O6">
-        <v>59.7</v>
+        <v>60.4</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1371,46 +1459,46 @@
         <v>18</v>
       </c>
       <c r="B7">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C7">
+        <v>8.1</v>
+      </c>
+      <c r="D7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E7">
+        <v>2.6</v>
+      </c>
+      <c r="F7">
+        <v>-1</v>
+      </c>
+      <c r="G7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H7">
+        <v>4.3</v>
+      </c>
+      <c r="I7">
+        <v>4.7</v>
+      </c>
+      <c r="J7">
         <v>6.8</v>
       </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>1.4</v>
-      </c>
-      <c r="E7">
-        <v>0.7</v>
-      </c>
-      <c r="F7">
-        <v>-2.7</v>
-      </c>
-      <c r="G7">
-        <v>-1.3</v>
-      </c>
-      <c r="H7">
-        <v>2.9</v>
-      </c>
-      <c r="I7">
-        <v>2.6</v>
-      </c>
-      <c r="J7">
-        <v>5</v>
-      </c>
       <c r="K7">
-        <v>-4.8</v>
+        <v>-3.7</v>
       </c>
       <c r="L7">
-        <v>12.7</v>
+        <v>19</v>
       </c>
       <c r="M7">
-        <v>-15.6</v>
+        <v>-14.5</v>
       </c>
       <c r="N7">
-        <v>13.5</v>
+        <v>15.1</v>
       </c>
       <c r="O7">
-        <v>1.9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1436,7 +1524,7 @@
         <v>114.1</v>
       </c>
       <c r="H8">
-        <v>22.1</v>
+        <v>22.8</v>
       </c>
       <c r="I8">
         <v>76.8</v>
@@ -1445,10 +1533,10 @@
         <v>47.5</v>
       </c>
       <c r="K8">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="L8">
-        <v>50.4</v>
+        <v>62.2</v>
       </c>
       <c r="M8">
         <v>-16.7</v>
@@ -1457,111 +1545,111 @@
         <v>72.8</v>
       </c>
       <c r="O8">
-        <v>48.7</v>
+        <v>49.7</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="1" customFormat="1">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11">
-        <v>250.8</v>
+        <v>254.2</v>
       </c>
       <c r="C11">
-        <v>231.5</v>
+        <v>235.6</v>
       </c>
       <c r="D11">
-        <v>179.5</v>
+        <v>182.2</v>
       </c>
       <c r="E11">
-        <v>159.9</v>
+        <v>163</v>
       </c>
       <c r="F11">
-        <v>210.1</v>
+        <v>211.9</v>
       </c>
       <c r="G11">
-        <v>345.5</v>
+        <v>349.5</v>
       </c>
       <c r="H11">
-        <v>99.8</v>
+        <v>99.4</v>
       </c>
       <c r="I11">
-        <v>266.8</v>
+        <v>268.89999999999998</v>
       </c>
       <c r="J11">
-        <v>196.4</v>
+        <v>197.5</v>
       </c>
       <c r="K11">
-        <v>121.3</v>
+        <v>122.3</v>
       </c>
       <c r="L11">
-        <v>192.4</v>
+        <v>225.8</v>
       </c>
       <c r="M11">
-        <v>25.9</v>
+        <v>27.3</v>
       </c>
       <c r="N11">
-        <v>237.9</v>
+        <v>239.5</v>
       </c>
       <c r="O11">
-        <v>193.7</v>
+        <v>198.2</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12">
-        <v>183.1</v>
+        <v>186.4</v>
       </c>
       <c r="C12">
-        <v>176.5</v>
+        <v>182.6</v>
       </c>
       <c r="D12">
-        <v>134.19999999999999</v>
+        <v>137</v>
       </c>
       <c r="E12">
-        <v>121.4</v>
+        <v>124.7</v>
       </c>
       <c r="F12">
-        <v>155.80000000000001</v>
+        <v>162.5</v>
       </c>
       <c r="G12">
-        <v>281.3</v>
+        <v>287</v>
       </c>
       <c r="H12">
-        <v>66.599999999999994</v>
+        <v>67.2</v>
       </c>
       <c r="I12">
         <v>191.1</v>
       </c>
       <c r="J12">
-        <v>159.30000000000001</v>
+        <v>161.4</v>
       </c>
       <c r="K12">
-        <v>96.6</v>
+        <v>97.9</v>
       </c>
       <c r="L12">
-        <v>170.7</v>
+        <v>197.6</v>
       </c>
       <c r="M12">
-        <v>11.5</v>
+        <v>13.6</v>
       </c>
       <c r="N12">
-        <v>188.9</v>
+        <v>188.5</v>
       </c>
       <c r="O12">
-        <v>149</v>
+        <v>153.69999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13">
         <v>161</v>
@@ -1582,7 +1670,7 @@
         <v>175.8</v>
       </c>
       <c r="H13">
-        <v>48</v>
+        <v>46.3</v>
       </c>
       <c r="I13">
         <v>160.5</v>
@@ -1591,10 +1679,10 @@
         <v>121.1</v>
       </c>
       <c r="K13">
-        <v>71.7</v>
+        <v>71.2</v>
       </c>
       <c r="L13">
-        <v>146.5</v>
+        <v>170.7</v>
       </c>
       <c r="M13">
         <v>-2.7</v>
@@ -1603,12 +1691,12 @@
         <v>145.1</v>
       </c>
       <c r="O13">
-        <v>110.4</v>
+        <v>112.1</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14">
         <v>144.1</v>
@@ -1629,7 +1717,7 @@
         <v>157.1</v>
       </c>
       <c r="H14">
-        <v>34.200000000000003</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="I14">
         <v>155.30000000000001</v>
@@ -1641,7 +1729,7 @@
         <v>60.1</v>
       </c>
       <c r="L14">
-        <v>122.4</v>
+        <v>142.30000000000001</v>
       </c>
       <c r="M14">
         <v>-10.8</v>
@@ -1650,12 +1738,12 @@
         <v>125.1</v>
       </c>
       <c r="O14">
-        <v>94.5</v>
+        <v>95.9</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15">
         <v>145.80000000000001</v>
@@ -1676,7 +1764,7 @@
         <v>154.5</v>
       </c>
       <c r="H15">
-        <v>30</v>
+        <v>28.6</v>
       </c>
       <c r="I15">
         <v>138.9</v>
@@ -1688,7 +1776,7 @@
         <v>61.8</v>
       </c>
       <c r="L15">
-        <v>115</v>
+        <v>133.69999999999999</v>
       </c>
       <c r="M15">
         <v>-13.3</v>
@@ -1697,12 +1785,12 @@
         <v>119.1</v>
       </c>
       <c r="O15">
-        <v>94.8</v>
+        <v>96.1</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16">
         <v>145.80000000000001</v>
@@ -1723,7 +1811,7 @@
         <v>138.5</v>
       </c>
       <c r="H16">
-        <v>25.4</v>
+        <v>24</v>
       </c>
       <c r="I16">
         <v>136.30000000000001</v>
@@ -1735,7 +1823,7 @@
         <v>60.7</v>
       </c>
       <c r="L16">
-        <v>115</v>
+        <v>133.69999999999999</v>
       </c>
       <c r="M16">
         <v>-15</v>
@@ -1744,12 +1832,12 @@
         <v>118.4</v>
       </c>
       <c r="O16">
-        <v>92.1</v>
+        <v>93.5</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17">
         <v>118.6</v>
@@ -1770,7 +1858,7 @@
         <v>121.8</v>
       </c>
       <c r="H17">
-        <v>13.8</v>
+        <v>12.4</v>
       </c>
       <c r="I17">
         <v>110.5</v>
@@ -1782,7 +1870,7 @@
         <v>53.3</v>
       </c>
       <c r="L17">
-        <v>101</v>
+        <v>117.1</v>
       </c>
       <c r="M17">
         <v>-17.2</v>
@@ -1791,12 +1879,12 @@
         <v>107.7</v>
       </c>
       <c r="O17">
-        <v>78.7</v>
+        <v>79.900000000000006</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18">
         <v>118.6</v>
@@ -1817,7 +1905,7 @@
         <v>121.8</v>
       </c>
       <c r="H18">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="I18">
         <v>110.5</v>
@@ -1829,7 +1917,7 @@
         <v>49.8</v>
       </c>
       <c r="L18">
-        <v>101</v>
+        <v>117.1</v>
       </c>
       <c r="M18">
         <v>-17.2</v>
@@ -1838,7 +1926,7 @@
         <v>107.7</v>
       </c>
       <c r="O18">
-        <v>77.7</v>
+        <v>78.8</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="1" customFormat="1">
@@ -1869,7 +1957,7 @@
         <v>121.8</v>
       </c>
       <c r="H20">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="I20">
         <v>110.5</v>
@@ -1881,7 +1969,7 @@
         <v>49.8</v>
       </c>
       <c r="L20">
-        <v>101</v>
+        <v>117.1</v>
       </c>
       <c r="M20">
         <v>-17.2</v>
@@ -1890,7 +1978,7 @@
         <v>107.7</v>
       </c>
       <c r="O20">
-        <v>77.7</v>
+        <v>78.8</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1916,7 +2004,7 @@
         <v>6.2</v>
       </c>
       <c r="H21">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="I21">
         <v>-2.1</v>
@@ -1937,7 +2025,7 @@
         <v>0.2</v>
       </c>
       <c r="O21">
-        <v>8.4</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1963,7 +2051,7 @@
         <v>25.3</v>
       </c>
       <c r="H22">
-        <v>-1.7</v>
+        <v>-2.6</v>
       </c>
       <c r="I22">
         <v>57.9</v>
@@ -1975,7 +2063,7 @@
         <v>28.2</v>
       </c>
       <c r="L22">
-        <v>36.6</v>
+        <v>40.9</v>
       </c>
       <c r="M22">
         <v>8</v>
@@ -1984,7 +2072,7 @@
         <v>37.200000000000003</v>
       </c>
       <c r="O22">
-        <v>31.9</v>
+        <v>32.200000000000003</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -2010,7 +2098,7 @@
         <v>11.9</v>
       </c>
       <c r="H23">
-        <v>-0.3</v>
+        <v>-0.8</v>
       </c>
       <c r="I23">
         <v>1.1000000000000001</v>
@@ -2022,7 +2110,7 @@
         <v>-0.6</v>
       </c>
       <c r="L23">
-        <v>13.2</v>
+        <v>15.4</v>
       </c>
       <c r="M23">
         <v>-10.7</v>
@@ -2031,7 +2119,7 @@
         <v>15</v>
       </c>
       <c r="O23">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -2057,7 +2145,7 @@
         <v>78.5</v>
       </c>
       <c r="H24">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="I24">
         <v>53.7</v>
@@ -2069,7 +2157,7 @@
         <v>17.5</v>
       </c>
       <c r="L24">
-        <v>35</v>
+        <v>44.5</v>
       </c>
       <c r="M24">
         <v>-18.399999999999999</v>
@@ -2078,17 +2166,17 @@
         <v>55.2</v>
       </c>
       <c r="O24">
-        <v>33.299999999999997</v>
+        <v>34.1</v>
       </c>
     </row>
     <row r="27" spans="1:15" s="3" customFormat="1">
       <c r="A27" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -2096,60 +2184,60 @@
         <v>15</v>
       </c>
       <c r="B29" s="4">
-        <f t="shared" ref="B29:O29" si="0">B4</f>
-        <v>250.8</v>
+        <f>B4</f>
+        <v>254.2</v>
       </c>
       <c r="C29" s="4">
-        <f t="shared" si="0"/>
-        <v>231.5</v>
+        <f t="shared" ref="C29:O29" si="0">C4</f>
+        <v>235.6</v>
       </c>
       <c r="D29" s="4">
         <f t="shared" si="0"/>
-        <v>179.5</v>
+        <v>182.2</v>
       </c>
       <c r="E29" s="4">
         <f t="shared" si="0"/>
-        <v>159.9</v>
+        <v>163</v>
       </c>
       <c r="F29" s="4">
         <f t="shared" si="0"/>
-        <v>210.1</v>
+        <v>211.9</v>
       </c>
       <c r="G29" s="4">
         <f t="shared" si="0"/>
-        <v>345.5</v>
+        <v>349.5</v>
       </c>
       <c r="H29" s="4">
         <f t="shared" si="0"/>
-        <v>99.8</v>
+        <v>99.4</v>
       </c>
       <c r="I29" s="4">
         <f t="shared" si="0"/>
-        <v>266.8</v>
+        <v>268.89999999999998</v>
       </c>
       <c r="J29" s="4">
         <f t="shared" si="0"/>
-        <v>196.4</v>
+        <v>197.5</v>
       </c>
       <c r="K29" s="4">
         <f t="shared" si="0"/>
-        <v>121.3</v>
+        <v>122.3</v>
       </c>
       <c r="L29" s="4">
         <f t="shared" si="0"/>
-        <v>192.4</v>
+        <v>225.8</v>
       </c>
       <c r="M29" s="4">
         <f t="shared" si="0"/>
-        <v>25.9</v>
+        <v>27.3</v>
       </c>
       <c r="N29" s="4">
         <f t="shared" si="0"/>
-        <v>237.9</v>
+        <v>239.5</v>
       </c>
       <c r="O29" s="4">
         <f t="shared" si="0"/>
-        <v>193.7</v>
+        <v>198.2</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -2157,7 +2245,7 @@
         <v>16</v>
       </c>
       <c r="B30" s="4">
-        <f t="shared" ref="B30:O30" si="1">B5</f>
+        <f t="shared" ref="B30:O33" si="1">B5</f>
         <v>71.2</v>
       </c>
       <c r="C30" s="4">
@@ -2170,19 +2258,19 @@
       </c>
       <c r="E30" s="4">
         <f t="shared" si="1"/>
-        <v>102.6</v>
+        <v>103.7</v>
       </c>
       <c r="F30" s="4">
         <f t="shared" si="1"/>
-        <v>133.1</v>
+        <v>133.30000000000001</v>
       </c>
       <c r="G30" s="4">
         <f t="shared" si="1"/>
-        <v>164.8</v>
+        <v>165.3</v>
       </c>
       <c r="H30" s="4">
         <f t="shared" si="1"/>
-        <v>53.9</v>
+        <v>52.6</v>
       </c>
       <c r="I30" s="4">
         <f t="shared" si="1"/>
@@ -2190,19 +2278,19 @@
       </c>
       <c r="J30" s="4">
         <f t="shared" si="1"/>
-        <v>68.599999999999994</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="K30" s="4">
         <f t="shared" si="1"/>
-        <v>57</v>
+        <v>56.8</v>
       </c>
       <c r="L30" s="4">
         <f t="shared" si="1"/>
-        <v>69.5</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="M30" s="4">
         <f t="shared" si="1"/>
-        <v>34.799999999999997</v>
+        <v>35</v>
       </c>
       <c r="N30" s="4">
         <f t="shared" si="1"/>
@@ -2210,7 +2298,7 @@
       </c>
       <c r="O30" s="4">
         <f t="shared" si="1"/>
-        <v>83.3</v>
+        <v>83.7</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -2218,60 +2306,60 @@
         <v>17</v>
       </c>
       <c r="B31" s="4">
-        <f t="shared" ref="B31:O31" si="2">B6</f>
+        <f t="shared" si="1"/>
         <v>88.1</v>
       </c>
       <c r="C31" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>79.2</v>
       </c>
       <c r="D31" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="E31" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>28.4</v>
       </c>
       <c r="F31" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>56.7</v>
       </c>
       <c r="G31" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>67.900000000000006</v>
       </c>
       <c r="H31" s="4">
-        <f t="shared" si="2"/>
-        <v>20.9</v>
+        <f t="shared" si="1"/>
+        <v>19.7</v>
       </c>
       <c r="I31" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>101.1</v>
       </c>
       <c r="J31" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>75.400000000000006</v>
       </c>
       <c r="K31" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44.7</v>
       </c>
       <c r="L31" s="4">
-        <f t="shared" si="2"/>
-        <v>59.8</v>
+        <f t="shared" si="1"/>
+        <v>69.900000000000006</v>
       </c>
       <c r="M31" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>23.5</v>
       </c>
       <c r="N31" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>56.4</v>
       </c>
       <c r="O31" s="4">
-        <f t="shared" si="2"/>
-        <v>59.7</v>
+        <f t="shared" si="1"/>
+        <v>60.4</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -2279,124 +2367,124 @@
         <v>18</v>
       </c>
       <c r="B32" s="4">
-        <f t="shared" ref="B32:O32" si="3">B7</f>
+        <f t="shared" si="1"/>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C32" s="4">
+        <f t="shared" si="1"/>
+        <v>8.1</v>
+      </c>
+      <c r="D32" s="4">
+        <f t="shared" si="1"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E32" s="4">
+        <f t="shared" si="1"/>
+        <v>2.6</v>
+      </c>
+      <c r="F32" s="4">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="G32" s="4">
+        <f t="shared" si="1"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H32" s="4">
+        <f t="shared" si="1"/>
+        <v>4.3</v>
+      </c>
+      <c r="I32" s="4">
+        <f t="shared" si="1"/>
+        <v>4.7</v>
+      </c>
+      <c r="J32" s="4">
+        <f t="shared" si="1"/>
         <v>6.8</v>
       </c>
-      <c r="C32" s="4">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="D32" s="4">
-        <f t="shared" si="3"/>
-        <v>1.4</v>
-      </c>
-      <c r="E32" s="4">
-        <f t="shared" si="3"/>
-        <v>0.7</v>
-      </c>
-      <c r="F32" s="4">
-        <f t="shared" si="3"/>
-        <v>-2.7</v>
-      </c>
-      <c r="G32" s="4">
-        <f t="shared" si="3"/>
-        <v>-1.3</v>
-      </c>
-      <c r="H32" s="4">
-        <f t="shared" si="3"/>
-        <v>2.9</v>
-      </c>
-      <c r="I32" s="4">
-        <f t="shared" si="3"/>
-        <v>2.6</v>
-      </c>
-      <c r="J32" s="4">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
       <c r="K32" s="4">
-        <f t="shared" si="3"/>
-        <v>-4.8</v>
+        <f t="shared" si="1"/>
+        <v>-3.7</v>
       </c>
       <c r="L32" s="4">
-        <f t="shared" si="3"/>
-        <v>12.7</v>
+        <f t="shared" si="1"/>
+        <v>19</v>
       </c>
       <c r="M32" s="4">
-        <f t="shared" si="3"/>
-        <v>-15.6</v>
+        <f t="shared" si="1"/>
+        <v>-14.5</v>
       </c>
       <c r="N32" s="4">
-        <f t="shared" si="3"/>
-        <v>13.5</v>
+        <f t="shared" si="1"/>
+        <v>15.1</v>
       </c>
       <c r="O32" s="4">
-        <f t="shared" si="3"/>
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" t="s">
         <v>20</v>
       </c>
       <c r="B33" s="4">
-        <f t="shared" ref="B33:O33" si="4">B8</f>
+        <f t="shared" si="1"/>
         <v>84.7</v>
       </c>
       <c r="C33" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>62.4</v>
       </c>
       <c r="D33" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>43.8</v>
       </c>
       <c r="E33" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>28.2</v>
       </c>
       <c r="F33" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>22.9</v>
       </c>
       <c r="G33" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>114.1</v>
       </c>
       <c r="H33" s="4">
-        <f t="shared" si="4"/>
-        <v>22.1</v>
+        <f t="shared" si="1"/>
+        <v>22.8</v>
       </c>
       <c r="I33" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>76.8</v>
       </c>
       <c r="J33" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>47.5</v>
       </c>
       <c r="K33" s="4">
-        <f t="shared" si="4"/>
-        <v>24.4</v>
+        <f t="shared" si="1"/>
+        <v>24.5</v>
       </c>
       <c r="L33" s="4">
-        <f t="shared" si="4"/>
-        <v>50.4</v>
+        <f t="shared" si="1"/>
+        <v>62.2</v>
       </c>
       <c r="M33" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-16.7</v>
       </c>
       <c r="N33" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>72.8</v>
       </c>
       <c r="O33" s="4">
-        <f t="shared" si="4"/>
-        <v>48.7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
+        <f t="shared" si="1"/>
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -2412,9 +2500,9 @@
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:18">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -2431,436 +2519,440 @@
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:18">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="4">
         <f>B12-B11</f>
-        <v>-67.700000000000017</v>
+        <v>-67.799999999999983</v>
       </c>
       <c r="C36" s="4">
-        <f t="shared" ref="C36:O36" si="5">C12-C11</f>
-        <v>-55</v>
+        <f t="shared" ref="C36:O36" si="2">C12-C11</f>
+        <v>-53</v>
       </c>
       <c r="D36" s="4">
-        <f t="shared" si="5"/>
-        <v>-45.300000000000011</v>
+        <f t="shared" si="2"/>
+        <v>-45.199999999999989</v>
       </c>
       <c r="E36" s="4">
-        <f t="shared" si="5"/>
-        <v>-38.5</v>
+        <f t="shared" si="2"/>
+        <v>-38.299999999999997</v>
       </c>
       <c r="F36" s="4">
-        <f t="shared" si="5"/>
-        <v>-54.299999999999983</v>
+        <f t="shared" si="2"/>
+        <v>-49.400000000000006</v>
       </c>
       <c r="G36" s="4">
-        <f t="shared" si="5"/>
-        <v>-64.199999999999989</v>
+        <f t="shared" si="2"/>
+        <v>-62.5</v>
       </c>
       <c r="H36" s="4">
-        <f t="shared" si="5"/>
-        <v>-33.200000000000003</v>
+        <f t="shared" si="2"/>
+        <v>-32.200000000000003</v>
       </c>
       <c r="I36" s="4">
-        <f t="shared" si="5"/>
-        <v>-75.700000000000017</v>
+        <f t="shared" si="2"/>
+        <v>-77.799999999999983</v>
       </c>
       <c r="J36" s="4">
-        <f t="shared" si="5"/>
-        <v>-37.099999999999994</v>
+        <f t="shared" si="2"/>
+        <v>-36.099999999999994</v>
       </c>
       <c r="K36" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
+        <v>-24.399999999999991</v>
+      </c>
+      <c r="L36" s="4">
+        <f t="shared" si="2"/>
+        <v>-28.200000000000017</v>
+      </c>
+      <c r="M36" s="4">
+        <f t="shared" si="2"/>
+        <v>-13.700000000000001</v>
+      </c>
+      <c r="N36" s="4">
+        <f t="shared" si="2"/>
+        <v>-51</v>
+      </c>
+      <c r="O36" s="4">
+        <f t="shared" si="2"/>
+        <v>-44.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="4">
+        <f t="shared" ref="B37:O42" si="3">B13-B12</f>
+        <v>-25.400000000000006</v>
+      </c>
+      <c r="C37" s="4">
+        <f t="shared" si="3"/>
+        <v>-28.900000000000006</v>
+      </c>
+      <c r="D37" s="4">
+        <f t="shared" si="3"/>
         <v>-24.700000000000003</v>
       </c>
-      <c r="L36" s="4">
-        <f t="shared" si="5"/>
-        <v>-21.700000000000017</v>
-      </c>
-      <c r="M36" s="4">
-        <f t="shared" si="5"/>
-        <v>-14.399999999999999</v>
-      </c>
-      <c r="N36" s="4">
-        <f t="shared" si="5"/>
-        <v>-49</v>
-      </c>
-      <c r="O36" s="4">
-        <f t="shared" si="5"/>
-        <v>-44.699999999999989</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
-      <c r="A37" t="s">
+      <c r="E37" s="4">
+        <f t="shared" si="3"/>
+        <v>-59.400000000000006</v>
+      </c>
+      <c r="F37" s="4">
+        <f t="shared" si="3"/>
+        <v>-85.4</v>
+      </c>
+      <c r="G37" s="4">
+        <f t="shared" si="3"/>
+        <v>-111.19999999999999</v>
+      </c>
+      <c r="H37" s="4">
+        <f t="shared" si="3"/>
+        <v>-20.900000000000006</v>
+      </c>
+      <c r="I37" s="4">
+        <f t="shared" si="3"/>
+        <v>-30.599999999999994</v>
+      </c>
+      <c r="J37" s="4">
+        <f t="shared" si="3"/>
+        <v>-40.300000000000011</v>
+      </c>
+      <c r="K37" s="4">
+        <f t="shared" si="3"/>
+        <v>-26.700000000000003</v>
+      </c>
+      <c r="L37" s="4">
+        <f t="shared" si="3"/>
+        <v>-26.900000000000006</v>
+      </c>
+      <c r="M37" s="4">
+        <f t="shared" si="3"/>
+        <v>-16.3</v>
+      </c>
+      <c r="N37" s="4">
+        <f t="shared" si="3"/>
+        <v>-43.400000000000006</v>
+      </c>
+      <c r="O37" s="4">
+        <f t="shared" si="3"/>
+        <v>-41.599999999999994</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="4">
-        <f t="shared" ref="B37:O42" si="6">B13-B12</f>
-        <v>-22.099999999999994</v>
-      </c>
-      <c r="C37" s="4">
-        <f t="shared" si="6"/>
-        <v>-22.800000000000011</v>
-      </c>
-      <c r="D37" s="4">
-        <f t="shared" si="6"/>
-        <v>-21.899999999999991</v>
-      </c>
-      <c r="E37" s="4">
-        <f t="shared" si="6"/>
-        <v>-56.100000000000009</v>
-      </c>
-      <c r="F37" s="4">
-        <f t="shared" si="6"/>
-        <v>-78.700000000000017</v>
-      </c>
-      <c r="G37" s="4">
-        <f t="shared" si="6"/>
-        <v>-105.5</v>
-      </c>
-      <c r="H37" s="4">
-        <f t="shared" si="6"/>
-        <v>-18.599999999999994</v>
-      </c>
-      <c r="I37" s="4">
-        <f t="shared" si="6"/>
-        <v>-30.599999999999994</v>
-      </c>
-      <c r="J37" s="4">
-        <f t="shared" si="6"/>
-        <v>-38.200000000000017</v>
-      </c>
-      <c r="K37" s="4">
-        <f t="shared" si="6"/>
-        <v>-24.899999999999991</v>
-      </c>
-      <c r="L37" s="4">
-        <f t="shared" si="6"/>
-        <v>-24.199999999999989</v>
-      </c>
-      <c r="M37" s="4">
-        <f t="shared" si="6"/>
-        <v>-14.2</v>
-      </c>
-      <c r="N37" s="4">
-        <f t="shared" si="6"/>
-        <v>-43.800000000000011</v>
-      </c>
-      <c r="O37" s="4">
-        <f t="shared" si="6"/>
-        <v>-38.599999999999994</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
-      <c r="A38" t="s">
+      <c r="B38" s="4">
+        <f t="shared" si="3"/>
+        <v>-16.900000000000006</v>
+      </c>
+      <c r="C38" s="4">
+        <f t="shared" si="3"/>
+        <v>-37.599999999999994</v>
+      </c>
+      <c r="D38" s="4">
+        <f t="shared" si="3"/>
+        <v>-6.7999999999999972</v>
+      </c>
+      <c r="E38" s="4">
+        <f t="shared" si="3"/>
+        <v>-6.1999999999999957</v>
+      </c>
+      <c r="F38" s="4">
+        <f t="shared" si="3"/>
+        <v>-18.699999999999996</v>
+      </c>
+      <c r="G38" s="4">
+        <f t="shared" si="3"/>
+        <v>-18.700000000000017</v>
+      </c>
+      <c r="H38" s="4">
+        <f t="shared" si="3"/>
+        <v>-13.5</v>
+      </c>
+      <c r="I38" s="4">
+        <f t="shared" si="3"/>
+        <v>-5.1999999999999886</v>
+      </c>
+      <c r="J38" s="4">
+        <f t="shared" si="3"/>
+        <v>-19.299999999999997</v>
+      </c>
+      <c r="K38" s="4">
+        <f t="shared" si="3"/>
+        <v>-11.100000000000001</v>
+      </c>
+      <c r="L38" s="4">
+        <f t="shared" si="3"/>
+        <v>-28.399999999999977</v>
+      </c>
+      <c r="M38" s="4">
+        <f t="shared" si="3"/>
+        <v>-8.1000000000000014</v>
+      </c>
+      <c r="N38" s="4">
+        <f t="shared" si="3"/>
+        <v>-20</v>
+      </c>
+      <c r="O38" s="4">
+        <f t="shared" si="3"/>
+        <v>-16.199999999999989</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="4">
-        <f t="shared" si="6"/>
-        <v>-16.900000000000006</v>
-      </c>
-      <c r="C38" s="4">
-        <f t="shared" si="6"/>
-        <v>-37.599999999999994</v>
-      </c>
-      <c r="D38" s="4">
-        <f t="shared" si="6"/>
-        <v>-6.7999999999999972</v>
-      </c>
-      <c r="E38" s="4">
-        <f t="shared" si="6"/>
-        <v>-6.1999999999999957</v>
-      </c>
-      <c r="F38" s="4">
-        <f t="shared" si="6"/>
-        <v>-18.699999999999996</v>
-      </c>
-      <c r="G38" s="4">
-        <f t="shared" si="6"/>
-        <v>-18.700000000000017</v>
-      </c>
-      <c r="H38" s="4">
-        <f t="shared" si="6"/>
-        <v>-13.799999999999997</v>
-      </c>
-      <c r="I38" s="4">
-        <f t="shared" si="6"/>
-        <v>-5.1999999999999886</v>
-      </c>
-      <c r="J38" s="4">
-        <f t="shared" si="6"/>
-        <v>-19.299999999999997</v>
-      </c>
-      <c r="K38" s="4">
-        <f t="shared" si="6"/>
+      <c r="B39" s="4">
+        <f t="shared" si="3"/>
+        <v>1.7000000000000171</v>
+      </c>
+      <c r="C39" s="4">
+        <f t="shared" si="3"/>
+        <v>10.100000000000009</v>
+      </c>
+      <c r="D39" s="4">
+        <f t="shared" si="3"/>
+        <v>21.900000000000006</v>
+      </c>
+      <c r="E39" s="4">
+        <f t="shared" si="3"/>
+        <v>5.8999999999999986</v>
+      </c>
+      <c r="F39" s="4">
+        <f t="shared" si="3"/>
+        <v>-1.1999999999999957</v>
+      </c>
+      <c r="G39" s="4">
+        <f t="shared" si="3"/>
+        <v>-2.5999999999999943</v>
+      </c>
+      <c r="H39" s="4">
+        <f t="shared" si="3"/>
+        <v>-4.1999999999999957</v>
+      </c>
+      <c r="I39" s="4">
+        <f t="shared" si="3"/>
+        <v>-16.400000000000006</v>
+      </c>
+      <c r="J39" s="4">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="K39" s="4">
+        <f t="shared" si="3"/>
+        <v>1.6999999999999957</v>
+      </c>
+      <c r="L39" s="4">
+        <f t="shared" si="3"/>
+        <v>-8.6000000000000227</v>
+      </c>
+      <c r="M39" s="4">
+        <f t="shared" si="3"/>
+        <v>-2.5</v>
+      </c>
+      <c r="N39" s="4">
+        <f t="shared" si="3"/>
+        <v>-6</v>
+      </c>
+      <c r="O39" s="4">
+        <f t="shared" si="3"/>
+        <v>0.19999999999998863</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C40" s="4">
+        <f t="shared" si="3"/>
+        <v>-3.4000000000000057</v>
+      </c>
+      <c r="D40" s="4">
+        <f t="shared" si="3"/>
+        <v>-6.9000000000000057</v>
+      </c>
+      <c r="E40" s="4">
+        <f t="shared" si="3"/>
+        <v>1.7000000000000028</v>
+      </c>
+      <c r="F40" s="4">
+        <f t="shared" si="3"/>
+        <v>2.7999999999999972</v>
+      </c>
+      <c r="G40" s="4">
+        <f t="shared" si="3"/>
+        <v>-16</v>
+      </c>
+      <c r="H40" s="4">
+        <f t="shared" si="3"/>
+        <v>-4.6000000000000014</v>
+      </c>
+      <c r="I40" s="4">
+        <f t="shared" si="3"/>
+        <v>-2.5999999999999943</v>
+      </c>
+      <c r="J40" s="4">
+        <f t="shared" si="3"/>
+        <v>-1.7999999999999972</v>
+      </c>
+      <c r="K40" s="4">
+        <f t="shared" si="3"/>
+        <v>-1.0999999999999943</v>
+      </c>
+      <c r="L40" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="4">
+        <f t="shared" si="3"/>
+        <v>-1.6999999999999993</v>
+      </c>
+      <c r="N40" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.69999999999998863</v>
+      </c>
+      <c r="O40" s="4">
+        <f t="shared" si="3"/>
+        <v>-2.5999999999999943</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="4">
+        <f t="shared" si="3"/>
+        <v>-27.200000000000017</v>
+      </c>
+      <c r="C41" s="4">
+        <f t="shared" si="3"/>
+        <v>-22.799999999999997</v>
+      </c>
+      <c r="D41" s="4">
+        <f t="shared" si="3"/>
+        <v>-8.2000000000000028</v>
+      </c>
+      <c r="E41" s="4">
+        <f t="shared" si="3"/>
         <v>-11.600000000000001</v>
       </c>
-      <c r="L38" s="4">
-        <f t="shared" si="6"/>
-        <v>-24.099999999999994</v>
-      </c>
-      <c r="M38" s="4">
-        <f t="shared" si="6"/>
-        <v>-8.1000000000000014</v>
-      </c>
-      <c r="N38" s="4">
-        <f t="shared" si="6"/>
-        <v>-20</v>
-      </c>
-      <c r="O38" s="4">
-        <f t="shared" si="6"/>
-        <v>-15.900000000000006</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="4">
-        <f t="shared" si="6"/>
-        <v>1.7000000000000171</v>
-      </c>
-      <c r="C39" s="4">
-        <f t="shared" si="6"/>
-        <v>10.100000000000009</v>
-      </c>
-      <c r="D39" s="4">
-        <f t="shared" si="6"/>
-        <v>21.900000000000006</v>
-      </c>
-      <c r="E39" s="4">
-        <f t="shared" si="6"/>
-        <v>5.8999999999999986</v>
-      </c>
-      <c r="F39" s="4">
-        <f t="shared" si="6"/>
-        <v>-1.1999999999999957</v>
-      </c>
-      <c r="G39" s="4">
-        <f t="shared" si="6"/>
-        <v>-2.5999999999999943</v>
-      </c>
-      <c r="H39" s="4">
-        <f t="shared" si="6"/>
-        <v>-4.2000000000000028</v>
-      </c>
-      <c r="I39" s="4">
-        <f t="shared" si="6"/>
-        <v>-16.400000000000006</v>
-      </c>
-      <c r="J39" s="4">
-        <f t="shared" si="6"/>
-        <v>2.5</v>
-      </c>
-      <c r="K39" s="4">
-        <f t="shared" si="6"/>
-        <v>1.6999999999999957</v>
-      </c>
-      <c r="L39" s="4">
-        <f t="shared" si="6"/>
+      <c r="F41" s="4">
+        <f t="shared" si="3"/>
+        <v>-5.1000000000000014</v>
+      </c>
+      <c r="G41" s="4">
+        <f t="shared" si="3"/>
+        <v>-16.700000000000003</v>
+      </c>
+      <c r="H41" s="4">
+        <f t="shared" si="3"/>
+        <v>-11.6</v>
+      </c>
+      <c r="I41" s="4">
+        <f t="shared" si="3"/>
+        <v>-25.800000000000011</v>
+      </c>
+      <c r="J41" s="4">
+        <f t="shared" si="3"/>
+        <v>-10.700000000000003</v>
+      </c>
+      <c r="K41" s="4">
+        <f t="shared" si="3"/>
         <v>-7.4000000000000057</v>
       </c>
-      <c r="M39" s="4">
-        <f t="shared" si="6"/>
-        <v>-2.5</v>
-      </c>
-      <c r="N39" s="4">
-        <f t="shared" si="6"/>
-        <v>-6</v>
-      </c>
-      <c r="O39" s="4">
-        <f t="shared" si="6"/>
-        <v>0.29999999999999716</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" s="4">
-        <f t="shared" si="6"/>
+      <c r="L41" s="4">
+        <f t="shared" si="3"/>
+        <v>-16.599999999999994</v>
+      </c>
+      <c r="M41" s="4">
+        <f t="shared" si="3"/>
+        <v>-2.1999999999999993</v>
+      </c>
+      <c r="N41" s="4">
+        <f t="shared" si="3"/>
+        <v>-10.700000000000003</v>
+      </c>
+      <c r="O41" s="4">
+        <f t="shared" si="3"/>
+        <v>-13.599999999999994</v>
+      </c>
+      <c r="Q41" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="R41" s="10"/>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="4">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="C40" s="4">
-        <f t="shared" si="6"/>
-        <v>-3.4000000000000057</v>
-      </c>
-      <c r="D40" s="4">
-        <f t="shared" si="6"/>
-        <v>-6.9000000000000057</v>
-      </c>
-      <c r="E40" s="4">
-        <f t="shared" si="6"/>
-        <v>1.7000000000000028</v>
-      </c>
-      <c r="F40" s="4">
-        <f t="shared" si="6"/>
-        <v>2.7999999999999972</v>
-      </c>
-      <c r="G40" s="4">
-        <f t="shared" si="6"/>
-        <v>-16</v>
-      </c>
-      <c r="H40" s="4">
-        <f t="shared" si="6"/>
-        <v>-4.6000000000000014</v>
-      </c>
-      <c r="I40" s="4">
-        <f t="shared" si="6"/>
-        <v>-2.5999999999999943</v>
-      </c>
-      <c r="J40" s="4">
-        <f t="shared" si="6"/>
-        <v>-1.7999999999999972</v>
-      </c>
-      <c r="K40" s="4">
-        <f t="shared" si="6"/>
-        <v>-1.0999999999999943</v>
-      </c>
-      <c r="L40" s="4">
-        <f t="shared" si="6"/>
+      <c r="C42" s="4">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M40" s="4">
-        <f t="shared" si="6"/>
-        <v>-1.6999999999999993</v>
-      </c>
-      <c r="N40" s="4">
-        <f t="shared" si="6"/>
-        <v>-0.69999999999998863</v>
-      </c>
-      <c r="O40" s="4">
-        <f t="shared" si="6"/>
-        <v>-2.7000000000000028</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="4">
-        <f t="shared" si="6"/>
-        <v>-27.200000000000017</v>
-      </c>
-      <c r="C41" s="4">
-        <f t="shared" si="6"/>
-        <v>-22.799999999999997</v>
-      </c>
-      <c r="D41" s="4">
-        <f t="shared" si="6"/>
-        <v>-8.2000000000000028</v>
-      </c>
-      <c r="E41" s="4">
-        <f t="shared" si="6"/>
-        <v>-11.600000000000001</v>
-      </c>
-      <c r="F41" s="4">
-        <f t="shared" si="6"/>
-        <v>-5.1000000000000014</v>
-      </c>
-      <c r="G41" s="4">
-        <f t="shared" si="6"/>
-        <v>-16.700000000000003</v>
-      </c>
-      <c r="H41" s="4">
-        <f t="shared" si="6"/>
-        <v>-11.599999999999998</v>
-      </c>
-      <c r="I41" s="4">
-        <f t="shared" si="6"/>
-        <v>-25.800000000000011</v>
-      </c>
-      <c r="J41" s="4">
-        <f t="shared" si="6"/>
-        <v>-10.700000000000003</v>
-      </c>
-      <c r="K41" s="4">
-        <f t="shared" si="6"/>
-        <v>-7.4000000000000057</v>
-      </c>
-      <c r="L41" s="4">
-        <f t="shared" si="6"/>
-        <v>-14</v>
-      </c>
-      <c r="M41" s="4">
-        <f t="shared" si="6"/>
-        <v>-2.1999999999999993</v>
-      </c>
-      <c r="N41" s="4">
-        <f t="shared" si="6"/>
-        <v>-10.700000000000003</v>
-      </c>
-      <c r="O41" s="4">
-        <f t="shared" si="6"/>
-        <v>-13.399999999999991</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
-      <c r="A42" t="s">
+      <c r="D42" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="4">
+        <f t="shared" si="3"/>
+        <v>-9.9</v>
+      </c>
+      <c r="I42" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="4">
+        <f t="shared" si="3"/>
+        <v>-3.5</v>
+      </c>
+      <c r="L42" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N42" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O42" s="4">
+        <f t="shared" si="3"/>
+        <v>-1.1000000000000085</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43" t="s">
         <v>41</v>
-      </c>
-      <c r="B42" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="C42" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D42" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E42" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F42" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G42" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H42" s="4">
-        <f t="shared" si="6"/>
-        <v>-9.9</v>
-      </c>
-      <c r="I42" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J42" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K42" s="4">
-        <f t="shared" si="6"/>
-        <v>-3.5</v>
-      </c>
-      <c r="L42" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M42" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N42" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O42" s="4">
-        <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
-      <c r="A43" t="s">
-        <v>42</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -2877,7 +2969,7 @@
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:18">
       <c r="A44" t="s">
         <v>15</v>
       </c>
@@ -2886,300 +2978,300 @@
         <v>118.6</v>
       </c>
       <c r="C44" s="4">
-        <f t="shared" ref="C44:O44" si="7">C20</f>
+        <f t="shared" ref="C44:O44" si="4">C20</f>
         <v>100</v>
       </c>
       <c r="D44" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>112.3</v>
       </c>
       <c r="E44" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>55.1</v>
       </c>
       <c r="F44" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>54.9</v>
       </c>
       <c r="G44" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>121.8</v>
       </c>
       <c r="H44" s="4">
-        <f t="shared" si="7"/>
-        <v>3.9</v>
+        <f t="shared" si="4"/>
+        <v>2.5</v>
       </c>
       <c r="I44" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>110.5</v>
       </c>
       <c r="J44" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>91.8</v>
       </c>
       <c r="K44" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>49.8</v>
       </c>
       <c r="L44" s="4">
-        <f t="shared" si="7"/>
-        <v>101</v>
+        <f t="shared" si="4"/>
+        <v>117.1</v>
       </c>
       <c r="M44" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-17.2</v>
       </c>
       <c r="N44" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>107.7</v>
       </c>
       <c r="O44" s="4">
-        <f t="shared" si="7"/>
-        <v>77.7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
+        <f t="shared" si="4"/>
+        <v>78.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45" t="s">
         <v>16</v>
       </c>
       <c r="B45" s="4">
-        <f t="shared" ref="B45:O48" si="8">B21</f>
+        <f t="shared" ref="B45:O48" si="5">B21</f>
         <v>23.7</v>
       </c>
       <c r="C45" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>16.100000000000001</v>
       </c>
       <c r="D45" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>27.4</v>
       </c>
       <c r="E45" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>13.3</v>
       </c>
       <c r="F45" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G45" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>6.2</v>
       </c>
       <c r="H45" s="4">
-        <f t="shared" si="8"/>
-        <v>2.5</v>
+        <f t="shared" si="5"/>
+        <v>1.9</v>
       </c>
       <c r="I45" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>-2.1</v>
       </c>
       <c r="J45" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>-3.6</v>
       </c>
       <c r="K45" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>4.8</v>
       </c>
       <c r="L45" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>16.3</v>
       </c>
       <c r="M45" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>3.9</v>
       </c>
       <c r="N45" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
       <c r="O45" s="4">
-        <f t="shared" si="8"/>
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
+        <f t="shared" si="5"/>
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46" t="s">
         <v>17</v>
       </c>
       <c r="B46" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>33.9</v>
       </c>
       <c r="C46" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>41.6</v>
       </c>
       <c r="D46" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>49.3</v>
       </c>
       <c r="E46" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>14.8</v>
       </c>
       <c r="F46" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>37.200000000000003</v>
       </c>
       <c r="G46" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>25.3</v>
       </c>
       <c r="H46" s="4">
-        <f t="shared" si="8"/>
-        <v>-1.7</v>
+        <f t="shared" si="5"/>
+        <v>-2.6</v>
       </c>
       <c r="I46" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>57.9</v>
       </c>
       <c r="J46" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>46.8</v>
       </c>
       <c r="K46" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>28.2</v>
       </c>
       <c r="L46" s="4">
-        <f t="shared" si="8"/>
-        <v>36.6</v>
+        <f t="shared" si="5"/>
+        <v>40.9</v>
       </c>
       <c r="M46" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="N46" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>37.200000000000003</v>
       </c>
       <c r="O46" s="4">
-        <f t="shared" si="8"/>
-        <v>31.9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
+        <f t="shared" si="5"/>
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
       <c r="A47" t="s">
         <v>18</v>
       </c>
       <c r="B47" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1.7</v>
       </c>
       <c r="C47" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>6.7</v>
       </c>
       <c r="D47" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>6.8</v>
       </c>
       <c r="E47" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>2.5</v>
       </c>
       <c r="F47" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>-2.4</v>
       </c>
       <c r="G47" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>11.9</v>
       </c>
       <c r="H47" s="4">
-        <f t="shared" si="8"/>
-        <v>-0.3</v>
+        <f t="shared" si="5"/>
+        <v>-0.8</v>
       </c>
       <c r="I47" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="J47" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>8.1999999999999993</v>
       </c>
       <c r="K47" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>-0.6</v>
       </c>
       <c r="L47" s="4">
-        <f t="shared" si="8"/>
-        <v>13.2</v>
+        <f t="shared" si="5"/>
+        <v>15.4</v>
       </c>
       <c r="M47" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>-10.7</v>
       </c>
       <c r="N47" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="O47" s="4">
-        <f t="shared" si="8"/>
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
+        <f t="shared" si="5"/>
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
       <c r="A48" t="s">
         <v>20</v>
       </c>
       <c r="B48" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>59.3</v>
       </c>
       <c r="C48" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>35.6</v>
       </c>
       <c r="D48" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>28.8</v>
       </c>
       <c r="E48" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>24.4</v>
       </c>
       <c r="F48" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>20.100000000000001</v>
       </c>
       <c r="G48" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>78.5</v>
       </c>
       <c r="H48" s="4">
-        <f t="shared" si="8"/>
-        <v>3.4</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="I48" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>53.7</v>
       </c>
       <c r="J48" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>40.4</v>
       </c>
       <c r="K48" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>17.5</v>
       </c>
       <c r="L48" s="4">
-        <f t="shared" si="8"/>
-        <v>35</v>
+        <f t="shared" si="5"/>
+        <v>44.5</v>
       </c>
       <c r="M48" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>-18.399999999999999</v>
       </c>
       <c r="N48" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>55.2</v>
       </c>
       <c r="O48" s="4">
-        <f t="shared" si="8"/>
-        <v>33.299999999999997</v>
+        <f t="shared" si="5"/>
+        <v>34.1</v>
       </c>
     </row>
     <row r="49" spans="2:15">
@@ -3213,8 +3305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:F63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9:R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3222,56 +3314,56 @@
     <col min="1" max="1" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1">
+    <row r="1" spans="1:18" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
         <v>43</v>
       </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3315,59 +3407,59 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5">
-        <v>250.8</v>
+        <v>254.2</v>
       </c>
       <c r="C5">
-        <v>231.5</v>
+        <v>235.6</v>
       </c>
       <c r="D5">
-        <v>179.5</v>
+        <v>182.2</v>
       </c>
       <c r="E5">
-        <v>159.9</v>
+        <v>163</v>
       </c>
       <c r="F5">
-        <v>210.1</v>
+        <v>211.9</v>
       </c>
       <c r="G5">
-        <v>345.5</v>
+        <v>349.5</v>
       </c>
       <c r="H5">
-        <v>99.8</v>
+        <v>99.4</v>
       </c>
       <c r="I5">
-        <v>266.8</v>
+        <v>268.89999999999998</v>
       </c>
       <c r="J5">
-        <v>196.4</v>
+        <v>197.5</v>
       </c>
       <c r="K5">
-        <v>121.3</v>
+        <v>122.3</v>
       </c>
       <c r="L5">
-        <v>192.4</v>
+        <v>225.8</v>
       </c>
       <c r="M5">
-        <v>25.9</v>
+        <v>27.3</v>
       </c>
       <c r="N5">
-        <v>237.9</v>
+        <v>239.5</v>
       </c>
       <c r="O5">
-        <v>193.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>198.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -3381,40 +3473,40 @@
         <v>60.3</v>
       </c>
       <c r="E6">
-        <v>102.6</v>
+        <v>103.7</v>
       </c>
       <c r="F6">
-        <v>133.1</v>
+        <v>133.30000000000001</v>
       </c>
       <c r="G6">
-        <v>164.8</v>
+        <v>165.3</v>
       </c>
       <c r="H6">
-        <v>53.9</v>
+        <v>52.6</v>
       </c>
       <c r="I6">
         <v>86.3</v>
       </c>
       <c r="J6">
-        <v>68.599999999999994</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="K6">
-        <v>57</v>
+        <v>56.8</v>
       </c>
       <c r="L6">
-        <v>69.5</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="M6">
-        <v>34.799999999999997</v>
+        <v>35</v>
       </c>
       <c r="N6">
         <v>95.1</v>
       </c>
       <c r="O6">
-        <v>83.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>83.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -3437,7 +3529,7 @@
         <v>67.900000000000006</v>
       </c>
       <c r="H7">
-        <v>20.9</v>
+        <v>19.7</v>
       </c>
       <c r="I7">
         <v>101.1</v>
@@ -3449,7 +3541,7 @@
         <v>44.7</v>
       </c>
       <c r="L7">
-        <v>59.8</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="M7">
         <v>23.5</v>
@@ -3458,57 +3550,57 @@
         <v>56.4</v>
       </c>
       <c r="O7">
-        <v>59.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>60.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>18</v>
       </c>
       <c r="B8">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C8">
+        <v>8.1</v>
+      </c>
+      <c r="D8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E8">
+        <v>2.6</v>
+      </c>
+      <c r="F8">
+        <v>-1</v>
+      </c>
+      <c r="G8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H8">
+        <v>4.3</v>
+      </c>
+      <c r="I8">
+        <v>4.7</v>
+      </c>
+      <c r="J8">
         <v>6.8</v>
       </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8">
-        <v>1.4</v>
-      </c>
-      <c r="E8">
-        <v>0.7</v>
-      </c>
-      <c r="F8">
-        <v>-2.7</v>
-      </c>
-      <c r="G8">
-        <v>-1.3</v>
-      </c>
-      <c r="H8">
-        <v>2.9</v>
-      </c>
-      <c r="I8">
-        <v>2.6</v>
-      </c>
-      <c r="J8">
-        <v>5</v>
-      </c>
       <c r="K8">
-        <v>-4.8</v>
+        <v>-3.7</v>
       </c>
       <c r="L8">
-        <v>12.7</v>
+        <v>19</v>
       </c>
       <c r="M8">
-        <v>-15.6</v>
+        <v>-14.5</v>
       </c>
       <c r="N8">
-        <v>13.5</v>
+        <v>15.1</v>
       </c>
       <c r="O8">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -3531,7 +3623,7 @@
         <v>114.1</v>
       </c>
       <c r="H9">
-        <v>22.1</v>
+        <v>22.8</v>
       </c>
       <c r="I9">
         <v>76.8</v>
@@ -3540,10 +3632,10 @@
         <v>47.5</v>
       </c>
       <c r="K9">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="L9">
-        <v>50.4</v>
+        <v>62.2</v>
       </c>
       <c r="M9">
         <v>-16.7</v>
@@ -3552,62 +3644,66 @@
         <v>72.8</v>
       </c>
       <c r="O9">
-        <v>48.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>49.7</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="R9" s="10"/>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
         <v>15</v>
       </c>
       <c r="B11">
-        <v>183.1</v>
+        <v>186.4</v>
       </c>
       <c r="C11">
-        <v>176.5</v>
+        <v>182.6</v>
       </c>
       <c r="D11">
-        <v>134.19999999999999</v>
+        <v>137</v>
       </c>
       <c r="E11">
-        <v>121.4</v>
+        <v>124.7</v>
       </c>
       <c r="F11">
-        <v>155.80000000000001</v>
+        <v>162.5</v>
       </c>
       <c r="G11">
-        <v>281.3</v>
+        <v>287</v>
       </c>
       <c r="H11">
-        <v>66.599999999999994</v>
+        <v>67.2</v>
       </c>
       <c r="I11">
         <v>191.1</v>
       </c>
       <c r="J11">
-        <v>159.30000000000001</v>
+        <v>161.4</v>
       </c>
       <c r="K11">
-        <v>96.6</v>
+        <v>97.9</v>
       </c>
       <c r="L11">
-        <v>170.7</v>
+        <v>197.6</v>
       </c>
       <c r="M11">
-        <v>11.5</v>
+        <v>13.6</v>
       </c>
       <c r="N11">
-        <v>188.9</v>
+        <v>188.5</v>
       </c>
       <c r="O11">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>153.69999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -3615,46 +3711,46 @@
         <v>-16.899999999999999</v>
       </c>
       <c r="C12">
-        <v>13.4</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>55.5</v>
+        <v>57.1</v>
       </c>
       <c r="F12">
-        <v>64.099999999999994</v>
+        <v>70.8</v>
       </c>
       <c r="G12">
-        <v>85.3</v>
+        <v>88.4</v>
       </c>
       <c r="H12">
-        <v>10.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="I12">
-        <v>-10.5</v>
+        <v>-12.6</v>
       </c>
       <c r="J12">
-        <v>21.4</v>
+        <v>22.1</v>
       </c>
       <c r="K12">
-        <v>25.5</v>
+        <v>25.8</v>
       </c>
       <c r="L12">
-        <v>40.799999999999997</v>
+        <v>37.6</v>
       </c>
       <c r="M12">
-        <v>16.5</v>
+        <v>17.7</v>
       </c>
       <c r="N12">
-        <v>31.4</v>
+        <v>28.6</v>
       </c>
       <c r="O12">
-        <v>25.9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -3677,7 +3773,7 @@
         <v>67.900000000000006</v>
       </c>
       <c r="H13">
-        <v>20.9</v>
+        <v>19.7</v>
       </c>
       <c r="I13">
         <v>101.1</v>
@@ -3689,7 +3785,7 @@
         <v>44.7</v>
       </c>
       <c r="L13">
-        <v>59.8</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="M13">
         <v>23.5</v>
@@ -3698,57 +3794,57 @@
         <v>56.4</v>
       </c>
       <c r="O13">
-        <v>59.7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>60.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
         <v>18</v>
       </c>
       <c r="B14">
-        <v>27.1</v>
+        <v>30.5</v>
       </c>
       <c r="C14">
-        <v>22.1</v>
+        <v>25.5</v>
       </c>
       <c r="D14">
-        <v>16.399999999999999</v>
+        <v>19.2</v>
       </c>
       <c r="E14">
-        <v>9.3000000000000007</v>
+        <v>11</v>
       </c>
       <c r="F14">
         <v>12</v>
       </c>
       <c r="G14">
-        <v>14.1</v>
+        <v>16.7</v>
       </c>
       <c r="H14">
-        <v>13.3</v>
+        <v>14.2</v>
       </c>
       <c r="I14">
-        <v>25.3</v>
+        <v>27.4</v>
       </c>
       <c r="J14">
-        <v>15</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="K14">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>19.7</v>
+        <v>27.9</v>
       </c>
       <c r="M14">
-        <v>-11.7</v>
+        <v>-10.9</v>
       </c>
       <c r="N14">
-        <v>28.6</v>
+        <v>30.9</v>
       </c>
       <c r="O14">
-        <v>14.9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -3771,7 +3867,7 @@
         <v>114.1</v>
       </c>
       <c r="H15">
-        <v>22.1</v>
+        <v>22.8</v>
       </c>
       <c r="I15">
         <v>75.3</v>
@@ -3783,7 +3879,7 @@
         <v>24.4</v>
       </c>
       <c r="L15">
-        <v>50.4</v>
+        <v>62.2</v>
       </c>
       <c r="M15">
         <v>-16.7</v>
@@ -3792,12 +3888,12 @@
         <v>72.5</v>
       </c>
       <c r="O15">
-        <v>48.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -3823,7 +3919,7 @@
         <v>175.8</v>
       </c>
       <c r="H17">
-        <v>48</v>
+        <v>46.3</v>
       </c>
       <c r="I17">
         <v>160.5</v>
@@ -3832,10 +3928,10 @@
         <v>121.1</v>
       </c>
       <c r="K17">
-        <v>71.7</v>
+        <v>71.2</v>
       </c>
       <c r="L17">
-        <v>146.5</v>
+        <v>170.7</v>
       </c>
       <c r="M17">
         <v>-2.7</v>
@@ -3844,7 +3940,7 @@
         <v>145.1</v>
       </c>
       <c r="O17">
-        <v>110.4</v>
+        <v>112.1</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -3870,7 +3966,7 @@
         <v>-2.6</v>
       </c>
       <c r="H18">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="I18">
         <v>-16.8</v>
@@ -3882,7 +3978,7 @@
         <v>3.9</v>
       </c>
       <c r="L18">
-        <v>17.7</v>
+        <v>17.3</v>
       </c>
       <c r="M18">
         <v>3.5</v>
@@ -3891,7 +3987,7 @@
         <v>-3.4</v>
       </c>
       <c r="O18">
-        <v>-0.8</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -3917,7 +4013,7 @@
         <v>67.900000000000006</v>
       </c>
       <c r="H19">
-        <v>20.9</v>
+        <v>19.7</v>
       </c>
       <c r="I19">
         <v>101.1</v>
@@ -3929,7 +4025,7 @@
         <v>44.7</v>
       </c>
       <c r="L19">
-        <v>59.8</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="M19">
         <v>23.5</v>
@@ -3938,7 +4034,7 @@
         <v>56.4</v>
       </c>
       <c r="O19">
-        <v>59.7</v>
+        <v>60.4</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -3964,7 +4060,7 @@
         <v>-3.5</v>
       </c>
       <c r="H20">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="I20">
         <v>1.1000000000000001</v>
@@ -3973,10 +4069,10 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="K20">
-        <v>-1</v>
+        <v>-1.4</v>
       </c>
       <c r="L20">
-        <v>18.7</v>
+        <v>21.3</v>
       </c>
       <c r="M20">
         <v>-12.9</v>
@@ -3985,7 +4081,7 @@
         <v>20</v>
       </c>
       <c r="O20">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -4011,7 +4107,7 @@
         <v>114.1</v>
       </c>
       <c r="H21">
-        <v>22.1</v>
+        <v>22.8</v>
       </c>
       <c r="I21">
         <v>75.3</v>
@@ -4020,10 +4116,10 @@
         <v>47.5</v>
       </c>
       <c r="K21">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="L21">
-        <v>50.3</v>
+        <v>62.1</v>
       </c>
       <c r="M21">
         <v>-16.8</v>
@@ -4032,12 +4128,12 @@
         <v>72</v>
       </c>
       <c r="O21">
-        <v>48.5</v>
+        <v>49.4</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -4063,7 +4159,7 @@
         <v>157.1</v>
       </c>
       <c r="H23">
-        <v>34.200000000000003</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="I23">
         <v>155.30000000000001</v>
@@ -4075,7 +4171,7 @@
         <v>60.1</v>
       </c>
       <c r="L23">
-        <v>122.4</v>
+        <v>142.30000000000001</v>
       </c>
       <c r="M23">
         <v>-10.8</v>
@@ -4084,7 +4180,7 @@
         <v>125.1</v>
       </c>
       <c r="O23">
-        <v>94.5</v>
+        <v>95.9</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -4110,7 +4206,7 @@
         <v>-0.9</v>
       </c>
       <c r="H24">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="I24">
         <v>-4.2</v>
@@ -4157,7 +4253,7 @@
         <v>49.5</v>
       </c>
       <c r="H25">
-        <v>7.6</v>
+        <v>6.7</v>
       </c>
       <c r="I25">
         <v>83.2</v>
@@ -4169,7 +4265,7 @@
         <v>34.799999999999997</v>
       </c>
       <c r="L25">
-        <v>44.3</v>
+        <v>50.5</v>
       </c>
       <c r="M25">
         <v>16.7</v>
@@ -4178,7 +4274,7 @@
         <v>43.4</v>
       </c>
       <c r="O25">
-        <v>43.3</v>
+        <v>43.7</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -4204,7 +4300,7 @@
         <v>-4.5999999999999996</v>
       </c>
       <c r="H26">
-        <v>2.2999999999999998</v>
+        <v>1.9</v>
       </c>
       <c r="I26">
         <v>1.1000000000000001</v>
@@ -4216,7 +4312,7 @@
         <v>-1.4</v>
       </c>
       <c r="L26">
-        <v>17.399999999999999</v>
+        <v>19.8</v>
       </c>
       <c r="M26">
         <v>-13</v>
@@ -4225,7 +4321,7 @@
         <v>16.899999999999999</v>
       </c>
       <c r="O26">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -4251,7 +4347,7 @@
         <v>113.2</v>
       </c>
       <c r="H27">
-        <v>21.8</v>
+        <v>22.4</v>
       </c>
       <c r="I27">
         <v>75.3</v>
@@ -4263,7 +4359,7 @@
         <v>23.4</v>
       </c>
       <c r="L27">
-        <v>46.4</v>
+        <v>57.9</v>
       </c>
       <c r="M27">
         <v>-16.8</v>
@@ -4272,12 +4368,12 @@
         <v>67.5</v>
       </c>
       <c r="O27">
-        <v>46.8</v>
+        <v>47.7</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -4303,7 +4399,7 @@
         <v>154.5</v>
       </c>
       <c r="H29">
-        <v>30</v>
+        <v>28.6</v>
       </c>
       <c r="I29">
         <v>138.9</v>
@@ -4315,7 +4411,7 @@
         <v>61.8</v>
       </c>
       <c r="L29">
-        <v>115</v>
+        <v>133.69999999999999</v>
       </c>
       <c r="M29">
         <v>-13.3</v>
@@ -4324,7 +4420,7 @@
         <v>119.1</v>
       </c>
       <c r="O29">
-        <v>94.8</v>
+        <v>96.1</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -4350,7 +4446,7 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="H30">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="I30">
         <v>-2.1</v>
@@ -4397,7 +4493,7 @@
         <v>27.9</v>
       </c>
       <c r="H31">
-        <v>-1.4</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="I31">
         <v>58.9</v>
@@ -4409,7 +4505,7 @@
         <v>28.3</v>
       </c>
       <c r="L31">
-        <v>36.4</v>
+        <v>40.9</v>
       </c>
       <c r="M31">
         <v>8</v>
@@ -4418,7 +4514,7 @@
         <v>37.200000000000003</v>
       </c>
       <c r="O31">
-        <v>32.299999999999997</v>
+        <v>32.6</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -4444,7 +4540,7 @@
         <v>2.9</v>
       </c>
       <c r="H32">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="I32">
         <v>6.8</v>
@@ -4456,7 +4552,7 @@
         <v>1.2</v>
       </c>
       <c r="L32">
-        <v>16.399999999999999</v>
+        <v>19.2</v>
       </c>
       <c r="M32">
         <v>-9.6999999999999993</v>
@@ -4465,7 +4561,7 @@
         <v>17.2</v>
       </c>
       <c r="O32">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -4491,7 +4587,7 @@
         <v>114.1</v>
       </c>
       <c r="H33">
-        <v>21.7</v>
+        <v>22.3</v>
       </c>
       <c r="I33">
         <v>75.3</v>
@@ -4503,7 +4599,7 @@
         <v>23.5</v>
       </c>
       <c r="L33">
-        <v>45.7</v>
+        <v>57.1</v>
       </c>
       <c r="M33">
         <v>-16.8</v>
@@ -4512,12 +4608,12 @@
         <v>66.7</v>
       </c>
       <c r="O33">
-        <v>46.7</v>
+        <v>47.6</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -4543,7 +4639,7 @@
         <v>138.5</v>
       </c>
       <c r="H35">
-        <v>25.4</v>
+        <v>24</v>
       </c>
       <c r="I35">
         <v>136.30000000000001</v>
@@ -4555,7 +4651,7 @@
         <v>60.7</v>
       </c>
       <c r="L35">
-        <v>115</v>
+        <v>133.69999999999999</v>
       </c>
       <c r="M35">
         <v>-15</v>
@@ -4564,7 +4660,7 @@
         <v>118.4</v>
       </c>
       <c r="O35">
-        <v>92.1</v>
+        <v>93.5</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -4590,7 +4686,7 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="H36">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="I36">
         <v>-2.1</v>
@@ -4611,7 +4707,7 @@
         <v>-2</v>
       </c>
       <c r="O36">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -4637,7 +4733,7 @@
         <v>25.3</v>
       </c>
       <c r="H37">
-        <v>-1.4</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="I37">
         <v>58.9</v>
@@ -4649,7 +4745,7 @@
         <v>28.2</v>
       </c>
       <c r="L37">
-        <v>36.4</v>
+        <v>40.9</v>
       </c>
       <c r="M37">
         <v>8</v>
@@ -4658,7 +4754,7 @@
         <v>37.200000000000003</v>
       </c>
       <c r="O37">
-        <v>32.1</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -4684,7 +4780,7 @@
         <v>13.2</v>
       </c>
       <c r="H38">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="I38">
         <v>6.8</v>
@@ -4696,7 +4792,7 @@
         <v>1.7</v>
       </c>
       <c r="L38">
-        <v>16.399999999999999</v>
+        <v>19.2</v>
       </c>
       <c r="M38">
         <v>-9.8000000000000007</v>
@@ -4705,7 +4801,7 @@
         <v>17.2</v>
       </c>
       <c r="O38">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -4731,7 +4827,7 @@
         <v>90.3</v>
       </c>
       <c r="H39">
-        <v>17</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="I39">
         <v>72.599999999999994</v>
@@ -4743,7 +4839,7 @@
         <v>22.1</v>
       </c>
       <c r="L39">
-        <v>45.7</v>
+        <v>57.1</v>
       </c>
       <c r="M39">
         <v>-18.399999999999999</v>
@@ -4752,12 +4848,12 @@
         <v>66</v>
       </c>
       <c r="O39">
-        <v>43.4</v>
+        <v>44.4</v>
       </c>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -4783,7 +4879,7 @@
         <v>121.8</v>
       </c>
       <c r="H41">
-        <v>13.8</v>
+        <v>12.4</v>
       </c>
       <c r="I41">
         <v>110.5</v>
@@ -4795,7 +4891,7 @@
         <v>53.3</v>
       </c>
       <c r="L41">
-        <v>101</v>
+        <v>117.1</v>
       </c>
       <c r="M41">
         <v>-17.2</v>
@@ -4804,7 +4900,7 @@
         <v>107.7</v>
       </c>
       <c r="O41">
-        <v>78.7</v>
+        <v>79.900000000000006</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -4830,7 +4926,7 @@
         <v>6.2</v>
       </c>
       <c r="H42">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="I42">
         <v>-2.1</v>
@@ -4877,7 +4973,7 @@
         <v>25.3</v>
       </c>
       <c r="H43">
-        <v>-1.7</v>
+        <v>-2.6</v>
       </c>
       <c r="I43">
         <v>57.9</v>
@@ -4889,7 +4985,7 @@
         <v>28.2</v>
       </c>
       <c r="L43">
-        <v>36.6</v>
+        <v>40.9</v>
       </c>
       <c r="M43">
         <v>8</v>
@@ -4898,7 +4994,7 @@
         <v>37.200000000000003</v>
       </c>
       <c r="O43">
-        <v>31.9</v>
+        <v>32.200000000000003</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -4924,7 +5020,7 @@
         <v>11.9</v>
       </c>
       <c r="H44">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="I44">
         <v>1.1000000000000001</v>
@@ -4936,7 +5032,7 @@
         <v>-0.3</v>
       </c>
       <c r="L44">
-        <v>13.2</v>
+        <v>15.4</v>
       </c>
       <c r="M44">
         <v>-10.7</v>
@@ -4945,7 +5041,7 @@
         <v>15</v>
       </c>
       <c r="O44">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -4971,7 +5067,7 @@
         <v>78.5</v>
       </c>
       <c r="H45">
-        <v>7.1</v>
+        <v>7.7</v>
       </c>
       <c r="I45">
         <v>53.7</v>
@@ -4983,7 +5079,7 @@
         <v>18.5</v>
       </c>
       <c r="L45">
-        <v>35</v>
+        <v>44.5</v>
       </c>
       <c r="M45">
         <v>-18.399999999999999</v>
@@ -4992,12 +5088,12 @@
         <v>55.2</v>
       </c>
       <c r="O45">
-        <v>33.700000000000003</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="46" spans="1:15">
       <c r="A46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -5023,7 +5119,7 @@
         <v>121.8</v>
       </c>
       <c r="H47">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="I47">
         <v>110.5</v>
@@ -5035,7 +5131,7 @@
         <v>49.8</v>
       </c>
       <c r="L47">
-        <v>101</v>
+        <v>117.1</v>
       </c>
       <c r="M47">
         <v>-17.2</v>
@@ -5044,7 +5140,7 @@
         <v>107.7</v>
       </c>
       <c r="O47">
-        <v>77.7</v>
+        <v>78.8</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -5070,7 +5166,7 @@
         <v>6.2</v>
       </c>
       <c r="H48">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="I48">
         <v>-2.1</v>
@@ -5091,7 +5187,7 @@
         <v>0.2</v>
       </c>
       <c r="O48">
-        <v>8.4</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="49" spans="1:20">
@@ -5117,7 +5213,7 @@
         <v>25.3</v>
       </c>
       <c r="H49">
-        <v>-1.7</v>
+        <v>-2.6</v>
       </c>
       <c r="I49">
         <v>57.9</v>
@@ -5129,7 +5225,7 @@
         <v>28.2</v>
       </c>
       <c r="L49">
-        <v>36.6</v>
+        <v>40.9</v>
       </c>
       <c r="M49">
         <v>8</v>
@@ -5138,7 +5234,7 @@
         <v>37.200000000000003</v>
       </c>
       <c r="O49">
-        <v>31.9</v>
+        <v>32.200000000000003</v>
       </c>
     </row>
     <row r="50" spans="1:20">
@@ -5164,7 +5260,7 @@
         <v>11.9</v>
       </c>
       <c r="H50">
-        <v>-0.3</v>
+        <v>-0.8</v>
       </c>
       <c r="I50">
         <v>1.1000000000000001</v>
@@ -5176,7 +5272,7 @@
         <v>-0.6</v>
       </c>
       <c r="L50">
-        <v>13.2</v>
+        <v>15.4</v>
       </c>
       <c r="M50">
         <v>-10.7</v>
@@ -5185,7 +5281,7 @@
         <v>15</v>
       </c>
       <c r="O50">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="51" spans="1:20">
@@ -5211,7 +5307,7 @@
         <v>78.5</v>
       </c>
       <c r="H51">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="I51">
         <v>53.7</v>
@@ -5223,7 +5319,7 @@
         <v>17.5</v>
       </c>
       <c r="L51">
-        <v>35</v>
+        <v>44.5</v>
       </c>
       <c r="M51">
         <v>-18.399999999999999</v>
@@ -5232,12 +5328,12 @@
         <v>55.2</v>
       </c>
       <c r="O51">
-        <v>33.299999999999997</v>
+        <v>34.1</v>
       </c>
     </row>
     <row r="53" spans="1:20" s="3" customFormat="1">
       <c r="A53" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:20">
@@ -5257,32 +5353,32 @@
         <v>19</v>
       </c>
       <c r="T55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:20">
       <c r="A56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B56">
         <f t="shared" ref="B56:B63" ca="1" si="0">OFFSET($O$5,0+$T56,0)</f>
-        <v>193.7</v>
+        <v>198.2</v>
       </c>
       <c r="C56">
         <f t="shared" ref="C56:C63" ca="1" si="1">OFFSET($O$6,0+$T56,0)</f>
-        <v>83.3</v>
+        <v>83.7</v>
       </c>
       <c r="D56">
         <f t="shared" ref="D56:D63" ca="1" si="2">OFFSET($O$7,0+$T56,0)</f>
-        <v>59.7</v>
+        <v>60.4</v>
       </c>
       <c r="E56">
         <f t="shared" ref="E56:E63" ca="1" si="3">OFFSET($O$8,0+$T56,0)</f>
-        <v>1.9</v>
+        <v>4.5</v>
       </c>
       <c r="F56">
         <f t="shared" ref="F56:F63" ca="1" si="4">OFFSET($O$9,0+$T56,0)</f>
-        <v>48.7</v>
+        <v>49.7</v>
       </c>
       <c r="T56">
         <v>0</v>
@@ -5290,27 +5386,27 @@
     </row>
     <row r="57" spans="1:20">
       <c r="A57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="0"/>
-        <v>149</v>
+        <v>153.69999999999999</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="1"/>
-        <v>25.9</v>
+        <v>26.6</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="2"/>
-        <v>59.7</v>
+        <v>60.4</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="3"/>
-        <v>14.9</v>
+        <v>17.2</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="4"/>
-        <v>48.5</v>
+        <v>49.5</v>
       </c>
       <c r="T57">
         <v>6</v>
@@ -5318,27 +5414,27 @@
     </row>
     <row r="58" spans="1:20">
       <c r="A58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="0"/>
-        <v>110.4</v>
+        <v>112.1</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.8</v>
+        <v>-0.9</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="2"/>
-        <v>59.7</v>
+        <v>60.4</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="3"/>
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="4"/>
-        <v>48.5</v>
+        <v>49.4</v>
       </c>
       <c r="T58">
         <v>12</v>
@@ -5346,11 +5442,11 @@
     </row>
     <row r="59" spans="1:20">
       <c r="A59" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="0"/>
-        <v>94.5</v>
+        <v>95.9</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="1"/>
@@ -5358,15 +5454,15 @@
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="2"/>
-        <v>43.3</v>
+        <v>43.7</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="3"/>
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="4"/>
-        <v>46.8</v>
+        <v>47.7</v>
       </c>
       <c r="T59">
         <v>18</v>
@@ -5374,11 +5470,11 @@
     </row>
     <row r="60" spans="1:20">
       <c r="A60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="0"/>
-        <v>94.8</v>
+        <v>96.1</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="1"/>
@@ -5386,15 +5482,15 @@
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="2"/>
-        <v>32.299999999999997</v>
+        <v>32.6</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="3"/>
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="4"/>
-        <v>46.7</v>
+        <v>47.6</v>
       </c>
       <c r="T60">
         <v>24</v>
@@ -5402,27 +5498,27 @@
     </row>
     <row r="61" spans="1:20">
       <c r="A61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="0"/>
-        <v>92.1</v>
+        <v>93.5</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="1"/>
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="2"/>
-        <v>32.1</v>
+        <v>32.4</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="3"/>
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="4"/>
-        <v>43.4</v>
+        <v>44.4</v>
       </c>
       <c r="T61">
         <v>30</v>
@@ -5430,11 +5526,11 @@
     </row>
     <row r="62" spans="1:20">
       <c r="A62" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="0"/>
-        <v>78.7</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="1"/>
@@ -5442,15 +5538,15 @@
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="2"/>
-        <v>31.9</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="3"/>
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="4"/>
-        <v>33.700000000000003</v>
+        <v>34.5</v>
       </c>
       <c r="T62">
         <v>36</v>
@@ -5458,27 +5554,27 @@
     </row>
     <row r="63" spans="1:20">
       <c r="A63" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="0"/>
-        <v>77.7</v>
+        <v>78.8</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="1"/>
-        <v>8.4</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="2"/>
-        <v>31.9</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="3"/>
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="4"/>
-        <v>33.299999999999997</v>
+        <v>34.1</v>
       </c>
       <c r="T63">
         <v>42</v>
@@ -5527,92 +5623,92 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B67">
         <f ca="1">OFFSET(B$5,0+$T56,0)</f>
-        <v>250.8</v>
+        <v>254.2</v>
       </c>
       <c r="C67">
         <f t="shared" ref="C67:N67" ca="1" si="5">OFFSET(C$5,0+$T56,0)</f>
-        <v>231.5</v>
+        <v>235.6</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="5"/>
-        <v>179.5</v>
+        <v>182.2</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="5"/>
-        <v>159.9</v>
+        <v>163</v>
       </c>
       <c r="F67">
         <f t="shared" ca="1" si="5"/>
-        <v>210.1</v>
+        <v>211.9</v>
       </c>
       <c r="G67">
         <f t="shared" ca="1" si="5"/>
-        <v>345.5</v>
+        <v>349.5</v>
       </c>
       <c r="H67">
         <f t="shared" ca="1" si="5"/>
-        <v>99.8</v>
+        <v>99.4</v>
       </c>
       <c r="I67">
         <f t="shared" ca="1" si="5"/>
-        <v>266.8</v>
+        <v>268.89999999999998</v>
       </c>
       <c r="J67">
         <f t="shared" ca="1" si="5"/>
-        <v>196.4</v>
+        <v>197.5</v>
       </c>
       <c r="K67">
         <f t="shared" ca="1" si="5"/>
-        <v>121.3</v>
+        <v>122.3</v>
       </c>
       <c r="L67">
         <f t="shared" ca="1" si="5"/>
-        <v>192.4</v>
+        <v>225.8</v>
       </c>
       <c r="M67">
         <f t="shared" ca="1" si="5"/>
-        <v>25.9</v>
+        <v>27.3</v>
       </c>
       <c r="N67">
         <f t="shared" ca="1" si="5"/>
-        <v>237.9</v>
+        <v>239.5</v>
       </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B68">
         <f t="shared" ref="B68:N74" ca="1" si="6">OFFSET(B$5,0+$T57,0)</f>
-        <v>183.1</v>
+        <v>186.4</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="6"/>
-        <v>176.5</v>
+        <v>182.6</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="6"/>
-        <v>134.19999999999999</v>
+        <v>137</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="6"/>
-        <v>121.4</v>
+        <v>124.7</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="6"/>
-        <v>155.80000000000001</v>
+        <v>162.5</v>
       </c>
       <c r="G68">
         <f t="shared" ca="1" si="6"/>
-        <v>281.3</v>
+        <v>287</v>
       </c>
       <c r="H68">
         <f t="shared" ca="1" si="6"/>
-        <v>66.599999999999994</v>
+        <v>67.2</v>
       </c>
       <c r="I68">
         <f t="shared" ca="1" si="6"/>
@@ -5620,28 +5716,28 @@
       </c>
       <c r="J68">
         <f t="shared" ca="1" si="6"/>
-        <v>159.30000000000001</v>
+        <v>161.4</v>
       </c>
       <c r="K68">
         <f t="shared" ca="1" si="6"/>
-        <v>96.6</v>
+        <v>97.9</v>
       </c>
       <c r="L68">
         <f t="shared" ca="1" si="6"/>
-        <v>170.7</v>
+        <v>197.6</v>
       </c>
       <c r="M68">
         <f t="shared" ca="1" si="6"/>
-        <v>11.5</v>
+        <v>13.6</v>
       </c>
       <c r="N68">
         <f t="shared" ca="1" si="6"/>
-        <v>188.9</v>
+        <v>188.5</v>
       </c>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B69">
         <f t="shared" ca="1" si="6"/>
@@ -5669,7 +5765,7 @@
       </c>
       <c r="H69">
         <f t="shared" ca="1" si="6"/>
-        <v>48</v>
+        <v>46.3</v>
       </c>
       <c r="I69">
         <f t="shared" ca="1" si="6"/>
@@ -5681,11 +5777,11 @@
       </c>
       <c r="K69">
         <f t="shared" ca="1" si="6"/>
-        <v>71.7</v>
+        <v>71.2</v>
       </c>
       <c r="L69">
         <f t="shared" ca="1" si="6"/>
-        <v>146.5</v>
+        <v>170.7</v>
       </c>
       <c r="M69">
         <f t="shared" ca="1" si="6"/>
@@ -5698,7 +5794,7 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B70">
         <f t="shared" ca="1" si="6"/>
@@ -5726,7 +5822,7 @@
       </c>
       <c r="H70">
         <f t="shared" ca="1" si="6"/>
-        <v>34.200000000000003</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="I70">
         <f t="shared" ca="1" si="6"/>
@@ -5742,7 +5838,7 @@
       </c>
       <c r="L70">
         <f t="shared" ca="1" si="6"/>
-        <v>122.4</v>
+        <v>142.30000000000001</v>
       </c>
       <c r="M70">
         <f t="shared" ca="1" si="6"/>
@@ -5755,7 +5851,7 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B71">
         <f t="shared" ca="1" si="6"/>
@@ -5783,7 +5879,7 @@
       </c>
       <c r="H71">
         <f t="shared" ca="1" si="6"/>
-        <v>30</v>
+        <v>28.6</v>
       </c>
       <c r="I71">
         <f t="shared" ca="1" si="6"/>
@@ -5799,7 +5895,7 @@
       </c>
       <c r="L71">
         <f t="shared" ca="1" si="6"/>
-        <v>115</v>
+        <v>133.69999999999999</v>
       </c>
       <c r="M71">
         <f t="shared" ca="1" si="6"/>
@@ -5812,7 +5908,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B72">
         <f t="shared" ca="1" si="6"/>
@@ -5840,7 +5936,7 @@
       </c>
       <c r="H72">
         <f t="shared" ca="1" si="6"/>
-        <v>25.4</v>
+        <v>24</v>
       </c>
       <c r="I72">
         <f t="shared" ca="1" si="6"/>
@@ -5856,7 +5952,7 @@
       </c>
       <c r="L72">
         <f t="shared" ca="1" si="6"/>
-        <v>115</v>
+        <v>133.69999999999999</v>
       </c>
       <c r="M72">
         <f t="shared" ca="1" si="6"/>
@@ -5869,7 +5965,7 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B73">
         <f t="shared" ca="1" si="6"/>
@@ -5897,7 +5993,7 @@
       </c>
       <c r="H73">
         <f t="shared" ca="1" si="6"/>
-        <v>13.8</v>
+        <v>12.4</v>
       </c>
       <c r="I73">
         <f t="shared" ca="1" si="6"/>
@@ -5913,7 +6009,7 @@
       </c>
       <c r="L73">
         <f t="shared" ca="1" si="6"/>
-        <v>101</v>
+        <v>117.1</v>
       </c>
       <c r="M73">
         <f t="shared" ca="1" si="6"/>
@@ -5926,7 +6022,7 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B74">
         <f t="shared" ca="1" si="6"/>
@@ -5954,7 +6050,7 @@
       </c>
       <c r="H74">
         <f t="shared" ca="1" si="6"/>
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="I74">
         <f t="shared" ca="1" si="6"/>
@@ -5970,7 +6066,7 @@
       </c>
       <c r="L74">
         <f t="shared" ca="1" si="6"/>
-        <v>101</v>
+        <v>117.1</v>
       </c>
       <c r="M74">
         <f t="shared" ca="1" si="6"/>
@@ -5994,10 +6090,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P57"/>
+  <dimension ref="A1:U57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6006,7 +6102,7 @@
     <col min="2" max="2" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6050,151 +6146,151 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1">
+    <row r="2" spans="1:21" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" t="s">
-        <v>62</v>
-      </c>
       <c r="B3">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C3">
+        <v>1012</v>
+      </c>
+      <c r="D3">
+        <v>412</v>
+      </c>
+      <c r="E3">
+        <v>3792</v>
+      </c>
+      <c r="F3">
+        <v>29502</v>
+      </c>
+      <c r="G3">
+        <v>4090</v>
+      </c>
+      <c r="H3">
+        <v>2576</v>
+      </c>
+      <c r="I3">
+        <v>1402</v>
+      </c>
+      <c r="J3">
+        <v>1666</v>
+      </c>
+      <c r="K3">
+        <v>13954</v>
+      </c>
+      <c r="L3">
+        <v>12784</v>
+      </c>
+      <c r="M3">
+        <v>2454</v>
+      </c>
+      <c r="N3">
+        <v>17920</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="1" customFormat="1">
+      <c r="A4" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>418</v>
+      </c>
+      <c r="C5">
         <v>1000</v>
       </c>
-      <c r="D3">
-        <v>408</v>
-      </c>
-      <c r="E3">
-        <v>3748</v>
-      </c>
-      <c r="F3">
-        <v>29330</v>
-      </c>
-      <c r="G3">
-        <v>4054</v>
-      </c>
-      <c r="H3">
-        <v>2582</v>
-      </c>
-      <c r="I3">
-        <v>1394</v>
-      </c>
-      <c r="J3">
-        <v>1660</v>
-      </c>
-      <c r="K3">
-        <v>13902</v>
-      </c>
-      <c r="L3">
-        <v>11488</v>
-      </c>
-      <c r="M3">
-        <v>2428</v>
-      </c>
-      <c r="N3">
-        <v>17834</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1">
-      <c r="A4" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" t="s">
+      <c r="D5">
+        <v>412</v>
+      </c>
+      <c r="E5">
+        <v>3792</v>
+      </c>
+      <c r="F5">
+        <v>29502</v>
+      </c>
+      <c r="G5">
+        <v>4090</v>
+      </c>
+      <c r="H5">
+        <v>2576</v>
+      </c>
+      <c r="I5">
+        <v>1402</v>
+      </c>
+      <c r="J5">
+        <v>1666</v>
+      </c>
+      <c r="K5">
+        <v>13622</v>
+      </c>
+      <c r="L5">
+        <v>12724</v>
+      </c>
+      <c r="M5">
+        <v>2474</v>
+      </c>
+      <c r="N5">
+        <v>17972</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B5">
-        <v>414</v>
-      </c>
-      <c r="C5">
-        <v>988</v>
-      </c>
-      <c r="D5">
-        <v>408</v>
-      </c>
-      <c r="E5">
-        <v>3748</v>
-      </c>
-      <c r="F5">
-        <v>29330</v>
-      </c>
-      <c r="G5">
-        <v>4054</v>
-      </c>
-      <c r="H5">
-        <v>2582</v>
-      </c>
-      <c r="I5">
-        <v>1394</v>
-      </c>
-      <c r="J5">
-        <v>1660</v>
-      </c>
-      <c r="K5">
-        <v>13562</v>
-      </c>
-      <c r="L5">
-        <v>11422</v>
-      </c>
-      <c r="M5">
-        <v>2448</v>
-      </c>
-      <c r="N5">
-        <v>17886</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
       <c r="B6">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C6">
-        <v>824</v>
+        <v>842</v>
       </c>
       <c r="D6">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="E6">
-        <v>3192</v>
+        <v>3240</v>
       </c>
       <c r="F6">
-        <v>24192</v>
+        <v>24824</v>
       </c>
       <c r="G6">
-        <v>3470</v>
+        <v>3522</v>
       </c>
       <c r="H6">
-        <v>2152</v>
+        <v>2160</v>
       </c>
       <c r="I6">
         <v>1106</v>
       </c>
       <c r="J6">
-        <v>1452</v>
+        <v>1464</v>
       </c>
       <c r="K6">
-        <v>12048</v>
+        <v>12128</v>
       </c>
       <c r="L6">
-        <v>10572</v>
+        <v>11626</v>
       </c>
       <c r="M6">
-        <v>2168</v>
+        <v>2208</v>
       </c>
       <c r="N6">
-        <v>15294</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>15272</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7">
         <v>308</v>
@@ -6215,7 +6311,7 @@
         <v>2510</v>
       </c>
       <c r="H7">
-        <v>1912</v>
+        <v>1890</v>
       </c>
       <c r="I7">
         <v>990</v>
@@ -6224,10 +6320,10 @@
         <v>1238</v>
       </c>
       <c r="K7">
-        <v>10522</v>
+        <v>10490</v>
       </c>
       <c r="L7">
-        <v>9628</v>
+        <v>10572</v>
       </c>
       <c r="M7">
         <v>1892</v>
@@ -6236,9 +6332,9 @@
         <v>12976</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8">
         <v>288</v>
@@ -6259,7 +6355,7 @@
         <v>2340</v>
       </c>
       <c r="H8">
-        <v>1734</v>
+        <v>1716</v>
       </c>
       <c r="I8">
         <v>970</v>
@@ -6271,7 +6367,7 @@
         <v>9810</v>
       </c>
       <c r="L8">
-        <v>8686</v>
+        <v>9466</v>
       </c>
       <c r="M8">
         <v>1734</v>
@@ -6279,10 +6375,14 @@
       <c r="N8">
         <v>11916</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="T8" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="U8" s="10"/>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9">
         <v>290</v>
@@ -6303,7 +6403,7 @@
         <v>2316</v>
       </c>
       <c r="H9">
-        <v>1680</v>
+        <v>1662</v>
       </c>
       <c r="I9">
         <v>908</v>
@@ -6315,7 +6415,7 @@
         <v>9918</v>
       </c>
       <c r="L9">
-        <v>8396</v>
+        <v>9128</v>
       </c>
       <c r="M9">
         <v>1686</v>
@@ -6324,9 +6424,9 @@
         <v>11600</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10">
         <v>290</v>
@@ -6347,7 +6447,7 @@
         <v>2170</v>
       </c>
       <c r="H10">
-        <v>1620</v>
+        <v>1602</v>
       </c>
       <c r="I10">
         <v>898</v>
@@ -6359,7 +6459,7 @@
         <v>9850</v>
       </c>
       <c r="L10">
-        <v>8396</v>
+        <v>9128</v>
       </c>
       <c r="M10">
         <v>1652</v>
@@ -6368,9 +6468,9 @@
         <v>11562</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11">
         <v>258</v>
@@ -6391,7 +6491,7 @@
         <v>2018</v>
       </c>
       <c r="H11">
-        <v>1470</v>
+        <v>1452</v>
       </c>
       <c r="I11">
         <v>800</v>
@@ -6403,7 +6503,7 @@
         <v>9392</v>
       </c>
       <c r="L11">
-        <v>7852</v>
+        <v>8478</v>
       </c>
       <c r="M11">
         <v>1610</v>
@@ -6412,9 +6512,9 @@
         <v>10994</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12">
         <v>258</v>
@@ -6435,7 +6535,7 @@
         <v>2018</v>
       </c>
       <c r="H12">
-        <v>1342</v>
+        <v>1324</v>
       </c>
       <c r="I12">
         <v>800</v>
@@ -6447,7 +6547,7 @@
         <v>9182</v>
       </c>
       <c r="L12">
-        <v>7852</v>
+        <v>8478</v>
       </c>
       <c r="M12">
         <v>1610</v>
@@ -6456,14 +6556,14 @@
         <v>10994</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="5" customFormat="1">
+    <row r="13" spans="1:21" s="5" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B14">
         <f t="shared" ref="B14:N14" si="0">B3-B5</f>
@@ -6503,11 +6603,11 @@
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="L14">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="M14">
         <f t="shared" si="0"/>
@@ -6518,99 +6618,99 @@
         <v>-52</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="5" customFormat="1">
+    <row r="15" spans="1:21" s="5" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16">
         <f t="shared" ref="B16:N16" si="1">B5+B$14</f>
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>1012</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>3748</v>
+        <v>3792</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>29330</v>
+        <v>29502</v>
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>4054</v>
+        <v>4090</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>2582</v>
+        <v>2576</v>
       </c>
       <c r="I16">
         <f t="shared" si="1"/>
-        <v>1394</v>
+        <v>1402</v>
       </c>
       <c r="J16">
         <f t="shared" si="1"/>
-        <v>1660</v>
+        <v>1666</v>
       </c>
       <c r="K16">
         <f t="shared" si="1"/>
-        <v>13902</v>
+        <v>13954</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>11488</v>
+        <v>12784</v>
       </c>
       <c r="M16">
         <f t="shared" si="1"/>
-        <v>2428</v>
+        <v>2454</v>
       </c>
       <c r="N16">
         <f t="shared" si="1"/>
-        <v>17834</v>
+        <v>17920</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17">
         <f t="shared" ref="B17:N17" si="2">B6+B$14</f>
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C17">
         <f t="shared" si="2"/>
-        <v>836</v>
+        <v>854</v>
       </c>
       <c r="D17">
         <f t="shared" si="2"/>
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="E17">
         <f t="shared" si="2"/>
-        <v>3192</v>
+        <v>3240</v>
       </c>
       <c r="F17">
         <f t="shared" si="2"/>
-        <v>24192</v>
+        <v>24824</v>
       </c>
       <c r="G17">
         <f t="shared" si="2"/>
-        <v>3470</v>
+        <v>3522</v>
       </c>
       <c r="H17">
         <f t="shared" si="2"/>
-        <v>2152</v>
+        <v>2160</v>
       </c>
       <c r="I17">
         <f t="shared" si="2"/>
@@ -6618,28 +6718,28 @@
       </c>
       <c r="J17">
         <f t="shared" si="2"/>
-        <v>1452</v>
+        <v>1464</v>
       </c>
       <c r="K17">
         <f t="shared" si="2"/>
-        <v>12388</v>
+        <v>12460</v>
       </c>
       <c r="L17">
         <f t="shared" si="2"/>
-        <v>10638</v>
+        <v>11686</v>
       </c>
       <c r="M17">
         <f t="shared" si="2"/>
-        <v>2148</v>
+        <v>2188</v>
       </c>
       <c r="N17">
         <f t="shared" si="2"/>
-        <v>15242</v>
+        <v>15220</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18">
         <f t="shared" ref="B18:N18" si="3">B7+B$14</f>
@@ -6667,7 +6767,7 @@
       </c>
       <c r="H18">
         <f t="shared" si="3"/>
-        <v>1912</v>
+        <v>1890</v>
       </c>
       <c r="I18">
         <f t="shared" si="3"/>
@@ -6679,11 +6779,11 @@
       </c>
       <c r="K18">
         <f t="shared" si="3"/>
-        <v>10862</v>
+        <v>10822</v>
       </c>
       <c r="L18">
         <f t="shared" si="3"/>
-        <v>9694</v>
+        <v>10632</v>
       </c>
       <c r="M18">
         <f t="shared" si="3"/>
@@ -6696,7 +6796,7 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19">
         <f t="shared" ref="B19:N19" si="4">B8+B$14</f>
@@ -6724,7 +6824,7 @@
       </c>
       <c r="H19">
         <f t="shared" si="4"/>
-        <v>1734</v>
+        <v>1716</v>
       </c>
       <c r="I19">
         <f t="shared" si="4"/>
@@ -6736,11 +6836,11 @@
       </c>
       <c r="K19">
         <f t="shared" si="4"/>
-        <v>10150</v>
+        <v>10142</v>
       </c>
       <c r="L19">
         <f t="shared" si="4"/>
-        <v>8752</v>
+        <v>9526</v>
       </c>
       <c r="M19">
         <f t="shared" si="4"/>
@@ -6753,7 +6853,7 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20">
         <f t="shared" ref="B20:N20" si="5">B9+B$14</f>
@@ -6781,7 +6881,7 @@
       </c>
       <c r="H20">
         <f t="shared" si="5"/>
-        <v>1680</v>
+        <v>1662</v>
       </c>
       <c r="I20">
         <f t="shared" si="5"/>
@@ -6793,11 +6893,11 @@
       </c>
       <c r="K20">
         <f t="shared" si="5"/>
-        <v>10258</v>
+        <v>10250</v>
       </c>
       <c r="L20">
         <f t="shared" si="5"/>
-        <v>8462</v>
+        <v>9188</v>
       </c>
       <c r="M20">
         <f t="shared" si="5"/>
@@ -6810,7 +6910,7 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21">
         <f t="shared" ref="B21:N21" si="6">B10+B$14</f>
@@ -6838,7 +6938,7 @@
       </c>
       <c r="H21">
         <f t="shared" si="6"/>
-        <v>1620</v>
+        <v>1602</v>
       </c>
       <c r="I21">
         <f t="shared" si="6"/>
@@ -6850,11 +6950,11 @@
       </c>
       <c r="K21">
         <f t="shared" si="6"/>
-        <v>10190</v>
+        <v>10182</v>
       </c>
       <c r="L21">
         <f t="shared" si="6"/>
-        <v>8462</v>
+        <v>9188</v>
       </c>
       <c r="M21">
         <f t="shared" si="6"/>
@@ -6867,7 +6967,7 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22">
         <f t="shared" ref="B22:N22" si="7">B11+B$14</f>
@@ -6895,7 +6995,7 @@
       </c>
       <c r="H22">
         <f t="shared" si="7"/>
-        <v>1470</v>
+        <v>1452</v>
       </c>
       <c r="I22">
         <f t="shared" si="7"/>
@@ -6907,11 +7007,11 @@
       </c>
       <c r="K22">
         <f t="shared" si="7"/>
-        <v>9732</v>
+        <v>9724</v>
       </c>
       <c r="L22">
         <f t="shared" si="7"/>
-        <v>7918</v>
+        <v>8538</v>
       </c>
       <c r="M22">
         <f t="shared" si="7"/>
@@ -6924,7 +7024,7 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B23">
         <f t="shared" ref="B23:N23" si="8">B12+B$14</f>
@@ -6952,7 +7052,7 @@
       </c>
       <c r="H23">
         <f t="shared" si="8"/>
-        <v>1342</v>
+        <v>1324</v>
       </c>
       <c r="I23">
         <f t="shared" si="8"/>
@@ -6964,11 +7064,11 @@
       </c>
       <c r="K23">
         <f t="shared" si="8"/>
-        <v>9522</v>
+        <v>9514</v>
       </c>
       <c r="L23">
         <f t="shared" si="8"/>
-        <v>7918</v>
+        <v>8538</v>
       </c>
       <c r="M23">
         <f t="shared" si="8"/>
@@ -6981,7 +7081,7 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B24">
         <f>B12</f>
@@ -7009,7 +7109,7 @@
       </c>
       <c r="H24">
         <f t="shared" si="9"/>
-        <v>1342</v>
+        <v>1324</v>
       </c>
       <c r="I24">
         <f t="shared" si="9"/>
@@ -7025,7 +7125,7 @@
       </c>
       <c r="L24">
         <f t="shared" si="9"/>
-        <v>7852</v>
+        <v>8478</v>
       </c>
       <c r="M24">
         <f t="shared" si="9"/>
@@ -7038,12 +7138,12 @@
     </row>
     <row r="25" spans="1:16" s="5" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B26" s="6">
         <f t="shared" ref="B26:N26" si="10">(B16-B$16)/B$16</f>
@@ -7105,622 +7205,625 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27" s="6">
         <f t="shared" ref="B27:N27" si="11">(B17-B$16)/B$16</f>
-        <v>-0.19323671497584541</v>
+        <v>-0.19138755980861244</v>
       </c>
       <c r="C27" s="6">
         <f t="shared" si="11"/>
-        <v>-0.16400000000000001</v>
+        <v>-0.15612648221343872</v>
       </c>
       <c r="D27" s="6">
         <f t="shared" si="11"/>
-        <v>-0.16176470588235295</v>
+        <v>-0.16019417475728157</v>
       </c>
       <c r="E27" s="6">
         <f t="shared" si="11"/>
-        <v>-0.14834578441835647</v>
+        <v>-0.14556962025316456</v>
       </c>
       <c r="F27" s="6">
         <f t="shared" si="11"/>
-        <v>-0.17517899761336517</v>
+        <v>-0.15856552098162838</v>
       </c>
       <c r="G27" s="6">
         <f t="shared" si="11"/>
-        <v>-0.14405525407005426</v>
+        <v>-0.13887530562347189</v>
       </c>
       <c r="H27" s="6">
         <f t="shared" si="11"/>
-        <v>-0.16653756777691711</v>
+        <v>-0.16149068322981366</v>
       </c>
       <c r="I27" s="6">
         <f t="shared" si="11"/>
-        <v>-0.20659971305595409</v>
+        <v>-0.21112696148359486</v>
       </c>
       <c r="J27" s="6">
         <f t="shared" si="11"/>
-        <v>-0.12530120481927712</v>
+        <v>-0.1212484993997599</v>
       </c>
       <c r="K27" s="6">
         <f t="shared" si="11"/>
-        <v>-0.10890519349733851</v>
+        <v>-0.10706607424394439</v>
       </c>
       <c r="L27" s="6">
         <f t="shared" si="11"/>
-        <v>-7.3990250696378837E-2</v>
+        <v>-8.5888610763454318E-2</v>
       </c>
       <c r="M27" s="6">
         <f t="shared" si="11"/>
-        <v>-0.11532125205930807</v>
+        <v>-0.10839445802770986</v>
       </c>
       <c r="N27" s="6">
         <f t="shared" si="11"/>
-        <v>-0.14534036110799597</v>
+        <v>-0.15066964285714285</v>
       </c>
       <c r="O27" s="6"/>
       <c r="P27" s="6">
         <f t="shared" ref="P27:P34" si="12">AVERAGE(B27:N27)</f>
-        <v>-0.14835207692101107</v>
+        <v>-0.14589258412638595</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B28" s="6">
         <f t="shared" ref="B28:N28" si="13">(B18-B$16)/B$16</f>
-        <v>-0.2560386473429952</v>
+        <v>-0.26315789473684209</v>
       </c>
       <c r="C28" s="6">
         <f t="shared" si="13"/>
-        <v>-0.23200000000000001</v>
+        <v>-0.24110671936758893</v>
       </c>
       <c r="D28" s="6">
         <f t="shared" si="13"/>
-        <v>-0.24019607843137256</v>
+        <v>-0.24757281553398058</v>
       </c>
       <c r="E28" s="6">
         <f t="shared" si="13"/>
-        <v>-0.36392742796157951</v>
+        <v>-0.37130801687763715</v>
       </c>
       <c r="F28" s="6">
         <f t="shared" si="13"/>
-        <v>-0.42877599727241733</v>
+        <v>-0.43210629787810995</v>
       </c>
       <c r="G28" s="6">
         <f t="shared" si="13"/>
-        <v>-0.38085841144548593</v>
+        <v>-0.38630806845965771</v>
       </c>
       <c r="H28" s="6">
         <f t="shared" si="13"/>
-        <v>-0.2594887683965918</v>
+        <v>-0.26630434782608697</v>
       </c>
       <c r="I28" s="6">
         <f t="shared" si="13"/>
-        <v>-0.2898134863701578</v>
+        <v>-0.29386590584878747</v>
       </c>
       <c r="J28" s="6">
         <f t="shared" si="13"/>
-        <v>-0.25421686746987954</v>
+        <v>-0.25690276110444177</v>
       </c>
       <c r="K28" s="6">
         <f t="shared" si="13"/>
-        <v>-0.2186735721478924</v>
+        <v>-0.22445177010176293</v>
       </c>
       <c r="L28" s="6">
         <f t="shared" si="13"/>
-        <v>-0.15616295264623956</v>
+        <v>-0.16833541927409262</v>
       </c>
       <c r="M28" s="6">
         <f t="shared" si="13"/>
-        <v>-0.22899505766062603</v>
+        <v>-0.23716381418092911</v>
       </c>
       <c r="N28" s="6">
         <f t="shared" si="13"/>
-        <v>-0.27531681058652013</v>
+        <v>-0.27879464285714284</v>
       </c>
       <c r="O28" s="6"/>
       <c r="P28" s="6">
         <f t="shared" si="12"/>
-        <v>-0.27572800597936598</v>
+        <v>-0.28210603646515842</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B29" s="6">
         <f t="shared" ref="B29:N29" si="14">(B19-B$16)/B$16</f>
-        <v>-0.30434782608695654</v>
+        <v>-0.31100478468899523</v>
       </c>
       <c r="C29" s="6">
         <f t="shared" si="14"/>
-        <v>-0.34399999999999997</v>
+        <v>-0.35177865612648224</v>
       </c>
       <c r="D29" s="6">
         <f t="shared" si="14"/>
-        <v>-0.26470588235294118</v>
+        <v>-0.27184466019417475</v>
       </c>
       <c r="E29" s="6">
         <f t="shared" si="14"/>
-        <v>-0.38794023479188899</v>
+        <v>-0.39504219409282698</v>
       </c>
       <c r="F29" s="6">
         <f t="shared" si="14"/>
-        <v>-0.48932833276508692</v>
+        <v>-0.49230560639956611</v>
       </c>
       <c r="G29" s="6">
         <f t="shared" si="14"/>
-        <v>-0.42279230389738531</v>
+        <v>-0.42787286063569679</v>
       </c>
       <c r="H29" s="6">
         <f t="shared" si="14"/>
-        <v>-0.32842757552285051</v>
+        <v>-0.33385093167701863</v>
       </c>
       <c r="I29" s="6">
         <f t="shared" si="14"/>
-        <v>-0.30416068866571017</v>
+        <v>-0.30813124108416545</v>
       </c>
       <c r="J29" s="6">
         <f t="shared" si="14"/>
-        <v>-0.31927710843373491</v>
+        <v>-0.32172869147659061</v>
       </c>
       <c r="K29" s="6">
         <f t="shared" si="14"/>
-        <v>-0.26988922457200404</v>
+        <v>-0.27318331661172424</v>
       </c>
       <c r="L29" s="6">
         <f t="shared" si="14"/>
-        <v>-0.2381615598885794</v>
+        <v>-0.25484981226533165</v>
       </c>
       <c r="M29" s="6">
         <f t="shared" si="14"/>
-        <v>-0.29406919275123561</v>
+        <v>-0.30154849225753871</v>
       </c>
       <c r="N29" s="6">
         <f t="shared" si="14"/>
-        <v>-0.33475384097790739</v>
+        <v>-0.33794642857142859</v>
       </c>
       <c r="O29" s="6"/>
       <c r="P29" s="6">
         <f t="shared" si="12"/>
-        <v>-0.33091182851586776</v>
+        <v>-0.3370067443139646</v>
       </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30" s="6">
         <f t="shared" ref="B30:N30" si="15">(B20-B$16)/B$16</f>
-        <v>-0.29951690821256038</v>
+        <v>-0.30622009569377989</v>
       </c>
       <c r="C30" s="6">
         <f t="shared" si="15"/>
-        <v>-0.314</v>
+        <v>-0.32213438735177868</v>
       </c>
       <c r="D30" s="6">
         <f t="shared" si="15"/>
-        <v>-0.18627450980392157</v>
+        <v>-0.1941747572815534</v>
       </c>
       <c r="E30" s="6">
         <f t="shared" si="15"/>
-        <v>-0.36499466382070439</v>
+        <v>-0.37236286919831224</v>
       </c>
       <c r="F30" s="6">
         <f t="shared" si="15"/>
-        <v>-0.49294237981588818</v>
+        <v>-0.49589858314690527</v>
       </c>
       <c r="G30" s="6">
         <f t="shared" si="15"/>
-        <v>-0.4287123828317711</v>
+        <v>-0.43374083129584351</v>
       </c>
       <c r="H30" s="6">
         <f t="shared" si="15"/>
-        <v>-0.34934159566227729</v>
+        <v>-0.35481366459627328</v>
       </c>
       <c r="I30" s="6">
         <f t="shared" si="15"/>
-        <v>-0.34863701578192252</v>
+        <v>-0.35235378031383735</v>
       </c>
       <c r="J30" s="6">
         <f t="shared" si="15"/>
-        <v>-0.31084337349397589</v>
+        <v>-0.31332533013205283</v>
       </c>
       <c r="K30" s="6">
         <f t="shared" si="15"/>
-        <v>-0.26212055819306573</v>
+        <v>-0.26544360040131859</v>
       </c>
       <c r="L30" s="6">
         <f t="shared" si="15"/>
-        <v>-0.26340529247910865</v>
+        <v>-0.28128911138923657</v>
       </c>
       <c r="M30" s="6">
         <f t="shared" si="15"/>
-        <v>-0.31383855024711699</v>
+        <v>-0.32110839445802769</v>
       </c>
       <c r="N30" s="6">
         <f t="shared" si="15"/>
-        <v>-0.35247280475496245</v>
+        <v>-0.35558035714285713</v>
       </c>
       <c r="O30" s="6"/>
       <c r="P30" s="6">
         <f t="shared" si="12"/>
-        <v>-0.32977692577671347</v>
+        <v>-0.33603428941552127</v>
       </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B31" s="6">
         <f t="shared" ref="B31:N31" si="16">(B21-B$16)/B$16</f>
-        <v>-0.29951690821256038</v>
+        <v>-0.30622009569377989</v>
       </c>
       <c r="C31" s="6">
         <f t="shared" si="16"/>
-        <v>-0.32400000000000001</v>
+        <v>-0.33201581027667987</v>
       </c>
       <c r="D31" s="6">
         <f t="shared" si="16"/>
-        <v>-0.2107843137254902</v>
+        <v>-0.21844660194174756</v>
       </c>
       <c r="E31" s="6">
         <f t="shared" si="16"/>
-        <v>-0.35859124866595515</v>
+        <v>-0.36603375527426163</v>
       </c>
       <c r="F31" s="6">
         <f t="shared" si="16"/>
-        <v>-0.48394135697238322</v>
+        <v>-0.48695003728560776</v>
       </c>
       <c r="G31" s="6">
         <f t="shared" si="16"/>
-        <v>-0.46472619634928464</v>
+        <v>-0.46943765281173594</v>
       </c>
       <c r="H31" s="6">
         <f t="shared" si="16"/>
-        <v>-0.37257939581719596</v>
+        <v>-0.37810559006211181</v>
       </c>
       <c r="I31" s="6">
         <f t="shared" si="16"/>
-        <v>-0.35581061692969873</v>
+        <v>-0.3594864479315264</v>
       </c>
       <c r="J31" s="6">
         <f t="shared" si="16"/>
-        <v>-0.31686746987951808</v>
+        <v>-0.31932773109243695</v>
       </c>
       <c r="K31" s="6">
         <f t="shared" si="16"/>
-        <v>-0.26701194072795281</v>
+        <v>-0.27031675505231473</v>
       </c>
       <c r="L31" s="6">
         <f t="shared" si="16"/>
-        <v>-0.26340529247910865</v>
+        <v>-0.28128911138923657</v>
       </c>
       <c r="M31" s="6">
         <f t="shared" si="16"/>
-        <v>-0.32784184514003295</v>
+        <v>-0.33496332518337407</v>
       </c>
       <c r="N31" s="6">
         <f t="shared" si="16"/>
-        <v>-0.35460356622182349</v>
+        <v>-0.35770089285714285</v>
       </c>
       <c r="O31" s="6"/>
       <c r="P31" s="6">
         <f t="shared" si="12"/>
-        <v>-0.33843693470161573</v>
+        <v>-0.34463798514245819</v>
       </c>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B32" s="6">
         <f t="shared" ref="B32:N32" si="17">(B22-B$16)/B$16</f>
-        <v>-0.37681159420289856</v>
+        <v>-0.38277511961722488</v>
       </c>
       <c r="C32" s="6">
         <f t="shared" si="17"/>
-        <v>-0.39200000000000002</v>
+        <v>-0.39920948616600793</v>
       </c>
       <c r="D32" s="6">
         <f t="shared" si="17"/>
-        <v>-0.24019607843137256</v>
+        <v>-0.24757281553398058</v>
       </c>
       <c r="E32" s="6">
         <f t="shared" si="17"/>
-        <v>-0.40341515474919959</v>
+        <v>-0.41033755274261602</v>
       </c>
       <c r="F32" s="6">
         <f t="shared" si="17"/>
-        <v>-0.50037504261847943</v>
+        <v>-0.50328791268388584</v>
       </c>
       <c r="G32" s="6">
         <f t="shared" si="17"/>
-        <v>-0.50222002960039469</v>
+        <v>-0.50660146699266506</v>
       </c>
       <c r="H32" s="6">
         <f t="shared" si="17"/>
-        <v>-0.43067389620449265</v>
+        <v>-0.43633540372670809</v>
       </c>
       <c r="I32" s="6">
         <f t="shared" si="17"/>
-        <v>-0.42611190817790529</v>
+        <v>-0.42938659058487877</v>
       </c>
       <c r="J32" s="6">
         <f t="shared" si="17"/>
-        <v>-0.3530120481927711</v>
+        <v>-0.35534213685474192</v>
       </c>
       <c r="K32" s="6">
         <f t="shared" si="17"/>
-        <v>-0.29995684074233925</v>
+        <v>-0.30313888490755336</v>
       </c>
       <c r="L32" s="6">
         <f t="shared" si="17"/>
-        <v>-0.31075905292479111</v>
+        <v>-0.33213391739674591</v>
       </c>
       <c r="M32" s="6">
         <f t="shared" si="17"/>
-        <v>-0.34514003294892914</v>
+        <v>-0.35207823960880197</v>
       </c>
       <c r="N32" s="6">
         <f t="shared" si="17"/>
-        <v>-0.38645284288437814</v>
+        <v>-0.38939732142857142</v>
       </c>
       <c r="O32" s="6"/>
       <c r="P32" s="6">
         <f t="shared" si="12"/>
-        <v>-0.38208650166753472</v>
+        <v>-0.38827668063418319</v>
       </c>
     </row>
     <row r="33" spans="1:16">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B33" s="6">
         <f t="shared" ref="B33:N33" si="18">(B23-B$16)/B$16</f>
-        <v>-0.37681159420289856</v>
+        <v>-0.38277511961722488</v>
       </c>
       <c r="C33" s="6">
         <f t="shared" si="18"/>
-        <v>-0.39200000000000002</v>
+        <v>-0.39920948616600793</v>
       </c>
       <c r="D33" s="6">
         <f t="shared" si="18"/>
-        <v>-0.24019607843137256</v>
+        <v>-0.24757281553398058</v>
       </c>
       <c r="E33" s="6">
         <f t="shared" si="18"/>
-        <v>-0.40341515474919959</v>
+        <v>-0.41033755274261602</v>
       </c>
       <c r="F33" s="6">
         <f t="shared" si="18"/>
-        <v>-0.50037504261847943</v>
+        <v>-0.50328791268388584</v>
       </c>
       <c r="G33" s="6">
         <f t="shared" si="18"/>
-        <v>-0.50222002960039469</v>
+        <v>-0.50660146699266506</v>
       </c>
       <c r="H33" s="6">
         <f t="shared" si="18"/>
-        <v>-0.48024786986831913</v>
+        <v>-0.4860248447204969</v>
       </c>
       <c r="I33" s="6">
         <f t="shared" si="18"/>
-        <v>-0.42611190817790529</v>
+        <v>-0.42938659058487877</v>
       </c>
       <c r="J33" s="6">
         <f t="shared" si="18"/>
-        <v>-0.3530120481927711</v>
+        <v>-0.35534213685474192</v>
       </c>
       <c r="K33" s="6">
         <f t="shared" si="18"/>
-        <v>-0.31506258092360812</v>
+        <v>-0.31818833309445321</v>
       </c>
       <c r="L33" s="6">
         <f t="shared" si="18"/>
-        <v>-0.31075905292479111</v>
+        <v>-0.33213391739674591</v>
       </c>
       <c r="M33" s="6">
         <f t="shared" si="18"/>
-        <v>-0.34514003294892914</v>
+        <v>-0.35207823960880197</v>
       </c>
       <c r="N33" s="6">
         <f t="shared" si="18"/>
-        <v>-0.38645284288437814</v>
+        <v>-0.38939732142857142</v>
       </c>
       <c r="O33" s="6"/>
       <c r="P33" s="6">
         <f t="shared" si="12"/>
-        <v>-0.38706186427100359</v>
+        <v>-0.39325659518654393</v>
       </c>
     </row>
     <row r="34" spans="1:16">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B34" s="6">
         <f t="shared" ref="B34:N34" si="19">(B24-B$16)/B$16</f>
-        <v>-0.37681159420289856</v>
+        <v>-0.38277511961722488</v>
       </c>
       <c r="C34" s="6">
         <f t="shared" si="19"/>
-        <v>-0.40400000000000003</v>
+        <v>-0.41106719367588934</v>
       </c>
       <c r="D34" s="6">
         <f t="shared" si="19"/>
-        <v>-0.24019607843137256</v>
+        <v>-0.24757281553398058</v>
       </c>
       <c r="E34" s="6">
         <f t="shared" si="19"/>
-        <v>-0.40341515474919959</v>
+        <v>-0.41033755274261602</v>
       </c>
       <c r="F34" s="6">
         <f t="shared" si="19"/>
-        <v>-0.50037504261847943</v>
+        <v>-0.50328791268388584</v>
       </c>
       <c r="G34" s="6">
         <f t="shared" si="19"/>
-        <v>-0.50222002960039469</v>
+        <v>-0.50660146699266506</v>
       </c>
       <c r="H34" s="6">
         <f t="shared" si="19"/>
-        <v>-0.48024786986831913</v>
+        <v>-0.4860248447204969</v>
       </c>
       <c r="I34" s="6">
         <f t="shared" si="19"/>
-        <v>-0.42611190817790529</v>
+        <v>-0.42938659058487877</v>
       </c>
       <c r="J34" s="6">
         <f t="shared" si="19"/>
-        <v>-0.3530120481927711</v>
+        <v>-0.35534213685474192</v>
       </c>
       <c r="K34" s="6">
         <f t="shared" si="19"/>
-        <v>-0.33951949359804345</v>
+        <v>-0.34198079403755194</v>
       </c>
       <c r="L34" s="6">
         <f t="shared" si="19"/>
-        <v>-0.3165041782729805</v>
+        <v>-0.33682728410513141</v>
       </c>
       <c r="M34" s="6">
         <f t="shared" si="19"/>
-        <v>-0.3369028006589786</v>
+        <v>-0.34392828035859818</v>
       </c>
       <c r="N34" s="6">
         <f t="shared" si="19"/>
-        <v>-0.38353706403498933</v>
+        <v>-0.38649553571428569</v>
       </c>
       <c r="O34" s="6"/>
       <c r="P34" s="6">
         <f t="shared" si="12"/>
-        <v>-0.38945025095433328</v>
+        <v>-0.39550980981707273</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="1" customFormat="1">
       <c r="A35" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:16">
       <c r="B36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B37">
         <v>8984</v>
       </c>
       <c r="C37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B38">
-        <v>15589</v>
+        <v>15847</v>
       </c>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B39">
-        <v>15865</v>
+        <v>16123</v>
       </c>
     </row>
     <row r="40" spans="1:16">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B40">
-        <v>16809</v>
+        <v>16945</v>
       </c>
     </row>
     <row r="41" spans="1:16">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B41">
-        <v>18041</v>
+        <v>18213</v>
       </c>
     </row>
     <row r="42" spans="1:16">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B42">
-        <v>21321</v>
+        <v>21495</v>
       </c>
     </row>
     <row r="43" spans="1:16">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B43">
-        <v>21769</v>
+        <v>21939</v>
       </c>
     </row>
     <row r="44" spans="1:16">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B44">
-        <v>21749</v>
+        <v>21919</v>
       </c>
     </row>
     <row r="45" spans="1:16">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B45">
-        <v>21815</v>
+        <v>21985</v>
       </c>
     </row>
     <row r="46" spans="1:16">
       <c r="A46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B46">
-        <v>22363</v>
+        <v>22533</v>
+      </c>
+      <c r="O46" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:16" s="3" customFormat="1">
       <c r="A47" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:16">
       <c r="B48" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" t="s">
         <v>70</v>
       </c>
-      <c r="C48" t="s">
+      <c r="E48" t="s">
         <v>71</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>72</v>
       </c>
-      <c r="F48" t="s">
-        <v>73</v>
-      </c>
       <c r="G48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B49">
         <f>B38-B$37</f>
-        <v>6605</v>
+        <v>6863</v>
       </c>
       <c r="G49">
         <f>'mem usage'!C52</f>
@@ -7729,11 +7832,11 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B50">
         <f t="shared" ref="B50:B57" si="20">B39-B$37</f>
-        <v>6881</v>
+        <v>7139</v>
       </c>
       <c r="C50">
         <f>B50-B$49</f>
@@ -7745,11 +7848,11 @@
       </c>
       <c r="E50" s="6">
         <f>P27</f>
-        <v>-0.14835207692101107</v>
+        <v>-0.14589258412638595</v>
       </c>
       <c r="F50" s="7">
         <f>-C50/E50/1000</f>
-        <v>1.8604390698685942</v>
+        <v>1.8918028058294087</v>
       </c>
       <c r="G50" s="5">
         <f>'mem usage'!C52</f>
@@ -7758,27 +7861,27 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B51">
         <f t="shared" si="20"/>
-        <v>7825</v>
+        <v>7961</v>
       </c>
       <c r="C51">
         <f t="shared" ref="C51:C57" si="21">B51-B$49</f>
-        <v>1220</v>
+        <v>1098</v>
       </c>
       <c r="D51">
         <f t="shared" ref="D51:D57" si="22">B51-B50</f>
-        <v>944</v>
+        <v>822</v>
       </c>
       <c r="E51" s="6">
         <f t="shared" ref="E51:E57" si="23">P28</f>
-        <v>-0.27572800597936598</v>
+        <v>-0.28210603646515842</v>
       </c>
       <c r="F51" s="7">
         <f t="shared" ref="F51:F57" si="24">-C51/E51/1000</f>
-        <v>4.424650284132901</v>
+        <v>3.892153509928912</v>
       </c>
       <c r="G51" s="5">
         <f>'mem usage'!D52</f>
@@ -7787,27 +7890,27 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <f t="shared" si="20"/>
-        <v>9057</v>
+        <v>9229</v>
       </c>
       <c r="C52">
         <f t="shared" si="21"/>
-        <v>2452</v>
+        <v>2366</v>
       </c>
       <c r="D52">
         <f t="shared" si="22"/>
-        <v>1232</v>
+        <v>1268</v>
       </c>
       <c r="E52" s="6">
         <f t="shared" si="23"/>
-        <v>-0.33091182851586776</v>
+        <v>-0.3370067443139646</v>
       </c>
       <c r="F52" s="7">
         <f t="shared" si="24"/>
-        <v>7.4098288084689088</v>
+        <v>7.0206310108612264</v>
       </c>
       <c r="G52" s="5">
         <f>'mem usage'!E52</f>
@@ -7816,27 +7919,27 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B53">
         <f t="shared" si="20"/>
-        <v>12337</v>
+        <v>12511</v>
       </c>
       <c r="C53">
         <f t="shared" si="21"/>
-        <v>5732</v>
+        <v>5648</v>
       </c>
       <c r="D53">
         <f t="shared" si="22"/>
-        <v>3280</v>
+        <v>3282</v>
       </c>
       <c r="E53" s="6">
         <f t="shared" si="23"/>
-        <v>-0.32977692577671347</v>
+        <v>-0.33603428941552127</v>
       </c>
       <c r="F53" s="7">
         <f t="shared" si="24"/>
-        <v>17.381446523281141</v>
+        <v>16.807808541871744</v>
       </c>
       <c r="G53" s="5">
         <f>'mem usage'!F$52</f>
@@ -7845,27 +7948,27 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B54">
         <f t="shared" si="20"/>
-        <v>12785</v>
+        <v>12955</v>
       </c>
       <c r="C54">
         <f t="shared" si="21"/>
-        <v>6180</v>
+        <v>6092</v>
       </c>
       <c r="D54">
         <f t="shared" si="22"/>
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="E54" s="6">
         <f t="shared" si="23"/>
-        <v>-0.33843693470161573</v>
+        <v>-0.34463798514245819</v>
       </c>
       <c r="F54" s="7">
         <f t="shared" si="24"/>
-        <v>18.260418312347092</v>
+        <v>17.676519311943618</v>
       </c>
       <c r="G54" s="5">
         <f>'mem usage'!F$52</f>
@@ -7874,15 +7977,15 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B55">
         <f t="shared" si="20"/>
-        <v>12765</v>
+        <v>12935</v>
       </c>
       <c r="C55">
         <f t="shared" si="21"/>
-        <v>6160</v>
+        <v>6072</v>
       </c>
       <c r="D55">
         <f t="shared" si="22"/>
@@ -7890,11 +7993,11 @@
       </c>
       <c r="E55" s="6">
         <f t="shared" si="23"/>
-        <v>-0.38208650166753472</v>
+        <v>-0.38827668063418319</v>
       </c>
       <c r="F55" s="7">
         <f t="shared" si="24"/>
-        <v>16.122003716739531</v>
+        <v>15.638332928164607</v>
       </c>
       <c r="G55" s="5">
         <f>'mem usage'!F$52</f>
@@ -7903,15 +8006,15 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B56">
         <f t="shared" si="20"/>
-        <v>12831</v>
+        <v>13001</v>
       </c>
       <c r="C56">
         <f t="shared" si="21"/>
-        <v>6226</v>
+        <v>6138</v>
       </c>
       <c r="D56">
         <f t="shared" si="22"/>
@@ -7919,11 +8022,11 @@
       </c>
       <c r="E56" s="6">
         <f t="shared" si="23"/>
-        <v>-0.38706186427100359</v>
+        <v>-0.39325659518654393</v>
       </c>
       <c r="F56" s="7">
         <f t="shared" si="24"/>
-        <v>16.08528396804504</v>
+        <v>15.608129844811371</v>
       </c>
       <c r="G56" s="5">
         <f>'mem usage'!F$52</f>
@@ -7932,15 +8035,15 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <f t="shared" si="20"/>
-        <v>13379</v>
+        <v>13549</v>
       </c>
       <c r="C57">
         <f t="shared" si="21"/>
-        <v>6774</v>
+        <v>6686</v>
       </c>
       <c r="D57">
         <f t="shared" si="22"/>
@@ -7948,11 +8051,11 @@
       </c>
       <c r="E57" s="6">
         <f t="shared" si="23"/>
-        <v>-0.38945025095433328</v>
+        <v>-0.39550980981707273</v>
       </c>
       <c r="F57" s="7">
         <f t="shared" si="24"/>
-        <v>17.393749223169241</v>
+        <v>16.904764013545812</v>
       </c>
       <c r="G57" s="5">
         <f>'mem usage'!F$52</f>
@@ -7974,7 +8077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K52"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -7982,24 +8085,24 @@
   <sheetData>
     <row r="1" spans="3:11">
       <c r="C1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="3:11" ht="16">
       <c r="C2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" t="s">
         <v>115</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>116</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>117</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>118</v>
-      </c>
-      <c r="G2" t="s">
-        <v>119</v>
       </c>
       <c r="K2" s="8"/>
     </row>
@@ -8008,12 +8111,12 @@
         <v>2</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="3:11" ht="16">
       <c r="K4" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="3:11" ht="16">
@@ -8021,23 +8124,23 @@
         <v>2</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="3:11" ht="16">
       <c r="G6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="3:11" ht="16">
       <c r="G7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="3:11" ht="16">
@@ -8045,7 +8148,7 @@
         <v>2</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="3:11" ht="16">
@@ -8053,7 +8156,7 @@
         <v>2</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="3:11" ht="16">
@@ -8061,7 +8164,7 @@
         <v>4</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="3:11" ht="16">
@@ -8069,7 +8172,7 @@
         <v>2</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="3:11" ht="16">
@@ -8077,7 +8180,7 @@
         <v>2</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="3:11" ht="16">
@@ -8085,7 +8188,7 @@
         <v>2</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="3:11" ht="16">
@@ -8093,7 +8196,7 @@
         <v>2</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="3:11" ht="16">
@@ -8101,7 +8204,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="3:11" ht="16">
@@ -8109,15 +8212,15 @@
         <v>2</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="4:11" ht="16">
       <c r="G17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="4:11" ht="16">
@@ -8125,7 +8228,7 @@
     </row>
     <row r="19" spans="4:11" ht="16">
       <c r="K19" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="4:11" ht="16">
@@ -8133,33 +8236,33 @@
         <v>11</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="4:11" ht="16">
       <c r="K21" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="4:11" ht="16">
       <c r="K22" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="4:11" ht="16">
       <c r="G23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="4:11" ht="16">
       <c r="G24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="4:11" ht="16">
@@ -8167,7 +8270,7 @@
         <v>11</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="4:11" ht="16">
@@ -8175,7 +8278,7 @@
         <v>22</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="4:11" ht="16">
@@ -8183,49 +8286,49 @@
         <v>22</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="4:11" ht="16">
       <c r="K28" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="4:11" ht="16">
       <c r="K29" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="4:11" ht="16">
       <c r="G30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="4:11" ht="16">
       <c r="G31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="4:11" ht="16">
       <c r="G32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="5:11" ht="16">
       <c r="G33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="5:11" ht="16">
@@ -8233,7 +8336,7 @@
         <v>2</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="5:11" ht="16">
@@ -8241,7 +8344,7 @@
         <v>2</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="5:11" ht="16">
@@ -8249,7 +8352,7 @@
         <v>11</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="5:11" ht="16">
@@ -8257,7 +8360,7 @@
         <v>22</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="5:11" ht="16">
@@ -8265,7 +8368,7 @@
         <v>22</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="5:11" ht="16">
@@ -8273,7 +8376,7 @@
         <v>2</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="5:11" ht="16">
@@ -8281,98 +8384,98 @@
         <v>1</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="5:11" ht="16">
       <c r="K41" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="5:11" ht="16">
       <c r="K42" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="5:11" ht="16">
       <c r="G43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="5:11" ht="16">
       <c r="G44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="5:11" ht="16">
       <c r="G45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="5:11" ht="16">
       <c r="G46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="5:11" ht="16">
       <c r="G47" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="5:11" ht="16">
       <c r="G48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="2:11" ht="16">
       <c r="G49" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="2:11" ht="16">
       <c r="K50" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51" spans="2:11" ht="16">
       <c r="B51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C51" t="s">
+        <v>114</v>
+      </c>
+      <c r="D51" t="s">
         <v>115</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>116</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>117</v>
       </c>
-      <c r="F51" t="s">
-        <v>118</v>
-      </c>
       <c r="K51" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" spans="2:11">

--- a/data/maingraphs-code-size-table.xlsx
+++ b/data/maingraphs-code-size-table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main table" sheetId="1" r:id="rId1"/>
@@ -506,8 +506,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="181">
+  <cellStyleXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -702,7 +706,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="181">
+  <cellStyles count="185">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -793,6 +797,8 @@
     <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -883,6 +889,8 @@
     <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3305,8 +3313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9:R9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6092,7 +6100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>

--- a/data/maingraphs-code-size-table.xlsx
+++ b/data/maingraphs-code-size-table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main table" sheetId="1" r:id="rId1"/>
@@ -506,8 +506,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="185">
+  <cellStyleXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -706,7 +710,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="185">
+  <cellStyles count="189">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -799,6 +803,8 @@
     <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -891,6 +897,8 @@
     <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1222,8 +1230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q41" sqref="Q41:R41"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:O48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3313,7 +3321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A55" sqref="A55:F63"/>
     </sheetView>
   </sheetViews>
@@ -6100,8 +6108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/data/maingraphs-code-size-table.xlsx
+++ b/data/maingraphs-code-size-table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="main table" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="127">
   <si>
     <t>BENCHMARK x</t>
   </si>
@@ -6108,7 +6108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
@@ -7843,7 +7843,7 @@
       </c>
       <c r="G49">
         <f>'mem usage'!C52</f>
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -7872,7 +7872,7 @@
       </c>
       <c r="G50" s="5">
         <f>'mem usage'!C52</f>
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -7901,7 +7901,7 @@
       </c>
       <c r="G51" s="5">
         <f>'mem usage'!D52</f>
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -7930,7 +7930,7 @@
       </c>
       <c r="G52" s="5">
         <f>'mem usage'!E52</f>
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -7959,7 +7959,7 @@
       </c>
       <c r="G53" s="5">
         <f>'mem usage'!F$52</f>
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -7988,7 +7988,7 @@
       </c>
       <c r="G54" s="5">
         <f>'mem usage'!F$52</f>
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -8017,7 +8017,7 @@
       </c>
       <c r="G55" s="5">
         <f>'mem usage'!F$52</f>
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -8046,7 +8046,7 @@
       </c>
       <c r="G56" s="5">
         <f>'mem usage'!F$52</f>
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -8075,7 +8075,7 @@
       </c>
       <c r="G57" s="5">
         <f>'mem usage'!F$52</f>
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -8093,8 +8093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K52"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8339,7 +8339,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="5:11" ht="16">
+    <row r="33" spans="3:11" ht="16">
       <c r="G33" t="s">
         <v>119</v>
       </c>
@@ -8347,7 +8347,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="5:11" ht="16">
+    <row r="34" spans="3:11" ht="16">
       <c r="E34">
         <v>2</v>
       </c>
@@ -8355,7 +8355,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="5:11" ht="16">
+    <row r="35" spans="3:11" ht="16">
       <c r="E35">
         <v>2</v>
       </c>
@@ -8363,7 +8363,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="5:11" ht="16">
+    <row r="36" spans="3:11" ht="16">
       <c r="E36">
         <v>11</v>
       </c>
@@ -8371,7 +8371,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="5:11" ht="16">
+    <row r="37" spans="3:11" ht="16">
       <c r="E37">
         <v>22</v>
       </c>
@@ -8379,7 +8379,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="38" spans="5:11" ht="16">
+    <row r="38" spans="3:11" ht="16">
       <c r="E38">
         <v>22</v>
       </c>
@@ -8387,7 +8387,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="5:11" ht="16">
+    <row r="39" spans="3:11" ht="16">
       <c r="E39">
         <v>2</v>
       </c>
@@ -8395,7 +8395,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="5:11" ht="16">
+    <row r="40" spans="3:11" ht="16">
       <c r="E40">
         <v>1</v>
       </c>
@@ -8403,17 +8403,17 @@
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="5:11" ht="16">
+    <row r="41" spans="3:11" ht="16">
       <c r="K41" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="5:11" ht="16">
+    <row r="42" spans="3:11" ht="16">
       <c r="K42" s="8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="5:11" ht="16">
+    <row r="43" spans="3:11" ht="16">
       <c r="G43" t="s">
         <v>119</v>
       </c>
@@ -8421,7 +8421,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="44" spans="5:11" ht="16">
+    <row r="44" spans="3:11" ht="16">
       <c r="G44" t="s">
         <v>119</v>
       </c>
@@ -8429,7 +8429,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="45" spans="5:11" ht="16">
+    <row r="45" spans="3:11" ht="16">
       <c r="G45" t="s">
         <v>119</v>
       </c>
@@ -8437,7 +8437,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="46" spans="5:11" ht="16">
+    <row r="46" spans="3:11" ht="16">
       <c r="G46" t="s">
         <v>119</v>
       </c>
@@ -8445,17 +8445,17 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="5:11" ht="16">
-      <c r="G47" t="s">
-        <v>119</v>
+    <row r="47" spans="3:11" ht="16">
+      <c r="C47">
+        <v>1</v>
       </c>
       <c r="K47" s="8" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="5:11" ht="16">
-      <c r="G48" t="s">
-        <v>119</v>
+    <row r="48" spans="3:11" ht="16">
+      <c r="C48">
+        <v>1</v>
       </c>
       <c r="K48" s="8" t="s">
         <v>110</v>
@@ -8496,20 +8496,20 @@
     </row>
     <row r="52" spans="2:11">
       <c r="C52">
-        <f>SUM(C2:C16)</f>
-        <v>23</v>
+        <f>SUM(C2:C50)</f>
+        <v>25</v>
       </c>
       <c r="D52">
         <f>$C$52+SUM(D20)</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E52">
         <f>$C$52+SUM(E25:E27)</f>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F52">
         <f>C52+SUM(E34:E40)</f>
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/maingraphs-code-size-table.xlsx
+++ b/data/maingraphs-code-size-table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33560" windowHeight="20500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="main table" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="126">
   <si>
     <t>BENCHMARK x</t>
   </si>
@@ -66,9 +66,6 @@
     <t>heat_detect</t>
   </si>
   <si>
-    <t>cyc (%C)</t>
-  </si>
-  <si>
     <t>total</t>
   </si>
   <si>
@@ -399,10 +396,10 @@
     <t>TAKEN FROM sumsum_codesize.txt</t>
   </si>
   <si>
-    <t>UPDATED 20180301</t>
-  </si>
-  <si>
     <t>Before adding GETCONSTARRAY: 22363 bytes for full version</t>
+  </si>
+  <si>
+    <t>UPDATED 20180305</t>
   </si>
 </sst>
 </file>
@@ -492,7 +489,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFFF6600"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,8 +503,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="189">
+  <cellStyleXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -710,7 +725,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="189">
+  <cellStyles count="207">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -805,6 +820,15 @@
     <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -899,6 +923,15 @@
     <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1230,8 +1263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:O48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1285,53 +1318,53 @@
     </row>
     <row r="2" spans="1:15">
       <c r="B2" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="L2" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="M2" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="N2" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>254.2</v>
@@ -1358,10 +1391,10 @@
         <v>268.89999999999998</v>
       </c>
       <c r="J4">
-        <v>197.5</v>
+        <v>190.7</v>
       </c>
       <c r="K4">
-        <v>122.3</v>
+        <v>125.1</v>
       </c>
       <c r="L4">
         <v>225.8</v>
@@ -1373,12 +1406,12 @@
         <v>239.5</v>
       </c>
       <c r="O4">
-        <v>198.2</v>
+        <v>197.9</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>71.2</v>
@@ -1405,10 +1438,10 @@
         <v>86.3</v>
       </c>
       <c r="J5">
-        <v>67.900000000000006</v>
+        <v>63.6</v>
       </c>
       <c r="K5">
-        <v>56.8</v>
+        <v>57.3</v>
       </c>
       <c r="L5">
         <v>74.599999999999994</v>
@@ -1420,12 +1453,12 @@
         <v>95.1</v>
       </c>
       <c r="O5">
-        <v>83.7</v>
+        <v>83.4</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>88.1</v>
@@ -1452,10 +1485,10 @@
         <v>101.1</v>
       </c>
       <c r="J6">
-        <v>75.400000000000006</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="K6">
-        <v>44.7</v>
+        <v>45.4</v>
       </c>
       <c r="L6">
         <v>69.900000000000006</v>
@@ -1467,12 +1500,12 @@
         <v>56.4</v>
       </c>
       <c r="O6">
-        <v>60.4</v>
+        <v>60.2</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>10.199999999999999</v>
@@ -1499,7 +1532,7 @@
         <v>4.7</v>
       </c>
       <c r="J7">
-        <v>6.8</v>
+        <v>5.7</v>
       </c>
       <c r="K7">
         <v>-3.7</v>
@@ -1514,12 +1547,12 @@
         <v>15.1</v>
       </c>
       <c r="O7">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>84.7</v>
@@ -1546,10 +1579,10 @@
         <v>76.8</v>
       </c>
       <c r="J8">
-        <v>47.5</v>
+        <v>48.6</v>
       </c>
       <c r="K8">
-        <v>24.5</v>
+        <v>26</v>
       </c>
       <c r="L8">
         <v>62.2</v>
@@ -1561,17 +1594,17 @@
         <v>72.8</v>
       </c>
       <c r="O8">
-        <v>49.7</v>
+        <v>49.9</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="1" customFormat="1">
       <c r="A10" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>254.2</v>
@@ -1598,10 +1631,10 @@
         <v>268.89999999999998</v>
       </c>
       <c r="J11">
-        <v>197.5</v>
+        <v>190.7</v>
       </c>
       <c r="K11">
-        <v>122.3</v>
+        <v>125.1</v>
       </c>
       <c r="L11">
         <v>225.8</v>
@@ -1613,12 +1646,12 @@
         <v>239.5</v>
       </c>
       <c r="O11">
-        <v>198.2</v>
+        <v>197.9</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12">
         <v>186.4</v>
@@ -1645,10 +1678,10 @@
         <v>191.1</v>
       </c>
       <c r="J12">
-        <v>161.4</v>
+        <v>156.80000000000001</v>
       </c>
       <c r="K12">
-        <v>97.9</v>
+        <v>100.2</v>
       </c>
       <c r="L12">
         <v>197.6</v>
@@ -1660,12 +1693,12 @@
         <v>188.5</v>
       </c>
       <c r="O12">
-        <v>153.69999999999999</v>
+        <v>153.5</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13">
         <v>161</v>
@@ -1692,10 +1725,10 @@
         <v>160.5</v>
       </c>
       <c r="J13">
-        <v>121.1</v>
+        <v>117.1</v>
       </c>
       <c r="K13">
-        <v>71.2</v>
+        <v>72.8</v>
       </c>
       <c r="L13">
         <v>170.7</v>
@@ -1707,12 +1740,12 @@
         <v>145.1</v>
       </c>
       <c r="O13">
-        <v>112.1</v>
+        <v>111.9</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14">
         <v>144.1</v>
@@ -1739,10 +1772,10 @@
         <v>155.30000000000001</v>
       </c>
       <c r="J14">
-        <v>101.8</v>
+        <v>98.6</v>
       </c>
       <c r="K14">
-        <v>60.1</v>
+        <v>61.6</v>
       </c>
       <c r="L14">
         <v>142.30000000000001</v>
@@ -1754,12 +1787,12 @@
         <v>125.1</v>
       </c>
       <c r="O14">
-        <v>95.9</v>
+        <v>95.8</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15">
         <v>145.80000000000001</v>
@@ -1786,10 +1819,10 @@
         <v>138.9</v>
       </c>
       <c r="J15">
-        <v>104.3</v>
+        <v>101.1</v>
       </c>
       <c r="K15">
-        <v>61.8</v>
+        <v>63.1</v>
       </c>
       <c r="L15">
         <v>133.69999999999999</v>
@@ -1801,12 +1834,12 @@
         <v>119.1</v>
       </c>
       <c r="O15">
-        <v>96.1</v>
+        <v>95.9</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16">
         <v>145.80000000000001</v>
@@ -1833,10 +1866,10 @@
         <v>136.30000000000001</v>
       </c>
       <c r="J16">
-        <v>102.5</v>
+        <v>99.3</v>
       </c>
       <c r="K16">
-        <v>60.7</v>
+        <v>61.6</v>
       </c>
       <c r="L16">
         <v>133.69999999999999</v>
@@ -1848,12 +1881,12 @@
         <v>118.4</v>
       </c>
       <c r="O16">
-        <v>93.5</v>
+        <v>93.3</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17">
         <v>118.6</v>
@@ -1880,10 +1913,10 @@
         <v>110.5</v>
       </c>
       <c r="J17">
-        <v>91.8</v>
+        <v>88.6</v>
       </c>
       <c r="K17">
-        <v>53.3</v>
+        <v>54.1</v>
       </c>
       <c r="L17">
         <v>117.1</v>
@@ -1895,12 +1928,12 @@
         <v>107.7</v>
       </c>
       <c r="O17">
-        <v>79.900000000000006</v>
+        <v>79.7</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18">
         <v>118.6</v>
@@ -1927,10 +1960,10 @@
         <v>110.5</v>
       </c>
       <c r="J18">
-        <v>91.8</v>
+        <v>88.6</v>
       </c>
       <c r="K18">
-        <v>49.8</v>
+        <v>50.7</v>
       </c>
       <c r="L18">
         <v>117.1</v>
@@ -1942,17 +1975,17 @@
         <v>107.7</v>
       </c>
       <c r="O18">
-        <v>78.8</v>
+        <v>78.7</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="1" customFormat="1">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20">
         <v>118.6</v>
@@ -1979,10 +2012,10 @@
         <v>110.5</v>
       </c>
       <c r="J20">
-        <v>91.8</v>
+        <v>88.6</v>
       </c>
       <c r="K20">
-        <v>49.8</v>
+        <v>50.7</v>
       </c>
       <c r="L20">
         <v>117.1</v>
@@ -1994,12 +2027,12 @@
         <v>107.7</v>
       </c>
       <c r="O20">
-        <v>78.8</v>
+        <v>78.7</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21">
         <v>23.7</v>
@@ -2026,10 +2059,10 @@
         <v>-2.1</v>
       </c>
       <c r="J21">
-        <v>-3.6</v>
+        <v>-5</v>
       </c>
       <c r="K21">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="L21">
         <v>16.3</v>
@@ -2041,12 +2074,12 @@
         <v>0.2</v>
       </c>
       <c r="O21">
-        <v>8.3000000000000007</v>
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22">
         <v>33.9</v>
@@ -2073,10 +2106,10 @@
         <v>57.9</v>
       </c>
       <c r="J22">
-        <v>46.8</v>
+        <v>45</v>
       </c>
       <c r="K22">
-        <v>28.2</v>
+        <v>28.3</v>
       </c>
       <c r="L22">
         <v>40.9</v>
@@ -2088,12 +2121,12 @@
         <v>37.200000000000003</v>
       </c>
       <c r="O22">
-        <v>32.200000000000003</v>
+        <v>32.1</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23">
         <v>1.7</v>
@@ -2120,10 +2153,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="J23">
-        <v>8.1999999999999993</v>
+        <v>7.1</v>
       </c>
       <c r="K23">
-        <v>-0.6</v>
+        <v>-0.3</v>
       </c>
       <c r="L23">
         <v>15.4</v>
@@ -2140,7 +2173,7 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24">
         <v>59.3</v>
@@ -2167,10 +2200,10 @@
         <v>53.7</v>
       </c>
       <c r="J24">
-        <v>40.4</v>
+        <v>41.4</v>
       </c>
       <c r="K24">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="L24">
         <v>44.5</v>
@@ -2182,22 +2215,22 @@
         <v>55.2</v>
       </c>
       <c r="O24">
-        <v>34.1</v>
+        <v>34.299999999999997</v>
       </c>
     </row>
     <row r="27" spans="1:15" s="3" customFormat="1">
       <c r="A27" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B29" s="4">
         <f>B4</f>
@@ -2233,11 +2266,11 @@
       </c>
       <c r="J29" s="4">
         <f t="shared" si="0"/>
-        <v>197.5</v>
+        <v>190.7</v>
       </c>
       <c r="K29" s="4">
         <f t="shared" si="0"/>
-        <v>122.3</v>
+        <v>125.1</v>
       </c>
       <c r="L29" s="4">
         <f t="shared" si="0"/>
@@ -2253,12 +2286,12 @@
       </c>
       <c r="O29" s="4">
         <f t="shared" si="0"/>
-        <v>198.2</v>
+        <v>197.9</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30" s="4">
         <f t="shared" ref="B30:O33" si="1">B5</f>
@@ -2294,11 +2327,11 @@
       </c>
       <c r="J30" s="4">
         <f t="shared" si="1"/>
-        <v>67.900000000000006</v>
+        <v>63.6</v>
       </c>
       <c r="K30" s="4">
         <f t="shared" si="1"/>
-        <v>56.8</v>
+        <v>57.3</v>
       </c>
       <c r="L30" s="4">
         <f t="shared" si="1"/>
@@ -2314,12 +2347,12 @@
       </c>
       <c r="O30" s="4">
         <f t="shared" si="1"/>
-        <v>83.7</v>
+        <v>83.4</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B31" s="4">
         <f t="shared" si="1"/>
@@ -2355,11 +2388,11 @@
       </c>
       <c r="J31" s="4">
         <f t="shared" si="1"/>
-        <v>75.400000000000006</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="K31" s="4">
         <f t="shared" si="1"/>
-        <v>44.7</v>
+        <v>45.4</v>
       </c>
       <c r="L31" s="4">
         <f t="shared" si="1"/>
@@ -2375,12 +2408,12 @@
       </c>
       <c r="O31" s="4">
         <f t="shared" si="1"/>
-        <v>60.4</v>
+        <v>60.2</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B32" s="4">
         <f t="shared" si="1"/>
@@ -2416,7 +2449,7 @@
       </c>
       <c r="J32" s="4">
         <f t="shared" si="1"/>
-        <v>6.8</v>
+        <v>5.7</v>
       </c>
       <c r="K32" s="4">
         <f t="shared" si="1"/>
@@ -2436,12 +2469,12 @@
       </c>
       <c r="O32" s="4">
         <f t="shared" si="1"/>
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="33" spans="1:18">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B33" s="4">
         <f t="shared" si="1"/>
@@ -2477,11 +2510,11 @@
       </c>
       <c r="J33" s="4">
         <f t="shared" si="1"/>
-        <v>47.5</v>
+        <v>48.6</v>
       </c>
       <c r="K33" s="4">
         <f t="shared" si="1"/>
-        <v>24.5</v>
+        <v>26</v>
       </c>
       <c r="L33" s="4">
         <f t="shared" si="1"/>
@@ -2497,7 +2530,7 @@
       </c>
       <c r="O33" s="4">
         <f t="shared" si="1"/>
-        <v>49.7</v>
+        <v>49.9</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -2518,7 +2551,7 @@
     </row>
     <row r="35" spans="1:18">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -2537,7 +2570,7 @@
     </row>
     <row r="36" spans="1:18">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="4">
         <f>B12-B11</f>
@@ -2573,11 +2606,11 @@
       </c>
       <c r="J36" s="4">
         <f t="shared" si="2"/>
-        <v>-36.099999999999994</v>
+        <v>-33.899999999999977</v>
       </c>
       <c r="K36" s="4">
         <f t="shared" si="2"/>
-        <v>-24.399999999999991</v>
+        <v>-24.899999999999991</v>
       </c>
       <c r="L36" s="4">
         <f t="shared" si="2"/>
@@ -2593,12 +2626,12 @@
       </c>
       <c r="O36" s="4">
         <f t="shared" si="2"/>
-        <v>-44.5</v>
+        <v>-44.400000000000006</v>
       </c>
     </row>
     <row r="37" spans="1:18">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" s="4">
         <f t="shared" ref="B37:O42" si="3">B13-B12</f>
@@ -2634,11 +2667,11 @@
       </c>
       <c r="J37" s="4">
         <f t="shared" si="3"/>
-        <v>-40.300000000000011</v>
+        <v>-39.700000000000017</v>
       </c>
       <c r="K37" s="4">
         <f t="shared" si="3"/>
-        <v>-26.700000000000003</v>
+        <v>-27.400000000000006</v>
       </c>
       <c r="L37" s="4">
         <f t="shared" si="3"/>
@@ -2659,7 +2692,7 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="4">
         <f t="shared" si="3"/>
@@ -2695,11 +2728,11 @@
       </c>
       <c r="J38" s="4">
         <f t="shared" si="3"/>
-        <v>-19.299999999999997</v>
+        <v>-18.5</v>
       </c>
       <c r="K38" s="4">
         <f t="shared" si="3"/>
-        <v>-11.100000000000001</v>
+        <v>-11.199999999999996</v>
       </c>
       <c r="L38" s="4">
         <f t="shared" si="3"/>
@@ -2715,12 +2748,12 @@
       </c>
       <c r="O38" s="4">
         <f t="shared" si="3"/>
-        <v>-16.199999999999989</v>
+        <v>-16.100000000000009</v>
       </c>
     </row>
     <row r="39" spans="1:18">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" s="4">
         <f t="shared" si="3"/>
@@ -2760,7 +2793,7 @@
       </c>
       <c r="K39" s="4">
         <f t="shared" si="3"/>
-        <v>1.6999999999999957</v>
+        <v>1.5</v>
       </c>
       <c r="L39" s="4">
         <f t="shared" si="3"/>
@@ -2776,12 +2809,12 @@
       </c>
       <c r="O39" s="4">
         <f t="shared" si="3"/>
-        <v>0.19999999999998863</v>
+        <v>0.10000000000000853</v>
       </c>
     </row>
     <row r="40" spans="1:18">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" s="4">
         <f t="shared" si="3"/>
@@ -2821,7 +2854,7 @@
       </c>
       <c r="K40" s="4">
         <f t="shared" si="3"/>
-        <v>-1.0999999999999943</v>
+        <v>-1.5</v>
       </c>
       <c r="L40" s="4">
         <f t="shared" si="3"/>
@@ -2837,12 +2870,12 @@
       </c>
       <c r="O40" s="4">
         <f t="shared" si="3"/>
-        <v>-2.5999999999999943</v>
+        <v>-2.6000000000000085</v>
       </c>
     </row>
     <row r="41" spans="1:18">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" s="4">
         <f t="shared" si="3"/>
@@ -2882,7 +2915,7 @@
       </c>
       <c r="K41" s="4">
         <f t="shared" si="3"/>
-        <v>-7.4000000000000057</v>
+        <v>-7.5</v>
       </c>
       <c r="L41" s="4">
         <f t="shared" si="3"/>
@@ -2907,7 +2940,7 @@
     </row>
     <row r="42" spans="1:18">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" s="4">
         <f t="shared" si="3"/>
@@ -2947,7 +2980,7 @@
       </c>
       <c r="K42" s="4">
         <f t="shared" si="3"/>
-        <v>-3.5</v>
+        <v>-3.3999999999999986</v>
       </c>
       <c r="L42" s="4">
         <f t="shared" si="3"/>
@@ -2963,12 +2996,12 @@
       </c>
       <c r="O42" s="4">
         <f t="shared" si="3"/>
-        <v>-1.1000000000000085</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:18">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -2987,7 +3020,7 @@
     </row>
     <row r="44" spans="1:18">
       <c r="A44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B44" s="4">
         <f>B20</f>
@@ -3023,11 +3056,11 @@
       </c>
       <c r="J44" s="4">
         <f t="shared" si="4"/>
-        <v>91.8</v>
+        <v>88.6</v>
       </c>
       <c r="K44" s="4">
         <f t="shared" si="4"/>
-        <v>49.8</v>
+        <v>50.7</v>
       </c>
       <c r="L44" s="4">
         <f t="shared" si="4"/>
@@ -3043,12 +3076,12 @@
       </c>
       <c r="O44" s="4">
         <f t="shared" si="4"/>
-        <v>78.8</v>
+        <v>78.7</v>
       </c>
     </row>
     <row r="45" spans="1:18">
       <c r="A45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B45" s="4">
         <f t="shared" ref="B45:O48" si="5">B21</f>
@@ -3084,11 +3117,11 @@
       </c>
       <c r="J45" s="4">
         <f t="shared" si="5"/>
-        <v>-3.6</v>
+        <v>-5</v>
       </c>
       <c r="K45" s="4">
         <f t="shared" si="5"/>
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="L45" s="4">
         <f t="shared" si="5"/>
@@ -3104,12 +3137,12 @@
       </c>
       <c r="O45" s="4">
         <f t="shared" si="5"/>
-        <v>8.3000000000000007</v>
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="46" spans="1:18">
       <c r="A46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B46" s="4">
         <f t="shared" si="5"/>
@@ -3145,11 +3178,11 @@
       </c>
       <c r="J46" s="4">
         <f t="shared" si="5"/>
-        <v>46.8</v>
+        <v>45</v>
       </c>
       <c r="K46" s="4">
         <f t="shared" si="5"/>
-        <v>28.2</v>
+        <v>28.3</v>
       </c>
       <c r="L46" s="4">
         <f t="shared" si="5"/>
@@ -3165,12 +3198,12 @@
       </c>
       <c r="O46" s="4">
         <f t="shared" si="5"/>
-        <v>32.200000000000003</v>
+        <v>32.1</v>
       </c>
     </row>
     <row r="47" spans="1:18">
       <c r="A47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B47" s="4">
         <f t="shared" si="5"/>
@@ -3206,11 +3239,11 @@
       </c>
       <c r="J47" s="4">
         <f t="shared" si="5"/>
-        <v>8.1999999999999993</v>
+        <v>7.1</v>
       </c>
       <c r="K47" s="4">
         <f t="shared" si="5"/>
-        <v>-0.6</v>
+        <v>-0.3</v>
       </c>
       <c r="L47" s="4">
         <f t="shared" si="5"/>
@@ -3231,7 +3264,7 @@
     </row>
     <row r="48" spans="1:18">
       <c r="A48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B48" s="4">
         <f t="shared" si="5"/>
@@ -3267,11 +3300,11 @@
       </c>
       <c r="J48" s="4">
         <f t="shared" si="5"/>
-        <v>40.4</v>
+        <v>41.4</v>
       </c>
       <c r="K48" s="4">
         <f t="shared" si="5"/>
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="L48" s="4">
         <f t="shared" si="5"/>
@@ -3287,7 +3320,7 @@
       </c>
       <c r="O48" s="4">
         <f t="shared" si="5"/>
-        <v>34.1</v>
+        <v>34.299999999999997</v>
       </c>
     </row>
     <row r="49" spans="2:15">
@@ -3321,8 +3354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:F63"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3332,51 +3365,51 @@
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
         <v>42</v>
       </c>
-      <c r="B2" t="s">
-        <v>43</v>
-      </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -3425,12 +3458,12 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>254.2</v>
@@ -3457,10 +3490,10 @@
         <v>268.89999999999998</v>
       </c>
       <c r="J5">
-        <v>197.5</v>
+        <v>190.7</v>
       </c>
       <c r="K5">
-        <v>122.3</v>
+        <v>125.1</v>
       </c>
       <c r="L5">
         <v>225.8</v>
@@ -3472,12 +3505,12 @@
         <v>239.5</v>
       </c>
       <c r="O5">
-        <v>198.2</v>
+        <v>197.9</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>71.2</v>
@@ -3504,10 +3537,10 @@
         <v>86.3</v>
       </c>
       <c r="J6">
-        <v>67.900000000000006</v>
+        <v>63.6</v>
       </c>
       <c r="K6">
-        <v>56.8</v>
+        <v>57.3</v>
       </c>
       <c r="L6">
         <v>74.599999999999994</v>
@@ -3519,12 +3552,12 @@
         <v>95.1</v>
       </c>
       <c r="O6">
-        <v>83.7</v>
+        <v>83.4</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>88.1</v>
@@ -3551,10 +3584,10 @@
         <v>101.1</v>
       </c>
       <c r="J7">
-        <v>75.400000000000006</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="K7">
-        <v>44.7</v>
+        <v>45.4</v>
       </c>
       <c r="L7">
         <v>69.900000000000006</v>
@@ -3566,12 +3599,12 @@
         <v>56.4</v>
       </c>
       <c r="O7">
-        <v>60.4</v>
+        <v>60.2</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>10.199999999999999</v>
@@ -3598,7 +3631,7 @@
         <v>4.7</v>
       </c>
       <c r="J8">
-        <v>6.8</v>
+        <v>5.7</v>
       </c>
       <c r="K8">
         <v>-3.7</v>
@@ -3613,12 +3646,12 @@
         <v>15.1</v>
       </c>
       <c r="O8">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>84.7</v>
@@ -3645,10 +3678,10 @@
         <v>76.8</v>
       </c>
       <c r="J9">
-        <v>47.5</v>
+        <v>48.6</v>
       </c>
       <c r="K9">
-        <v>24.5</v>
+        <v>26</v>
       </c>
       <c r="L9">
         <v>62.2</v>
@@ -3660,7 +3693,7 @@
         <v>72.8</v>
       </c>
       <c r="O9">
-        <v>49.7</v>
+        <v>49.9</v>
       </c>
       <c r="Q9" s="10" t="s">
         <v>125</v>
@@ -3669,12 +3702,12 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>186.4</v>
@@ -3701,10 +3734,10 @@
         <v>191.1</v>
       </c>
       <c r="J11">
-        <v>161.4</v>
+        <v>156.80000000000001</v>
       </c>
       <c r="K11">
-        <v>97.9</v>
+        <v>100.2</v>
       </c>
       <c r="L11">
         <v>197.6</v>
@@ -3716,12 +3749,12 @@
         <v>188.5</v>
       </c>
       <c r="O11">
-        <v>153.69999999999999</v>
+        <v>153.5</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>-16.899999999999999</v>
@@ -3748,10 +3781,10 @@
         <v>-12.6</v>
       </c>
       <c r="J12">
-        <v>22.1</v>
+        <v>20.7</v>
       </c>
       <c r="K12">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="L12">
         <v>37.6</v>
@@ -3763,12 +3796,12 @@
         <v>28.6</v>
       </c>
       <c r="O12">
-        <v>26.6</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>88.1</v>
@@ -3795,10 +3828,10 @@
         <v>101.1</v>
       </c>
       <c r="J13">
-        <v>75.400000000000006</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="K13">
-        <v>44.7</v>
+        <v>45.4</v>
       </c>
       <c r="L13">
         <v>69.900000000000006</v>
@@ -3810,12 +3843,12 @@
         <v>56.4</v>
       </c>
       <c r="O13">
-        <v>60.4</v>
+        <v>60.2</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>30.5</v>
@@ -3842,10 +3875,10 @@
         <v>27.4</v>
       </c>
       <c r="J14">
-        <v>16.399999999999999</v>
+        <v>14.6</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L14">
         <v>27.9</v>
@@ -3857,12 +3890,12 @@
         <v>30.9</v>
       </c>
       <c r="O14">
-        <v>17.2</v>
+        <v>17.100000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>84.7</v>
@@ -3889,10 +3922,10 @@
         <v>75.3</v>
       </c>
       <c r="J15">
-        <v>47.5</v>
+        <v>48.6</v>
       </c>
       <c r="K15">
-        <v>24.4</v>
+        <v>25.9</v>
       </c>
       <c r="L15">
         <v>62.2</v>
@@ -3904,17 +3937,17 @@
         <v>72.5</v>
       </c>
       <c r="O15">
-        <v>49.5</v>
+        <v>49.7</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <v>161</v>
@@ -3941,10 +3974,10 @@
         <v>160.5</v>
       </c>
       <c r="J17">
-        <v>121.1</v>
+        <v>117.1</v>
       </c>
       <c r="K17">
-        <v>71.2</v>
+        <v>72.8</v>
       </c>
       <c r="L17">
         <v>170.7</v>
@@ -3956,12 +3989,12 @@
         <v>145.1</v>
       </c>
       <c r="O17">
-        <v>112.1</v>
+        <v>111.9</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18">
         <v>-16.899999999999999</v>
@@ -3988,10 +4021,10 @@
         <v>-16.8</v>
       </c>
       <c r="J18">
-        <v>-6.4</v>
+        <v>-7.9</v>
       </c>
       <c r="K18">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="L18">
         <v>17.3</v>
@@ -4003,12 +4036,12 @@
         <v>-3.4</v>
       </c>
       <c r="O18">
-        <v>-0.9</v>
+        <v>-1.1000000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19">
         <v>88.1</v>
@@ -4035,10 +4068,10 @@
         <v>101.1</v>
       </c>
       <c r="J19">
-        <v>75.400000000000006</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="K19">
-        <v>44.7</v>
+        <v>45.4</v>
       </c>
       <c r="L19">
         <v>69.900000000000006</v>
@@ -4050,12 +4083,12 @@
         <v>56.4</v>
       </c>
       <c r="O19">
-        <v>60.4</v>
+        <v>60.2</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20">
         <v>5.0999999999999996</v>
@@ -4082,10 +4115,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="J20">
-        <v>4.5999999999999996</v>
+        <v>3.6</v>
       </c>
       <c r="K20">
-        <v>-1.4</v>
+        <v>-1.5</v>
       </c>
       <c r="L20">
         <v>21.3</v>
@@ -4097,12 +4130,12 @@
         <v>20</v>
       </c>
       <c r="O20">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>84.7</v>
@@ -4129,10 +4162,10 @@
         <v>75.3</v>
       </c>
       <c r="J21">
-        <v>47.5</v>
+        <v>48.6</v>
       </c>
       <c r="K21">
-        <v>24</v>
+        <v>25.5</v>
       </c>
       <c r="L21">
         <v>62.1</v>
@@ -4144,17 +4177,17 @@
         <v>72</v>
       </c>
       <c r="O21">
-        <v>49.4</v>
+        <v>49.6</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23">
         <v>144.1</v>
@@ -4181,10 +4214,10 @@
         <v>155.30000000000001</v>
       </c>
       <c r="J23">
-        <v>101.8</v>
+        <v>98.6</v>
       </c>
       <c r="K23">
-        <v>60.1</v>
+        <v>61.6</v>
       </c>
       <c r="L23">
         <v>142.30000000000001</v>
@@ -4196,12 +4229,12 @@
         <v>125.1</v>
       </c>
       <c r="O23">
-        <v>95.9</v>
+        <v>95.8</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24">
         <v>3.4</v>
@@ -4228,10 +4261,10 @@
         <v>-4.2</v>
       </c>
       <c r="J24">
-        <v>-6.4</v>
+        <v>-7.9</v>
       </c>
       <c r="K24">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="L24">
         <v>14.2</v>
@@ -4243,12 +4276,12 @@
         <v>-2.8</v>
       </c>
       <c r="O24">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25">
         <v>54.2</v>
@@ -4275,10 +4308,10 @@
         <v>83.2</v>
       </c>
       <c r="J25">
-        <v>55.4</v>
+        <v>53.6</v>
       </c>
       <c r="K25">
-        <v>34.799999999999997</v>
+        <v>35.4</v>
       </c>
       <c r="L25">
         <v>50.5</v>
@@ -4290,12 +4323,12 @@
         <v>43.4</v>
       </c>
       <c r="O25">
-        <v>43.7</v>
+        <v>43.6</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26">
         <v>5.0999999999999996</v>
@@ -4322,10 +4355,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="J26">
-        <v>5.4</v>
+        <v>4.3</v>
       </c>
       <c r="K26">
-        <v>-1.4</v>
+        <v>-1.5</v>
       </c>
       <c r="L26">
         <v>19.8</v>
@@ -4337,12 +4370,12 @@
         <v>16.899999999999999</v>
       </c>
       <c r="O26">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B27">
         <v>81.400000000000006</v>
@@ -4369,10 +4402,10 @@
         <v>75.3</v>
       </c>
       <c r="J27">
-        <v>47.5</v>
+        <v>48.6</v>
       </c>
       <c r="K27">
-        <v>23.4</v>
+        <v>24.9</v>
       </c>
       <c r="L27">
         <v>57.9</v>
@@ -4384,17 +4417,17 @@
         <v>67.5</v>
       </c>
       <c r="O27">
-        <v>47.7</v>
+        <v>47.9</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B29">
         <v>145.80000000000001</v>
@@ -4421,10 +4454,10 @@
         <v>138.9</v>
       </c>
       <c r="J29">
-        <v>104.3</v>
+        <v>101.1</v>
       </c>
       <c r="K29">
-        <v>61.8</v>
+        <v>63.1</v>
       </c>
       <c r="L29">
         <v>133.69999999999999</v>
@@ -4436,12 +4469,12 @@
         <v>119.1</v>
       </c>
       <c r="O29">
-        <v>96.1</v>
+        <v>95.9</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30">
         <v>23.7</v>
@@ -4468,10 +4501,10 @@
         <v>-2.1</v>
       </c>
       <c r="J30">
-        <v>-0.7</v>
+        <v>-2.1</v>
       </c>
       <c r="K30">
-        <v>8.8000000000000007</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="L30">
         <v>16.5</v>
@@ -4483,12 +4516,12 @@
         <v>-2</v>
       </c>
       <c r="O30">
-        <v>9.5</v>
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B31">
         <v>33.9</v>
@@ -4515,7 +4548,7 @@
         <v>58.9</v>
       </c>
       <c r="J31">
-        <v>46.8</v>
+        <v>45</v>
       </c>
       <c r="K31">
         <v>28.3</v>
@@ -4530,12 +4563,12 @@
         <v>37.200000000000003</v>
       </c>
       <c r="O31">
-        <v>32.6</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B32">
         <v>8.5</v>
@@ -4562,10 +4595,10 @@
         <v>6.8</v>
       </c>
       <c r="J32">
-        <v>10.7</v>
+        <v>9.6</v>
       </c>
       <c r="K32">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="L32">
         <v>19.2</v>
@@ -4582,7 +4615,7 @@
     </row>
     <row r="33" spans="1:15">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B33">
         <v>79.7</v>
@@ -4609,10 +4642,10 @@
         <v>75.3</v>
       </c>
       <c r="J33">
-        <v>47.5</v>
+        <v>48.6</v>
       </c>
       <c r="K33">
-        <v>23.5</v>
+        <v>25</v>
       </c>
       <c r="L33">
         <v>57.1</v>
@@ -4624,17 +4657,17 @@
         <v>66.7</v>
       </c>
       <c r="O33">
-        <v>47.6</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B35">
         <v>145.80000000000001</v>
@@ -4661,10 +4694,10 @@
         <v>136.30000000000001</v>
       </c>
       <c r="J35">
-        <v>102.5</v>
+        <v>99.3</v>
       </c>
       <c r="K35">
-        <v>60.7</v>
+        <v>61.6</v>
       </c>
       <c r="L35">
         <v>133.69999999999999</v>
@@ -4676,12 +4709,12 @@
         <v>118.4</v>
       </c>
       <c r="O35">
-        <v>93.5</v>
+        <v>93.3</v>
       </c>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B36">
         <v>23.7</v>
@@ -4708,10 +4741,10 @@
         <v>-2.1</v>
       </c>
       <c r="J36">
-        <v>-0.7</v>
+        <v>-2.1</v>
       </c>
       <c r="K36">
-        <v>8.8000000000000007</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="L36">
         <v>16.5</v>
@@ -4723,12 +4756,12 @@
         <v>-2</v>
       </c>
       <c r="O36">
-        <v>9.4</v>
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B37">
         <v>33.9</v>
@@ -4755,10 +4788,10 @@
         <v>58.9</v>
       </c>
       <c r="J37">
-        <v>46.8</v>
+        <v>45</v>
       </c>
       <c r="K37">
-        <v>28.2</v>
+        <v>28.3</v>
       </c>
       <c r="L37">
         <v>40.9</v>
@@ -4770,12 +4803,12 @@
         <v>37.200000000000003</v>
       </c>
       <c r="O37">
-        <v>32.4</v>
+        <v>32.200000000000003</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B38">
         <v>8.5</v>
@@ -4802,10 +4835,10 @@
         <v>6.8</v>
       </c>
       <c r="J38">
-        <v>10.7</v>
+        <v>9.6</v>
       </c>
       <c r="K38">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="L38">
         <v>19.2</v>
@@ -4822,7 +4855,7 @@
     </row>
     <row r="39" spans="1:15">
       <c r="A39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B39">
         <v>79.7</v>
@@ -4849,10 +4882,10 @@
         <v>72.599999999999994</v>
       </c>
       <c r="J39">
-        <v>45.7</v>
+        <v>46.8</v>
       </c>
       <c r="K39">
-        <v>22.1</v>
+        <v>23.1</v>
       </c>
       <c r="L39">
         <v>57.1</v>
@@ -4864,17 +4897,17 @@
         <v>66</v>
       </c>
       <c r="O39">
-        <v>44.4</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B41">
         <v>118.6</v>
@@ -4901,10 +4934,10 @@
         <v>110.5</v>
       </c>
       <c r="J41">
-        <v>91.8</v>
+        <v>88.6</v>
       </c>
       <c r="K41">
-        <v>53.3</v>
+        <v>54.1</v>
       </c>
       <c r="L41">
         <v>117.1</v>
@@ -4916,12 +4949,12 @@
         <v>107.7</v>
       </c>
       <c r="O41">
-        <v>79.900000000000006</v>
+        <v>79.7</v>
       </c>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B42">
         <v>23.7</v>
@@ -4948,10 +4981,10 @@
         <v>-2.1</v>
       </c>
       <c r="J42">
-        <v>-3.6</v>
+        <v>-5</v>
       </c>
       <c r="K42">
-        <v>6.9</v>
+        <v>6.3</v>
       </c>
       <c r="L42">
         <v>16.3</v>
@@ -4963,12 +4996,12 @@
         <v>0.2</v>
       </c>
       <c r="O42">
-        <v>8.9</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B43">
         <v>33.9</v>
@@ -4995,10 +5028,10 @@
         <v>57.9</v>
       </c>
       <c r="J43">
-        <v>46.8</v>
+        <v>45</v>
       </c>
       <c r="K43">
-        <v>28.2</v>
+        <v>28.3</v>
       </c>
       <c r="L43">
         <v>40.9</v>
@@ -5010,12 +5043,12 @@
         <v>37.200000000000003</v>
       </c>
       <c r="O43">
-        <v>32.200000000000003</v>
+        <v>32.1</v>
       </c>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B44">
         <v>1.7</v>
@@ -5042,10 +5075,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="J44">
-        <v>8.1999999999999993</v>
+        <v>7.1</v>
       </c>
       <c r="K44">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="L44">
         <v>15.4</v>
@@ -5062,7 +5095,7 @@
     </row>
     <row r="45" spans="1:15">
       <c r="A45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B45">
         <v>59.3</v>
@@ -5089,10 +5122,10 @@
         <v>53.7</v>
       </c>
       <c r="J45">
-        <v>40.4</v>
+        <v>41.4</v>
       </c>
       <c r="K45">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="L45">
         <v>44.5</v>
@@ -5104,17 +5137,17 @@
         <v>55.2</v>
       </c>
       <c r="O45">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
     </row>
     <row r="46" spans="1:15">
       <c r="A46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:15">
       <c r="A47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B47">
         <v>118.6</v>
@@ -5141,10 +5174,10 @@
         <v>110.5</v>
       </c>
       <c r="J47">
-        <v>91.8</v>
+        <v>88.6</v>
       </c>
       <c r="K47">
-        <v>49.8</v>
+        <v>50.7</v>
       </c>
       <c r="L47">
         <v>117.1</v>
@@ -5156,12 +5189,12 @@
         <v>107.7</v>
       </c>
       <c r="O47">
-        <v>78.8</v>
+        <v>78.7</v>
       </c>
     </row>
     <row r="48" spans="1:15">
       <c r="A48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B48">
         <v>23.7</v>
@@ -5188,10 +5221,10 @@
         <v>-2.1</v>
       </c>
       <c r="J48">
-        <v>-3.6</v>
+        <v>-5</v>
       </c>
       <c r="K48">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="L48">
         <v>16.3</v>
@@ -5203,12 +5236,12 @@
         <v>0.2</v>
       </c>
       <c r="O48">
-        <v>8.3000000000000007</v>
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="49" spans="1:20">
       <c r="A49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B49">
         <v>33.9</v>
@@ -5235,10 +5268,10 @@
         <v>57.9</v>
       </c>
       <c r="J49">
-        <v>46.8</v>
+        <v>45</v>
       </c>
       <c r="K49">
-        <v>28.2</v>
+        <v>28.3</v>
       </c>
       <c r="L49">
         <v>40.9</v>
@@ -5250,12 +5283,12 @@
         <v>37.200000000000003</v>
       </c>
       <c r="O49">
-        <v>32.200000000000003</v>
+        <v>32.1</v>
       </c>
     </row>
     <row r="50" spans="1:20">
       <c r="A50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B50">
         <v>1.7</v>
@@ -5282,10 +5315,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="J50">
-        <v>8.1999999999999993</v>
+        <v>7.1</v>
       </c>
       <c r="K50">
-        <v>-0.6</v>
+        <v>-0.3</v>
       </c>
       <c r="L50">
         <v>15.4</v>
@@ -5302,7 +5335,7 @@
     </row>
     <row r="51" spans="1:20">
       <c r="A51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B51">
         <v>59.3</v>
@@ -5329,10 +5362,10 @@
         <v>53.7</v>
       </c>
       <c r="J51">
-        <v>40.4</v>
+        <v>41.4</v>
       </c>
       <c r="K51">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="L51">
         <v>44.5</v>
@@ -5344,57 +5377,57 @@
         <v>55.2</v>
       </c>
       <c r="O51">
-        <v>34.1</v>
+        <v>34.299999999999997</v>
       </c>
     </row>
     <row r="53" spans="1:20" s="3" customFormat="1">
       <c r="A53" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:20">
       <c r="B55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" t="s">
         <v>15</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>16</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>17</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>18</v>
       </c>
-      <c r="F55" t="s">
-        <v>19</v>
-      </c>
       <c r="T55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:20">
       <c r="A56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B56">
         <f t="shared" ref="B56:B63" ca="1" si="0">OFFSET($O$5,0+$T56,0)</f>
-        <v>198.2</v>
+        <v>197.9</v>
       </c>
       <c r="C56">
         <f t="shared" ref="C56:C63" ca="1" si="1">OFFSET($O$6,0+$T56,0)</f>
-        <v>83.7</v>
+        <v>83.4</v>
       </c>
       <c r="D56">
         <f t="shared" ref="D56:D63" ca="1" si="2">OFFSET($O$7,0+$T56,0)</f>
-        <v>60.4</v>
+        <v>60.2</v>
       </c>
       <c r="E56">
         <f t="shared" ref="E56:E63" ca="1" si="3">OFFSET($O$8,0+$T56,0)</f>
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F56">
         <f t="shared" ref="F56:F63" ca="1" si="4">OFFSET($O$9,0+$T56,0)</f>
-        <v>49.7</v>
+        <v>49.9</v>
       </c>
       <c r="T56">
         <v>0</v>
@@ -5402,27 +5435,27 @@
     </row>
     <row r="57" spans="1:20">
       <c r="A57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="0"/>
-        <v>153.69999999999999</v>
+        <v>153.5</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="1"/>
-        <v>26.6</v>
+        <v>26.4</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="2"/>
-        <v>60.4</v>
+        <v>60.2</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="3"/>
-        <v>17.2</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="4"/>
-        <v>49.5</v>
+        <v>49.7</v>
       </c>
       <c r="T57">
         <v>6</v>
@@ -5430,27 +5463,27 @@
     </row>
     <row r="58" spans="1:20">
       <c r="A58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="0"/>
-        <v>112.1</v>
+        <v>111.9</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.9</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="2"/>
-        <v>60.4</v>
+        <v>60.2</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="3"/>
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="4"/>
-        <v>49.4</v>
+        <v>49.6</v>
       </c>
       <c r="T58">
         <v>12</v>
@@ -5458,27 +5491,27 @@
     </row>
     <row r="59" spans="1:20">
       <c r="A59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="0"/>
-        <v>95.9</v>
+        <v>95.8</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="2"/>
-        <v>43.7</v>
+        <v>43.6</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="3"/>
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="4"/>
-        <v>47.7</v>
+        <v>47.9</v>
       </c>
       <c r="T59">
         <v>18</v>
@@ -5486,19 +5519,19 @@
     </row>
     <row r="60" spans="1:20">
       <c r="A60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="0"/>
-        <v>96.1</v>
+        <v>95.9</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="1"/>
-        <v>9.5</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="2"/>
-        <v>32.6</v>
+        <v>32.4</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="3"/>
@@ -5506,7 +5539,7 @@
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="4"/>
-        <v>47.6</v>
+        <v>47.8</v>
       </c>
       <c r="T60">
         <v>24</v>
@@ -5514,19 +5547,19 @@
     </row>
     <row r="61" spans="1:20">
       <c r="A61" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="0"/>
-        <v>93.5</v>
+        <v>93.3</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="1"/>
-        <v>9.4</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="2"/>
-        <v>32.4</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="3"/>
@@ -5534,7 +5567,7 @@
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="4"/>
-        <v>44.4</v>
+        <v>44.5</v>
       </c>
       <c r="T61">
         <v>30</v>
@@ -5542,19 +5575,19 @@
     </row>
     <row r="62" spans="1:20">
       <c r="A62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="0"/>
-        <v>79.900000000000006</v>
+        <v>79.7</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="1"/>
-        <v>8.9</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="2"/>
-        <v>32.200000000000003</v>
+        <v>32.1</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="3"/>
@@ -5562,7 +5595,7 @@
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="4"/>
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="T62">
         <v>36</v>
@@ -5570,19 +5603,19 @@
     </row>
     <row r="63" spans="1:20">
       <c r="A63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="0"/>
-        <v>78.8</v>
+        <v>78.7</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="1"/>
-        <v>8.3000000000000007</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="2"/>
-        <v>32.200000000000003</v>
+        <v>32.1</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="3"/>
@@ -5590,7 +5623,7 @@
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="4"/>
-        <v>34.1</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="T63">
         <v>42</v>
@@ -5639,7 +5672,7 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B67">
         <f ca="1">OFFSET(B$5,0+$T56,0)</f>
@@ -5675,11 +5708,11 @@
       </c>
       <c r="J67">
         <f t="shared" ca="1" si="5"/>
-        <v>197.5</v>
+        <v>190.7</v>
       </c>
       <c r="K67">
         <f t="shared" ca="1" si="5"/>
-        <v>122.3</v>
+        <v>125.1</v>
       </c>
       <c r="L67">
         <f t="shared" ca="1" si="5"/>
@@ -5696,7 +5729,7 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B68">
         <f t="shared" ref="B68:N74" ca="1" si="6">OFFSET(B$5,0+$T57,0)</f>
@@ -5732,11 +5765,11 @@
       </c>
       <c r="J68">
         <f t="shared" ca="1" si="6"/>
-        <v>161.4</v>
+        <v>156.80000000000001</v>
       </c>
       <c r="K68">
         <f t="shared" ca="1" si="6"/>
-        <v>97.9</v>
+        <v>100.2</v>
       </c>
       <c r="L68">
         <f t="shared" ca="1" si="6"/>
@@ -5753,7 +5786,7 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B69">
         <f t="shared" ca="1" si="6"/>
@@ -5789,11 +5822,11 @@
       </c>
       <c r="J69">
         <f t="shared" ca="1" si="6"/>
-        <v>121.1</v>
+        <v>117.1</v>
       </c>
       <c r="K69">
         <f t="shared" ca="1" si="6"/>
-        <v>71.2</v>
+        <v>72.8</v>
       </c>
       <c r="L69">
         <f t="shared" ca="1" si="6"/>
@@ -5810,7 +5843,7 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B70">
         <f t="shared" ca="1" si="6"/>
@@ -5846,11 +5879,11 @@
       </c>
       <c r="J70">
         <f t="shared" ca="1" si="6"/>
-        <v>101.8</v>
+        <v>98.6</v>
       </c>
       <c r="K70">
         <f t="shared" ca="1" si="6"/>
-        <v>60.1</v>
+        <v>61.6</v>
       </c>
       <c r="L70">
         <f t="shared" ca="1" si="6"/>
@@ -5867,7 +5900,7 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B71">
         <f t="shared" ca="1" si="6"/>
@@ -5903,11 +5936,11 @@
       </c>
       <c r="J71">
         <f t="shared" ca="1" si="6"/>
-        <v>104.3</v>
+        <v>101.1</v>
       </c>
       <c r="K71">
         <f t="shared" ca="1" si="6"/>
-        <v>61.8</v>
+        <v>63.1</v>
       </c>
       <c r="L71">
         <f t="shared" ca="1" si="6"/>
@@ -5924,7 +5957,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B72">
         <f t="shared" ca="1" si="6"/>
@@ -5960,11 +5993,11 @@
       </c>
       <c r="J72">
         <f t="shared" ca="1" si="6"/>
-        <v>102.5</v>
+        <v>99.3</v>
       </c>
       <c r="K72">
         <f t="shared" ca="1" si="6"/>
-        <v>60.7</v>
+        <v>61.6</v>
       </c>
       <c r="L72">
         <f t="shared" ca="1" si="6"/>
@@ -5981,7 +6014,7 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B73">
         <f t="shared" ca="1" si="6"/>
@@ -6017,11 +6050,11 @@
       </c>
       <c r="J73">
         <f t="shared" ca="1" si="6"/>
-        <v>91.8</v>
+        <v>88.6</v>
       </c>
       <c r="K73">
         <f t="shared" ca="1" si="6"/>
-        <v>53.3</v>
+        <v>54.1</v>
       </c>
       <c r="L73">
         <f t="shared" ca="1" si="6"/>
@@ -6038,7 +6071,7 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B74">
         <f t="shared" ca="1" si="6"/>
@@ -6074,11 +6107,11 @@
       </c>
       <c r="J74">
         <f t="shared" ca="1" si="6"/>
-        <v>91.8</v>
+        <v>88.6</v>
       </c>
       <c r="K74">
         <f t="shared" ca="1" si="6"/>
-        <v>49.8</v>
+        <v>50.7</v>
       </c>
       <c r="L74">
         <f t="shared" ca="1" si="6"/>
@@ -6108,8 +6141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U57"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6164,12 +6197,12 @@
     </row>
     <row r="2" spans="1:21" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3">
         <v>418</v>
@@ -6196,10 +6229,10 @@
         <v>1402</v>
       </c>
       <c r="J3">
-        <v>1666</v>
+        <v>1628</v>
       </c>
       <c r="K3">
-        <v>13954</v>
+        <v>14104</v>
       </c>
       <c r="L3">
         <v>12784</v>
@@ -6213,12 +6246,12 @@
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>418</v>
@@ -6245,10 +6278,10 @@
         <v>1402</v>
       </c>
       <c r="J5">
-        <v>1666</v>
+        <v>1628</v>
       </c>
       <c r="K5">
-        <v>13622</v>
+        <v>13792</v>
       </c>
       <c r="L5">
         <v>12724</v>
@@ -6262,7 +6295,7 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>338</v>
@@ -6289,10 +6322,10 @@
         <v>1106</v>
       </c>
       <c r="J6">
-        <v>1464</v>
+        <v>1438</v>
       </c>
       <c r="K6">
-        <v>12128</v>
+        <v>12268</v>
       </c>
       <c r="L6">
         <v>11626</v>
@@ -6306,7 +6339,7 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7">
         <v>308</v>
@@ -6333,10 +6366,10 @@
         <v>990</v>
       </c>
       <c r="J7">
-        <v>1238</v>
+        <v>1216</v>
       </c>
       <c r="K7">
-        <v>10490</v>
+        <v>10592</v>
       </c>
       <c r="L7">
         <v>10572</v>
@@ -6350,7 +6383,7 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8">
         <v>288</v>
@@ -6377,10 +6410,10 @@
         <v>970</v>
       </c>
       <c r="J8">
-        <v>1130</v>
+        <v>1112</v>
       </c>
       <c r="K8">
-        <v>9810</v>
+        <v>9904</v>
       </c>
       <c r="L8">
         <v>9466</v>
@@ -6398,7 +6431,7 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9">
         <v>290</v>
@@ -6425,10 +6458,10 @@
         <v>908</v>
       </c>
       <c r="J9">
-        <v>1144</v>
+        <v>1126</v>
       </c>
       <c r="K9">
-        <v>9918</v>
+        <v>9996</v>
       </c>
       <c r="L9">
         <v>9128</v>
@@ -6442,7 +6475,7 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10">
         <v>290</v>
@@ -6469,10 +6502,10 @@
         <v>898</v>
       </c>
       <c r="J10">
-        <v>1134</v>
+        <v>1116</v>
       </c>
       <c r="K10">
-        <v>9850</v>
+        <v>9902</v>
       </c>
       <c r="L10">
         <v>9128</v>
@@ -6486,7 +6519,7 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11">
         <v>258</v>
@@ -6513,10 +6546,10 @@
         <v>800</v>
       </c>
       <c r="J11">
-        <v>1074</v>
+        <v>1056</v>
       </c>
       <c r="K11">
-        <v>9392</v>
+        <v>9444</v>
       </c>
       <c r="L11">
         <v>8478</v>
@@ -6530,7 +6563,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12">
         <v>258</v>
@@ -6557,10 +6590,10 @@
         <v>800</v>
       </c>
       <c r="J12">
-        <v>1074</v>
+        <v>1056</v>
       </c>
       <c r="K12">
-        <v>9182</v>
+        <v>9234</v>
       </c>
       <c r="L12">
         <v>8478</v>
@@ -6574,12 +6607,12 @@
     </row>
     <row r="13" spans="1:21" s="5" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14">
         <f t="shared" ref="B14:N14" si="0">B3-B5</f>
@@ -6619,7 +6652,7 @@
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="L14">
         <f t="shared" si="0"/>
@@ -6636,12 +6669,12 @@
     </row>
     <row r="15" spans="1:21" s="5" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16">
         <f t="shared" ref="B16:N16" si="1">B5+B$14</f>
@@ -6677,11 +6710,11 @@
       </c>
       <c r="J16">
         <f t="shared" si="1"/>
-        <v>1666</v>
+        <v>1628</v>
       </c>
       <c r="K16">
         <f t="shared" si="1"/>
-        <v>13954</v>
+        <v>14104</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
@@ -6698,7 +6731,7 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17">
         <f t="shared" ref="B17:N17" si="2">B6+B$14</f>
@@ -6734,11 +6767,11 @@
       </c>
       <c r="J17">
         <f t="shared" si="2"/>
-        <v>1464</v>
+        <v>1438</v>
       </c>
       <c r="K17">
         <f t="shared" si="2"/>
-        <v>12460</v>
+        <v>12580</v>
       </c>
       <c r="L17">
         <f t="shared" si="2"/>
@@ -6755,7 +6788,7 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18">
         <f t="shared" ref="B18:N18" si="3">B7+B$14</f>
@@ -6791,11 +6824,11 @@
       </c>
       <c r="J18">
         <f t="shared" si="3"/>
-        <v>1238</v>
+        <v>1216</v>
       </c>
       <c r="K18">
         <f t="shared" si="3"/>
-        <v>10822</v>
+        <v>10904</v>
       </c>
       <c r="L18">
         <f t="shared" si="3"/>
@@ -6812,7 +6845,7 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19">
         <f t="shared" ref="B19:N19" si="4">B8+B$14</f>
@@ -6848,11 +6881,11 @@
       </c>
       <c r="J19">
         <f t="shared" si="4"/>
-        <v>1130</v>
+        <v>1112</v>
       </c>
       <c r="K19">
         <f t="shared" si="4"/>
-        <v>10142</v>
+        <v>10216</v>
       </c>
       <c r="L19">
         <f t="shared" si="4"/>
@@ -6869,7 +6902,7 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20">
         <f t="shared" ref="B20:N20" si="5">B9+B$14</f>
@@ -6905,11 +6938,11 @@
       </c>
       <c r="J20">
         <f t="shared" si="5"/>
-        <v>1144</v>
+        <v>1126</v>
       </c>
       <c r="K20">
         <f t="shared" si="5"/>
-        <v>10250</v>
+        <v>10308</v>
       </c>
       <c r="L20">
         <f t="shared" si="5"/>
@@ -6926,7 +6959,7 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B21">
         <f t="shared" ref="B21:N21" si="6">B10+B$14</f>
@@ -6962,11 +6995,11 @@
       </c>
       <c r="J21">
         <f t="shared" si="6"/>
-        <v>1134</v>
+        <v>1116</v>
       </c>
       <c r="K21">
         <f t="shared" si="6"/>
-        <v>10182</v>
+        <v>10214</v>
       </c>
       <c r="L21">
         <f t="shared" si="6"/>
@@ -6983,7 +7016,7 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22">
         <f t="shared" ref="B22:N22" si="7">B11+B$14</f>
@@ -7019,11 +7052,11 @@
       </c>
       <c r="J22">
         <f t="shared" si="7"/>
-        <v>1074</v>
+        <v>1056</v>
       </c>
       <c r="K22">
         <f t="shared" si="7"/>
-        <v>9724</v>
+        <v>9756</v>
       </c>
       <c r="L22">
         <f t="shared" si="7"/>
@@ -7040,7 +7073,7 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23">
         <f t="shared" ref="B23:N23" si="8">B12+B$14</f>
@@ -7076,11 +7109,11 @@
       </c>
       <c r="J23">
         <f t="shared" si="8"/>
-        <v>1074</v>
+        <v>1056</v>
       </c>
       <c r="K23">
         <f t="shared" si="8"/>
-        <v>9514</v>
+        <v>9546</v>
       </c>
       <c r="L23">
         <f t="shared" si="8"/>
@@ -7097,7 +7130,7 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B24">
         <f>B12</f>
@@ -7133,11 +7166,11 @@
       </c>
       <c r="J24">
         <f t="shared" si="9"/>
-        <v>1074</v>
+        <v>1056</v>
       </c>
       <c r="K24">
         <f t="shared" si="9"/>
-        <v>9182</v>
+        <v>9234</v>
       </c>
       <c r="L24">
         <f t="shared" si="9"/>
@@ -7154,12 +7187,12 @@
     </row>
     <row r="25" spans="1:16" s="5" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B26" s="6">
         <f t="shared" ref="B26:N26" si="10">(B16-B$16)/B$16</f>
@@ -7221,7 +7254,7 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B27" s="6">
         <f t="shared" ref="B27:N27" si="11">(B17-B$16)/B$16</f>
@@ -7257,11 +7290,11 @@
       </c>
       <c r="J27" s="6">
         <f t="shared" si="11"/>
-        <v>-0.1212484993997599</v>
+        <v>-0.1167076167076167</v>
       </c>
       <c r="K27" s="6">
         <f t="shared" si="11"/>
-        <v>-0.10706607424394439</v>
+        <v>-0.10805445263754963</v>
       </c>
       <c r="L27" s="6">
         <f t="shared" si="11"/>
@@ -7278,12 +7311,12 @@
       <c r="O27" s="6"/>
       <c r="P27" s="6">
         <f t="shared" ref="P27:P34" si="12">AVERAGE(B27:N27)</f>
-        <v>-0.14589258412638595</v>
+        <v>-0.14561931456495994</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28" s="6">
         <f t="shared" ref="B28:N28" si="13">(B18-B$16)/B$16</f>
@@ -7319,11 +7352,11 @@
       </c>
       <c r="J28" s="6">
         <f t="shared" si="13"/>
-        <v>-0.25690276110444177</v>
+        <v>-0.25307125307125306</v>
       </c>
       <c r="K28" s="6">
         <f t="shared" si="13"/>
-        <v>-0.22445177010176293</v>
+        <v>-0.22688598979013047</v>
       </c>
       <c r="L28" s="6">
         <f t="shared" si="13"/>
@@ -7340,12 +7373,12 @@
       <c r="O28" s="6"/>
       <c r="P28" s="6">
         <f t="shared" si="12"/>
-        <v>-0.28210603646515842</v>
+        <v>-0.28199855274632607</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B29" s="6">
         <f t="shared" ref="B29:N29" si="14">(B19-B$16)/B$16</f>
@@ -7381,11 +7414,11 @@
       </c>
       <c r="J29" s="6">
         <f t="shared" si="14"/>
-        <v>-0.32172869147659061</v>
+        <v>-0.31695331695331697</v>
       </c>
       <c r="K29" s="6">
         <f t="shared" si="14"/>
-        <v>-0.27318331661172424</v>
+        <v>-0.27566647759500851</v>
       </c>
       <c r="L29" s="6">
         <f t="shared" si="14"/>
@@ -7402,12 +7435,12 @@
       <c r="O29" s="6"/>
       <c r="P29" s="6">
         <f t="shared" si="12"/>
-        <v>-0.3370067443139646</v>
+        <v>-0.33683042019550391</v>
       </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B30" s="6">
         <f t="shared" ref="B30:N30" si="15">(B20-B$16)/B$16</f>
@@ -7443,11 +7476,11 @@
       </c>
       <c r="J30" s="6">
         <f t="shared" si="15"/>
-        <v>-0.31332533013205283</v>
+        <v>-0.30835380835380838</v>
       </c>
       <c r="K30" s="6">
         <f t="shared" si="15"/>
-        <v>-0.26544360040131859</v>
+        <v>-0.26914350538854226</v>
       </c>
       <c r="L30" s="6">
         <f t="shared" si="15"/>
@@ -7464,12 +7497,12 @@
       <c r="O30" s="6"/>
       <c r="P30" s="6">
         <f t="shared" si="12"/>
-        <v>-0.33603428941552127</v>
+        <v>-0.33593647273928889</v>
       </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B31" s="6">
         <f t="shared" ref="B31:N31" si="16">(B21-B$16)/B$16</f>
@@ -7505,11 +7538,11 @@
       </c>
       <c r="J31" s="6">
         <f t="shared" si="16"/>
-        <v>-0.31932773109243695</v>
+        <v>-0.31449631449631449</v>
       </c>
       <c r="K31" s="6">
         <f t="shared" si="16"/>
-        <v>-0.27031675505231473</v>
+        <v>-0.27580828133862734</v>
       </c>
       <c r="L31" s="6">
         <f t="shared" si="16"/>
@@ -7526,12 +7559,12 @@
       <c r="O31" s="6"/>
       <c r="P31" s="6">
         <f t="shared" si="12"/>
-        <v>-0.34463798514245819</v>
+        <v>-0.34468876281093436</v>
       </c>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B32" s="6">
         <f t="shared" ref="B32:N32" si="17">(B22-B$16)/B$16</f>
@@ -7567,11 +7600,11 @@
       </c>
       <c r="J32" s="6">
         <f t="shared" si="17"/>
-        <v>-0.35534213685474192</v>
+        <v>-0.35135135135135137</v>
       </c>
       <c r="K32" s="6">
         <f t="shared" si="17"/>
-        <v>-0.30313888490755336</v>
+        <v>-0.30828133862733975</v>
       </c>
       <c r="L32" s="6">
         <f t="shared" si="17"/>
@@ -7588,12 +7621,12 @@
       <c r="O32" s="6"/>
       <c r="P32" s="6">
         <f t="shared" si="12"/>
-        <v>-0.38827668063418319</v>
+        <v>-0.38836527049698294</v>
       </c>
     </row>
     <row r="33" spans="1:16">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B33" s="6">
         <f t="shared" ref="B33:N33" si="18">(B23-B$16)/B$16</f>
@@ -7629,11 +7662,11 @@
       </c>
       <c r="J33" s="6">
         <f t="shared" si="18"/>
-        <v>-0.35534213685474192</v>
+        <v>-0.35135135135135137</v>
       </c>
       <c r="K33" s="6">
         <f t="shared" si="18"/>
-        <v>-0.31818833309445321</v>
+        <v>-0.32317073170731708</v>
       </c>
       <c r="L33" s="6">
         <f t="shared" si="18"/>
@@ -7650,12 +7683,12 @@
       <c r="O33" s="6"/>
       <c r="P33" s="6">
         <f t="shared" si="12"/>
-        <v>-0.39325659518654393</v>
+        <v>-0.39333287311804183</v>
       </c>
     </row>
     <row r="34" spans="1:16">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B34" s="6">
         <f t="shared" ref="B34:N34" si="19">(B24-B$16)/B$16</f>
@@ -7691,11 +7724,11 @@
       </c>
       <c r="J34" s="6">
         <f t="shared" si="19"/>
-        <v>-0.35534213685474192</v>
+        <v>-0.35135135135135137</v>
       </c>
       <c r="K34" s="6">
         <f t="shared" si="19"/>
-        <v>-0.34198079403755194</v>
+        <v>-0.34529211571185481</v>
       </c>
       <c r="L34" s="6">
         <f t="shared" si="19"/>
@@ -7712,33 +7745,33 @@
       <c r="O34" s="6"/>
       <c r="P34" s="6">
         <f t="shared" si="12"/>
-        <v>-0.39550980981707273</v>
+        <v>-0.39545754336868144</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="1" customFormat="1">
       <c r="A35" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:16">
       <c r="B36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B37">
         <v>8984</v>
       </c>
       <c r="C37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B38">
         <v>15847</v>
@@ -7746,7 +7779,7 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B39">
         <v>16123</v>
@@ -7754,7 +7787,7 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B40">
         <v>16945</v>
@@ -7762,7 +7795,7 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B41">
         <v>18213</v>
@@ -7770,7 +7803,7 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B42">
         <v>21495</v>
@@ -7778,7 +7811,7 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B43">
         <v>21939</v>
@@ -7786,7 +7819,7 @@
     </row>
     <row r="44" spans="1:16">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B44">
         <v>21919</v>
@@ -7794,7 +7827,7 @@
     </row>
     <row r="45" spans="1:16">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B45">
         <v>21985</v>
@@ -7802,40 +7835,40 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B46">
         <v>22533</v>
       </c>
       <c r="O46" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47" spans="1:16" s="3" customFormat="1">
       <c r="A47" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:16">
       <c r="B48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" t="s">
         <v>69</v>
       </c>
-      <c r="C48" t="s">
+      <c r="E48" t="s">
         <v>70</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>71</v>
       </c>
-      <c r="F48" t="s">
-        <v>72</v>
-      </c>
       <c r="G48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49">
         <f>B38-B$37</f>
@@ -7848,7 +7881,7 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50">
         <f t="shared" ref="B50:B57" si="20">B39-B$37</f>
@@ -7864,11 +7897,11 @@
       </c>
       <c r="E50" s="6">
         <f>P27</f>
-        <v>-0.14589258412638595</v>
+        <v>-0.14561931456495994</v>
       </c>
       <c r="F50" s="7">
         <f>-C50/E50/1000</f>
-        <v>1.8918028058294087</v>
+        <v>1.8953529675960532</v>
       </c>
       <c r="G50" s="5">
         <f>'mem usage'!C52</f>
@@ -7877,7 +7910,7 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51">
         <f t="shared" si="20"/>
@@ -7893,11 +7926,11 @@
       </c>
       <c r="E51" s="6">
         <f t="shared" ref="E51:E57" si="23">P28</f>
-        <v>-0.28210603646515842</v>
+        <v>-0.28199855274632607</v>
       </c>
       <c r="F51" s="7">
         <f t="shared" ref="F51:F57" si="24">-C51/E51/1000</f>
-        <v>3.892153509928912</v>
+        <v>3.8936370038314139</v>
       </c>
       <c r="G51" s="5">
         <f>'mem usage'!D52</f>
@@ -7906,7 +7939,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52">
         <f t="shared" si="20"/>
@@ -7922,11 +7955,11 @@
       </c>
       <c r="E52" s="6">
         <f t="shared" si="23"/>
-        <v>-0.3370067443139646</v>
+        <v>-0.33683042019550391</v>
       </c>
       <c r="F52" s="7">
         <f t="shared" si="24"/>
-        <v>7.0206310108612264</v>
+        <v>7.024306173494427</v>
       </c>
       <c r="G52" s="5">
         <f>'mem usage'!E52</f>
@@ -7935,7 +7968,7 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53">
         <f t="shared" si="20"/>
@@ -7951,11 +7984,11 @@
       </c>
       <c r="E53" s="6">
         <f t="shared" si="23"/>
-        <v>-0.33603428941552127</v>
+        <v>-0.33593647273928889</v>
       </c>
       <c r="F53" s="7">
         <f t="shared" si="24"/>
-        <v>16.807808541871744</v>
+        <v>16.81270257422527</v>
       </c>
       <c r="G53" s="5">
         <f>'mem usage'!F$52</f>
@@ -7964,7 +7997,7 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B54">
         <f t="shared" si="20"/>
@@ -7980,11 +8013,11 @@
       </c>
       <c r="E54" s="6">
         <f t="shared" si="23"/>
-        <v>-0.34463798514245819</v>
+        <v>-0.34468876281093436</v>
       </c>
       <c r="F54" s="7">
         <f t="shared" si="24"/>
-        <v>17.676519311943618</v>
+        <v>17.673915303532915</v>
       </c>
       <c r="G54" s="5">
         <f>'mem usage'!F$52</f>
@@ -7993,7 +8026,7 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55">
         <f t="shared" si="20"/>
@@ -8009,11 +8042,11 @@
       </c>
       <c r="E55" s="6">
         <f t="shared" si="23"/>
-        <v>-0.38827668063418319</v>
+        <v>-0.38836527049698294</v>
       </c>
       <c r="F55" s="7">
         <f t="shared" si="24"/>
-        <v>15.638332928164607</v>
+        <v>15.634765673639633</v>
       </c>
       <c r="G55" s="5">
         <f>'mem usage'!F$52</f>
@@ -8022,7 +8055,7 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B56">
         <f t="shared" si="20"/>
@@ -8038,11 +8071,11 @@
       </c>
       <c r="E56" s="6">
         <f t="shared" si="23"/>
-        <v>-0.39325659518654393</v>
+        <v>-0.39333287311804183</v>
       </c>
       <c r="F56" s="7">
         <f t="shared" si="24"/>
-        <v>15.608129844811371</v>
+        <v>15.605103004339902</v>
       </c>
       <c r="G56" s="5">
         <f>'mem usage'!F$52</f>
@@ -8051,7 +8084,7 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B57">
         <f t="shared" si="20"/>
@@ -8067,11 +8100,11 @@
       </c>
       <c r="E57" s="6">
         <f t="shared" si="23"/>
-        <v>-0.39550980981707273</v>
+        <v>-0.39545754336868144</v>
       </c>
       <c r="F57" s="7">
         <f t="shared" si="24"/>
-        <v>16.904764013545812</v>
+        <v>16.906998265972394</v>
       </c>
       <c r="G57" s="5">
         <f>'mem usage'!F$52</f>
@@ -8093,7 +8126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
@@ -8101,24 +8134,24 @@
   <sheetData>
     <row r="1" spans="3:11">
       <c r="C1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="3:11" ht="16">
       <c r="C2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" t="s">
         <v>114</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>115</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>116</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>117</v>
-      </c>
-      <c r="G2" t="s">
-        <v>118</v>
       </c>
       <c r="K2" s="8"/>
     </row>
@@ -8127,12 +8160,12 @@
         <v>2</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="3:11" ht="16">
       <c r="K4" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="3:11" ht="16">
@@ -8140,23 +8173,23 @@
         <v>2</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="3:11" ht="16">
       <c r="G6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="3:11" ht="16">
       <c r="G7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="3:11" ht="16">
@@ -8164,7 +8197,7 @@
         <v>2</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="3:11" ht="16">
@@ -8172,7 +8205,7 @@
         <v>2</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="3:11" ht="16">
@@ -8180,7 +8213,7 @@
         <v>4</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="3:11" ht="16">
@@ -8188,7 +8221,7 @@
         <v>2</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="3:11" ht="16">
@@ -8196,7 +8229,7 @@
         <v>2</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="3:11" ht="16">
@@ -8204,7 +8237,7 @@
         <v>2</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="3:11" ht="16">
@@ -8212,7 +8245,7 @@
         <v>2</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="3:11" ht="16">
@@ -8220,7 +8253,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="3:11" ht="16">
@@ -8228,15 +8261,15 @@
         <v>2</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="4:11" ht="16">
       <c r="G17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="4:11" ht="16">
@@ -8244,7 +8277,7 @@
     </row>
     <row r="19" spans="4:11" ht="16">
       <c r="K19" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="4:11" ht="16">
@@ -8252,33 +8285,33 @@
         <v>11</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="4:11" ht="16">
       <c r="K21" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="4:11" ht="16">
       <c r="K22" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="4:11" ht="16">
       <c r="G23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="4:11" ht="16">
       <c r="G24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="4:11" ht="16">
@@ -8286,7 +8319,7 @@
         <v>11</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="4:11" ht="16">
@@ -8294,7 +8327,7 @@
         <v>22</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="4:11" ht="16">
@@ -8302,49 +8335,49 @@
         <v>22</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="4:11" ht="16">
       <c r="K28" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="4:11" ht="16">
       <c r="K29" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="4:11" ht="16">
       <c r="G30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="4:11" ht="16">
       <c r="G31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="4:11" ht="16">
       <c r="G32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="3:11" ht="16">
       <c r="G33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="3:11" ht="16">
@@ -8352,7 +8385,7 @@
         <v>2</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="3:11" ht="16">
@@ -8360,7 +8393,7 @@
         <v>2</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="3:11" ht="16">
@@ -8368,7 +8401,7 @@
         <v>11</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="3:11" ht="16">
@@ -8376,7 +8409,7 @@
         <v>22</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="3:11" ht="16">
@@ -8384,7 +8417,7 @@
         <v>22</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="3:11" ht="16">
@@ -8392,7 +8425,7 @@
         <v>2</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="3:11" ht="16">
@@ -8400,49 +8433,49 @@
         <v>1</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="3:11" ht="16">
       <c r="K41" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="3:11" ht="16">
       <c r="K42" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="3:11" ht="16">
       <c r="G43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="3:11" ht="16">
       <c r="G44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="3:11" ht="16">
       <c r="G45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="3:11" ht="16">
       <c r="G46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="3:11" ht="16">
@@ -8450,7 +8483,7 @@
         <v>1</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="3:11" ht="16">
@@ -8458,40 +8491,40 @@
         <v>1</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="2:11" ht="16">
       <c r="G49" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="2:11" ht="16">
       <c r="K50" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51" spans="2:11" ht="16">
       <c r="B51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C51" t="s">
+        <v>113</v>
+      </c>
+      <c r="D51" t="s">
         <v>114</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>115</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>116</v>
       </c>
-      <c r="F51" t="s">
-        <v>117</v>
-      </c>
       <c r="K51" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52" spans="2:11">

--- a/data/maingraphs-code-size-table.xlsx
+++ b/data/maingraphs-code-size-table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33560" windowHeight="20500" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main table" sheetId="1" r:id="rId1"/>
@@ -503,8 +503,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="207">
+  <cellStyleXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -725,7 +729,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="207">
+  <cellStyles count="211">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -829,6 +833,8 @@
     <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -932,6 +938,8 @@
     <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1263,7 +1271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
@@ -3354,8 +3362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F63" sqref="A55:F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/data/maingraphs-code-size-table.xlsx
+++ b/data/maingraphs-code-size-table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main table" sheetId="1" r:id="rId1"/>
@@ -503,8 +503,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="211">
+  <cellStyleXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -729,7 +733,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="211">
+  <cellStyles count="215">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -835,6 +839,8 @@
     <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -940,6 +946,8 @@
     <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1272,7 +1280,7 @@
   <dimension ref="A1:R49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+      <selection activeCell="A28" sqref="A28:O48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3362,8 +3370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F63" sqref="A55:F63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6149,8 +6157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U57"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G57" sqref="A48:G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/data/maingraphs-code-size-table.xlsx
+++ b/data/maingraphs-code-size-table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main table" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="127">
   <si>
     <t>BENCHMARK x</t>
   </si>
@@ -396,10 +396,13 @@
     <t>TAKEN FROM sumsum_codesize.txt</t>
   </si>
   <si>
-    <t>Before adding GETCONSTARRAY: 22363 bytes for full version</t>
-  </si>
-  <si>
     <t>UPDATED 20180305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Before adding GETCONSTARRAY: 22363 bytes for full version, vs. 22533 after. </t>
+  </si>
+  <si>
+    <t>Increase because of Const shift: 170 bytes</t>
   </si>
 </sst>
 </file>
@@ -503,8 +506,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="215">
+  <cellStyleXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -733,7 +740,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="215">
+  <cellStyles count="219">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -841,6 +848,8 @@
     <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -948,6 +957,8 @@
     <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2950,7 +2961,7 @@
         <v>-13.599999999999994</v>
       </c>
       <c r="Q41" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R41" s="10"/>
     </row>
@@ -3712,7 +3723,7 @@
         <v>49.9</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R9" s="10"/>
     </row>
@@ -6157,8 +6168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G57" sqref="A48:G57"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6441,7 +6452,7 @@
         <v>11916</v>
       </c>
       <c r="T8" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U8" s="10"/>
     </row>
@@ -7784,6 +7795,9 @@
       <c r="C37" t="s">
         <v>67</v>
       </c>
+      <c r="G37" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" t="s">
@@ -7792,6 +7806,9 @@
       <c r="B38">
         <v>15847</v>
       </c>
+      <c r="G38" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" t="s">
@@ -7855,9 +7872,6 @@
       </c>
       <c r="B46">
         <v>22533</v>
-      </c>
-      <c r="O46" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="47" spans="1:16" s="3" customFormat="1">

--- a/data/maingraphs-code-size-table.xlsx
+++ b/data/maingraphs-code-size-table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="main table" sheetId="1" r:id="rId1"/>
@@ -6168,7 +6168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
@@ -8156,7 +8156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K52"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
       <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>

--- a/data/maingraphs-code-size-table.xlsx
+++ b/data/maingraphs-code-size-table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="33600" windowHeight="20540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="main table" sheetId="1" r:id="rId1"/>
@@ -1290,8 +1290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:O48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44:N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8156,7 +8156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+    <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>

--- a/data/maingraphs-code-size-table.xlsx
+++ b/data/maingraphs-code-size-table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="33600" windowHeight="20540" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="main table" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="128">
   <si>
     <t>BENCHMARK x</t>
   </si>
@@ -396,13 +396,16 @@
     <t>TAKEN FROM sumsum_codesize.txt</t>
   </si>
   <si>
-    <t>UPDATED 20180305</t>
-  </si>
-  <si>
     <t xml:space="preserve">Before adding GETCONSTARRAY: 22363 bytes for full version, vs. 22533 after. </t>
   </si>
   <si>
     <t>Increase because of Const shift: 170 bytes</t>
+  </si>
+  <si>
+    <t>UPDATED 20180327</t>
+  </si>
+  <si>
+    <t>coremk_ch2</t>
   </si>
 </sst>
 </file>
@@ -492,7 +495,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF6600"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,8 +509,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="219">
+  <cellStyleXfs count="249">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -740,7 +773,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="219">
+  <cellStyles count="249">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -850,6 +883,21 @@
     <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -959,6 +1007,21 @@
     <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1291,7 +1354,7 @@
   <dimension ref="A1:R49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44:N44"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1331,7 +1394,7 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="L1" t="s">
         <v>11</v>
@@ -1421,7 +1484,7 @@
         <v>190.7</v>
       </c>
       <c r="K4">
-        <v>125.1</v>
+        <v>123.1</v>
       </c>
       <c r="L4">
         <v>225.8</v>
@@ -1430,10 +1493,10 @@
         <v>27.3</v>
       </c>
       <c r="N4">
-        <v>239.5</v>
+        <v>226.8</v>
       </c>
       <c r="O4">
-        <v>197.9</v>
+        <v>196.8</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1468,7 +1531,7 @@
         <v>63.6</v>
       </c>
       <c r="K5">
-        <v>57.3</v>
+        <v>56.5</v>
       </c>
       <c r="L5">
         <v>74.599999999999994</v>
@@ -1477,10 +1540,10 @@
         <v>35</v>
       </c>
       <c r="N5">
-        <v>95.1</v>
+        <v>84.5</v>
       </c>
       <c r="O5">
-        <v>83.4</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1515,7 +1578,7 @@
         <v>72.900000000000006</v>
       </c>
       <c r="K6">
-        <v>45.4</v>
+        <v>47.7</v>
       </c>
       <c r="L6">
         <v>69.900000000000006</v>
@@ -1524,10 +1587,10 @@
         <v>23.5</v>
       </c>
       <c r="N6">
-        <v>56.4</v>
+        <v>60.1</v>
       </c>
       <c r="O6">
-        <v>60.2</v>
+        <v>60.7</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1562,7 +1625,7 @@
         <v>5.7</v>
       </c>
       <c r="K7">
-        <v>-3.7</v>
+        <v>-3.8</v>
       </c>
       <c r="L7">
         <v>19</v>
@@ -1571,10 +1634,10 @@
         <v>-14.5</v>
       </c>
       <c r="N7">
-        <v>15.1</v>
+        <v>16.3</v>
       </c>
       <c r="O7">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1609,7 +1672,7 @@
         <v>48.6</v>
       </c>
       <c r="K8">
-        <v>26</v>
+        <v>22.7</v>
       </c>
       <c r="L8">
         <v>62.2</v>
@@ -1618,10 +1681,10 @@
         <v>-16.7</v>
       </c>
       <c r="N8">
-        <v>72.8</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="O8">
-        <v>49.9</v>
+        <v>49.1</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="1" customFormat="1">
@@ -1661,7 +1724,7 @@
         <v>190.7</v>
       </c>
       <c r="K11">
-        <v>125.1</v>
+        <v>123.1</v>
       </c>
       <c r="L11">
         <v>225.8</v>
@@ -1670,10 +1733,10 @@
         <v>27.3</v>
       </c>
       <c r="N11">
-        <v>239.5</v>
+        <v>226.8</v>
       </c>
       <c r="O11">
-        <v>197.9</v>
+        <v>196.8</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1708,7 +1771,7 @@
         <v>156.80000000000001</v>
       </c>
       <c r="K12">
-        <v>100.2</v>
+        <v>98.4</v>
       </c>
       <c r="L12">
         <v>197.6</v>
@@ -1717,10 +1780,10 @@
         <v>13.6</v>
       </c>
       <c r="N12">
-        <v>188.5</v>
+        <v>176.9</v>
       </c>
       <c r="O12">
-        <v>153.5</v>
+        <v>152.4</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1755,7 +1818,7 @@
         <v>117.1</v>
       </c>
       <c r="K13">
-        <v>72.8</v>
+        <v>69.7</v>
       </c>
       <c r="L13">
         <v>170.7</v>
@@ -1764,10 +1827,10 @@
         <v>-2.7</v>
       </c>
       <c r="N13">
-        <v>145.1</v>
+        <v>138.30000000000001</v>
       </c>
       <c r="O13">
-        <v>111.9</v>
+        <v>111.2</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1802,7 +1865,7 @@
         <v>98.6</v>
       </c>
       <c r="K14">
-        <v>61.6</v>
+        <v>58.4</v>
       </c>
       <c r="L14">
         <v>142.30000000000001</v>
@@ -1811,10 +1874,10 @@
         <v>-10.8</v>
       </c>
       <c r="N14">
-        <v>125.1</v>
+        <v>117.7</v>
       </c>
       <c r="O14">
-        <v>95.8</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1849,7 +1912,7 @@
         <v>101.1</v>
       </c>
       <c r="K15">
-        <v>63.1</v>
+        <v>59.2</v>
       </c>
       <c r="L15">
         <v>133.69999999999999</v>
@@ -1858,10 +1921,10 @@
         <v>-13.3</v>
       </c>
       <c r="N15">
-        <v>119.1</v>
+        <v>106.3</v>
       </c>
       <c r="O15">
-        <v>95.9</v>
+        <v>94.7</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1896,7 +1959,7 @@
         <v>99.3</v>
       </c>
       <c r="K16">
-        <v>61.6</v>
+        <v>57.7</v>
       </c>
       <c r="L16">
         <v>133.69999999999999</v>
@@ -1905,10 +1968,10 @@
         <v>-15</v>
       </c>
       <c r="N16">
-        <v>118.4</v>
+        <v>106.1</v>
       </c>
       <c r="O16">
-        <v>93.3</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1943,7 +2006,7 @@
         <v>88.6</v>
       </c>
       <c r="K17">
-        <v>54.1</v>
+        <v>50.1</v>
       </c>
       <c r="L17">
         <v>117.1</v>
@@ -1952,10 +2015,10 @@
         <v>-17.2</v>
       </c>
       <c r="N17">
-        <v>107.7</v>
+        <v>95.4</v>
       </c>
       <c r="O17">
-        <v>79.7</v>
+        <v>78.400000000000006</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1990,7 +2053,7 @@
         <v>88.6</v>
       </c>
       <c r="K18">
-        <v>50.7</v>
+        <v>46.7</v>
       </c>
       <c r="L18">
         <v>117.1</v>
@@ -1999,10 +2062,10 @@
         <v>-17.2</v>
       </c>
       <c r="N18">
-        <v>107.7</v>
+        <v>95.4</v>
       </c>
       <c r="O18">
-        <v>78.7</v>
+        <v>77.400000000000006</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="1" customFormat="1">
@@ -2042,7 +2105,7 @@
         <v>88.6</v>
       </c>
       <c r="K20">
-        <v>50.7</v>
+        <v>46.7</v>
       </c>
       <c r="L20">
         <v>117.1</v>
@@ -2051,10 +2114,10 @@
         <v>-17.2</v>
       </c>
       <c r="N20">
-        <v>107.7</v>
+        <v>95.4</v>
       </c>
       <c r="O20">
-        <v>78.7</v>
+        <v>77.400000000000006</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -2089,7 +2152,7 @@
         <v>-5</v>
       </c>
       <c r="K21">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="L21">
         <v>16.3</v>
@@ -2098,10 +2161,10 @@
         <v>3.9</v>
       </c>
       <c r="N21">
-        <v>0.2</v>
+        <v>-3.1</v>
       </c>
       <c r="O21">
-        <v>8.1999999999999993</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -2136,7 +2199,7 @@
         <v>45</v>
       </c>
       <c r="K22">
-        <v>28.3</v>
+        <v>30.1</v>
       </c>
       <c r="L22">
         <v>40.9</v>
@@ -2145,10 +2208,10 @@
         <v>8</v>
       </c>
       <c r="N22">
-        <v>37.200000000000003</v>
+        <v>37.6</v>
       </c>
       <c r="O22">
-        <v>32.1</v>
+        <v>32.200000000000003</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -2183,7 +2246,7 @@
         <v>7.1</v>
       </c>
       <c r="K23">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="L23">
         <v>15.4</v>
@@ -2192,10 +2255,10 @@
         <v>-10.7</v>
       </c>
       <c r="N23">
-        <v>15</v>
+        <v>13.3</v>
       </c>
       <c r="O23">
-        <v>4.2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -2230,7 +2293,7 @@
         <v>41.4</v>
       </c>
       <c r="K24">
-        <v>18.5</v>
+        <v>15.1</v>
       </c>
       <c r="L24">
         <v>44.5</v>
@@ -2239,10 +2302,10 @@
         <v>-18.399999999999999</v>
       </c>
       <c r="N24">
-        <v>55.2</v>
+        <v>47.6</v>
       </c>
       <c r="O24">
-        <v>34.299999999999997</v>
+        <v>33.4</v>
       </c>
     </row>
     <row r="27" spans="1:15" s="3" customFormat="1">
@@ -2297,7 +2360,7 @@
       </c>
       <c r="K29" s="4">
         <f t="shared" si="0"/>
-        <v>125.1</v>
+        <v>123.1</v>
       </c>
       <c r="L29" s="4">
         <f t="shared" si="0"/>
@@ -2309,11 +2372,11 @@
       </c>
       <c r="N29" s="4">
         <f t="shared" si="0"/>
-        <v>239.5</v>
+        <v>226.8</v>
       </c>
       <c r="O29" s="4">
         <f t="shared" si="0"/>
-        <v>197.9</v>
+        <v>196.8</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -2358,7 +2421,7 @@
       </c>
       <c r="K30" s="4">
         <f t="shared" si="1"/>
-        <v>57.3</v>
+        <v>56.5</v>
       </c>
       <c r="L30" s="4">
         <f t="shared" si="1"/>
@@ -2370,11 +2433,11 @@
       </c>
       <c r="N30" s="4">
         <f t="shared" si="1"/>
-        <v>95.1</v>
+        <v>84.5</v>
       </c>
       <c r="O30" s="4">
         <f t="shared" si="1"/>
-        <v>83.4</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -2419,7 +2482,7 @@
       </c>
       <c r="K31" s="4">
         <f t="shared" si="1"/>
-        <v>45.4</v>
+        <v>47.7</v>
       </c>
       <c r="L31" s="4">
         <f t="shared" si="1"/>
@@ -2431,11 +2494,11 @@
       </c>
       <c r="N31" s="4">
         <f t="shared" si="1"/>
-        <v>56.4</v>
+        <v>60.1</v>
       </c>
       <c r="O31" s="4">
         <f t="shared" si="1"/>
-        <v>60.2</v>
+        <v>60.7</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -2480,7 +2543,7 @@
       </c>
       <c r="K32" s="4">
         <f t="shared" si="1"/>
-        <v>-3.7</v>
+        <v>-3.8</v>
       </c>
       <c r="L32" s="4">
         <f t="shared" si="1"/>
@@ -2492,11 +2555,11 @@
       </c>
       <c r="N32" s="4">
         <f t="shared" si="1"/>
-        <v>15.1</v>
+        <v>16.3</v>
       </c>
       <c r="O32" s="4">
         <f t="shared" si="1"/>
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -2541,7 +2604,7 @@
       </c>
       <c r="K33" s="4">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>22.7</v>
       </c>
       <c r="L33" s="4">
         <f t="shared" si="1"/>
@@ -2553,11 +2616,11 @@
       </c>
       <c r="N33" s="4">
         <f t="shared" si="1"/>
-        <v>72.8</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="O33" s="4">
         <f t="shared" si="1"/>
-        <v>49.9</v>
+        <v>49.1</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -2637,7 +2700,7 @@
       </c>
       <c r="K36" s="4">
         <f t="shared" si="2"/>
-        <v>-24.899999999999991</v>
+        <v>-24.699999999999989</v>
       </c>
       <c r="L36" s="4">
         <f t="shared" si="2"/>
@@ -2649,7 +2712,7 @@
       </c>
       <c r="N36" s="4">
         <f t="shared" si="2"/>
-        <v>-51</v>
+        <v>-49.900000000000006</v>
       </c>
       <c r="O36" s="4">
         <f t="shared" si="2"/>
@@ -2698,7 +2761,7 @@
       </c>
       <c r="K37" s="4">
         <f t="shared" si="3"/>
-        <v>-27.400000000000006</v>
+        <v>-28.700000000000003</v>
       </c>
       <c r="L37" s="4">
         <f t="shared" si="3"/>
@@ -2710,11 +2773,11 @@
       </c>
       <c r="N37" s="4">
         <f t="shared" si="3"/>
-        <v>-43.400000000000006</v>
+        <v>-38.599999999999994</v>
       </c>
       <c r="O37" s="4">
         <f t="shared" si="3"/>
-        <v>-41.599999999999994</v>
+        <v>-41.2</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -2759,7 +2822,7 @@
       </c>
       <c r="K38" s="4">
         <f t="shared" si="3"/>
-        <v>-11.199999999999996</v>
+        <v>-11.300000000000004</v>
       </c>
       <c r="L38" s="4">
         <f t="shared" si="3"/>
@@ -2771,11 +2834,11 @@
       </c>
       <c r="N38" s="4">
         <f t="shared" si="3"/>
-        <v>-20</v>
+        <v>-20.600000000000009</v>
       </c>
       <c r="O38" s="4">
         <f t="shared" si="3"/>
-        <v>-16.100000000000009</v>
+        <v>-16.200000000000003</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -2820,7 +2883,7 @@
       </c>
       <c r="K39" s="4">
         <f t="shared" si="3"/>
-        <v>1.5</v>
+        <v>0.80000000000000426</v>
       </c>
       <c r="L39" s="4">
         <f t="shared" si="3"/>
@@ -2832,11 +2895,11 @@
       </c>
       <c r="N39" s="4">
         <f t="shared" si="3"/>
-        <v>-6</v>
+        <v>-11.400000000000006</v>
       </c>
       <c r="O39" s="4">
         <f t="shared" si="3"/>
-        <v>0.10000000000000853</v>
+        <v>-0.29999999999999716</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -2893,11 +2956,11 @@
       </c>
       <c r="N40" s="4">
         <f t="shared" si="3"/>
-        <v>-0.69999999999998863</v>
+        <v>-0.20000000000000284</v>
       </c>
       <c r="O40" s="4">
         <f t="shared" si="3"/>
-        <v>-2.6000000000000085</v>
+        <v>-2.7000000000000028</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -2942,7 +3005,7 @@
       </c>
       <c r="K41" s="4">
         <f t="shared" si="3"/>
-        <v>-7.5</v>
+        <v>-7.6000000000000014</v>
       </c>
       <c r="L41" s="4">
         <f t="shared" si="3"/>
@@ -2954,14 +3017,14 @@
       </c>
       <c r="N41" s="4">
         <f t="shared" si="3"/>
-        <v>-10.700000000000003</v>
+        <v>-10.699999999999989</v>
       </c>
       <c r="O41" s="4">
         <f t="shared" si="3"/>
         <v>-13.599999999999994</v>
       </c>
       <c r="Q41" s="10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="R41" s="10"/>
     </row>
@@ -3087,7 +3150,7 @@
       </c>
       <c r="K44" s="4">
         <f t="shared" si="4"/>
-        <v>50.7</v>
+        <v>46.7</v>
       </c>
       <c r="L44" s="4">
         <f t="shared" si="4"/>
@@ -3099,11 +3162,11 @@
       </c>
       <c r="N44" s="4">
         <f t="shared" si="4"/>
-        <v>107.7</v>
+        <v>95.4</v>
       </c>
       <c r="O44" s="4">
         <f t="shared" si="4"/>
-        <v>78.7</v>
+        <v>77.400000000000006</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3148,7 +3211,7 @@
       </c>
       <c r="K45" s="4">
         <f t="shared" si="5"/>
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="L45" s="4">
         <f t="shared" si="5"/>
@@ -3160,11 +3223,11 @@
       </c>
       <c r="N45" s="4">
         <f t="shared" si="5"/>
-        <v>0.2</v>
+        <v>-3.1</v>
       </c>
       <c r="O45" s="4">
         <f t="shared" si="5"/>
-        <v>8.1999999999999993</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3209,7 +3272,7 @@
       </c>
       <c r="K46" s="4">
         <f t="shared" si="5"/>
-        <v>28.3</v>
+        <v>30.1</v>
       </c>
       <c r="L46" s="4">
         <f t="shared" si="5"/>
@@ -3221,11 +3284,11 @@
       </c>
       <c r="N46" s="4">
         <f t="shared" si="5"/>
-        <v>37.200000000000003</v>
+        <v>37.6</v>
       </c>
       <c r="O46" s="4">
         <f t="shared" si="5"/>
-        <v>32.1</v>
+        <v>32.200000000000003</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -3270,7 +3333,7 @@
       </c>
       <c r="K47" s="4">
         <f t="shared" si="5"/>
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="L47" s="4">
         <f t="shared" si="5"/>
@@ -3282,11 +3345,11 @@
       </c>
       <c r="N47" s="4">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>13.3</v>
       </c>
       <c r="O47" s="4">
         <f t="shared" si="5"/>
-        <v>4.2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -3331,7 +3394,7 @@
       </c>
       <c r="K48" s="4">
         <f t="shared" si="5"/>
-        <v>18.5</v>
+        <v>15.1</v>
       </c>
       <c r="L48" s="4">
         <f t="shared" si="5"/>
@@ -3343,11 +3406,11 @@
       </c>
       <c r="N48" s="4">
         <f t="shared" si="5"/>
-        <v>55.2</v>
+        <v>47.6</v>
       </c>
       <c r="O48" s="4">
         <f t="shared" si="5"/>
-        <v>34.299999999999997</v>
+        <v>33.4</v>
       </c>
     </row>
     <row r="49" spans="2:15">
@@ -3382,7 +3445,7 @@
   <dimension ref="A1:T74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="R9" sqref="Q9:R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3471,7 +3534,7 @@
         <v>9</v>
       </c>
       <c r="K3" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="L3" t="s">
         <v>11</v>
@@ -3520,7 +3583,7 @@
         <v>190.7</v>
       </c>
       <c r="K5">
-        <v>125.1</v>
+        <v>123.1</v>
       </c>
       <c r="L5">
         <v>225.8</v>
@@ -3529,10 +3592,10 @@
         <v>27.3</v>
       </c>
       <c r="N5">
-        <v>239.5</v>
+        <v>226.8</v>
       </c>
       <c r="O5">
-        <v>197.9</v>
+        <v>196.8</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -3567,7 +3630,7 @@
         <v>63.6</v>
       </c>
       <c r="K6">
-        <v>57.3</v>
+        <v>56.5</v>
       </c>
       <c r="L6">
         <v>74.599999999999994</v>
@@ -3576,10 +3639,10 @@
         <v>35</v>
       </c>
       <c r="N6">
-        <v>95.1</v>
+        <v>84.5</v>
       </c>
       <c r="O6">
-        <v>83.4</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -3614,7 +3677,7 @@
         <v>72.900000000000006</v>
       </c>
       <c r="K7">
-        <v>45.4</v>
+        <v>47.7</v>
       </c>
       <c r="L7">
         <v>69.900000000000006</v>
@@ -3623,10 +3686,10 @@
         <v>23.5</v>
       </c>
       <c r="N7">
-        <v>56.4</v>
+        <v>60.1</v>
       </c>
       <c r="O7">
-        <v>60.2</v>
+        <v>60.7</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -3661,7 +3724,7 @@
         <v>5.7</v>
       </c>
       <c r="K8">
-        <v>-3.7</v>
+        <v>-3.8</v>
       </c>
       <c r="L8">
         <v>19</v>
@@ -3670,10 +3733,10 @@
         <v>-14.5</v>
       </c>
       <c r="N8">
-        <v>15.1</v>
+        <v>16.3</v>
       </c>
       <c r="O8">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -3708,7 +3771,7 @@
         <v>48.6</v>
       </c>
       <c r="K9">
-        <v>26</v>
+        <v>22.7</v>
       </c>
       <c r="L9">
         <v>62.2</v>
@@ -3717,13 +3780,13 @@
         <v>-16.7</v>
       </c>
       <c r="N9">
-        <v>72.8</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="O9">
-        <v>49.9</v>
+        <v>49.1</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="R9" s="10"/>
     </row>
@@ -3764,7 +3827,7 @@
         <v>156.80000000000001</v>
       </c>
       <c r="K11">
-        <v>100.2</v>
+        <v>98.4</v>
       </c>
       <c r="L11">
         <v>197.6</v>
@@ -3773,10 +3836,10 @@
         <v>13.6</v>
       </c>
       <c r="N11">
-        <v>188.5</v>
+        <v>176.9</v>
       </c>
       <c r="O11">
-        <v>153.5</v>
+        <v>152.4</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -3811,7 +3874,7 @@
         <v>20.7</v>
       </c>
       <c r="K12">
-        <v>25.7</v>
+        <v>25.1</v>
       </c>
       <c r="L12">
         <v>37.6</v>
@@ -3820,10 +3883,10 @@
         <v>17.7</v>
       </c>
       <c r="N12">
-        <v>28.6</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="O12">
-        <v>26.4</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -3858,7 +3921,7 @@
         <v>72.900000000000006</v>
       </c>
       <c r="K13">
-        <v>45.4</v>
+        <v>47.7</v>
       </c>
       <c r="L13">
         <v>69.900000000000006</v>
@@ -3867,10 +3930,10 @@
         <v>23.5</v>
       </c>
       <c r="N13">
-        <v>56.4</v>
+        <v>60.1</v>
       </c>
       <c r="O13">
-        <v>60.2</v>
+        <v>60.7</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -3905,7 +3968,7 @@
         <v>14.6</v>
       </c>
       <c r="K14">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L14">
         <v>27.9</v>
@@ -3914,10 +3977,10 @@
         <v>-10.9</v>
       </c>
       <c r="N14">
-        <v>30.9</v>
+        <v>31.9</v>
       </c>
       <c r="O14">
-        <v>17.100000000000001</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -3952,7 +4015,7 @@
         <v>48.6</v>
       </c>
       <c r="K15">
-        <v>25.9</v>
+        <v>22.6</v>
       </c>
       <c r="L15">
         <v>62.2</v>
@@ -3961,10 +4024,10 @@
         <v>-16.7</v>
       </c>
       <c r="N15">
-        <v>72.5</v>
+        <v>65.5</v>
       </c>
       <c r="O15">
-        <v>49.7</v>
+        <v>48.9</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -4004,7 +4067,7 @@
         <v>117.1</v>
       </c>
       <c r="K17">
-        <v>72.8</v>
+        <v>69.7</v>
       </c>
       <c r="L17">
         <v>170.7</v>
@@ -4013,10 +4076,10 @@
         <v>-2.7</v>
       </c>
       <c r="N17">
-        <v>145.1</v>
+        <v>138.30000000000001</v>
       </c>
       <c r="O17">
-        <v>111.9</v>
+        <v>111.2</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -4051,7 +4114,7 @@
         <v>-7.9</v>
       </c>
       <c r="K18">
-        <v>3.4</v>
+        <v>1.9</v>
       </c>
       <c r="L18">
         <v>17.3</v>
@@ -4060,10 +4123,10 @@
         <v>3.5</v>
       </c>
       <c r="N18">
-        <v>-3.4</v>
+        <v>-6.7</v>
       </c>
       <c r="O18">
-        <v>-1.1000000000000001</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -4098,7 +4161,7 @@
         <v>72.900000000000006</v>
       </c>
       <c r="K19">
-        <v>45.4</v>
+        <v>47.7</v>
       </c>
       <c r="L19">
         <v>69.900000000000006</v>
@@ -4107,10 +4170,10 @@
         <v>23.5</v>
       </c>
       <c r="N19">
-        <v>56.4</v>
+        <v>60.1</v>
       </c>
       <c r="O19">
-        <v>60.2</v>
+        <v>60.7</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -4145,7 +4208,7 @@
         <v>3.6</v>
       </c>
       <c r="K20">
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
       <c r="L20">
         <v>21.3</v>
@@ -4154,7 +4217,7 @@
         <v>-12.9</v>
       </c>
       <c r="N20">
-        <v>20</v>
+        <v>19.7</v>
       </c>
       <c r="O20">
         <v>3.1</v>
@@ -4192,7 +4255,7 @@
         <v>48.6</v>
       </c>
       <c r="K21">
-        <v>25.5</v>
+        <v>22.2</v>
       </c>
       <c r="L21">
         <v>62.1</v>
@@ -4201,10 +4264,10 @@
         <v>-16.8</v>
       </c>
       <c r="N21">
-        <v>72</v>
+        <v>65.2</v>
       </c>
       <c r="O21">
-        <v>49.6</v>
+        <v>48.8</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -4244,7 +4307,7 @@
         <v>98.6</v>
       </c>
       <c r="K23">
-        <v>61.6</v>
+        <v>58.4</v>
       </c>
       <c r="L23">
         <v>142.30000000000001</v>
@@ -4253,10 +4316,10 @@
         <v>-10.8</v>
       </c>
       <c r="N23">
-        <v>125.1</v>
+        <v>117.7</v>
       </c>
       <c r="O23">
-        <v>95.8</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -4291,7 +4354,7 @@
         <v>-7.9</v>
       </c>
       <c r="K24">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="L24">
         <v>14.2</v>
@@ -4300,10 +4363,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="N24">
-        <v>-2.8</v>
+        <v>-6.1</v>
       </c>
       <c r="O24">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -4338,7 +4401,7 @@
         <v>53.6</v>
       </c>
       <c r="K25">
-        <v>35.4</v>
+        <v>37.1</v>
       </c>
       <c r="L25">
         <v>50.5</v>
@@ -4347,10 +4410,10 @@
         <v>16.7</v>
       </c>
       <c r="N25">
-        <v>43.4</v>
+        <v>47</v>
       </c>
       <c r="O25">
-        <v>43.6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -4385,7 +4448,7 @@
         <v>4.3</v>
       </c>
       <c r="K26">
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
       <c r="L26">
         <v>19.8</v>
@@ -4394,10 +4457,10 @@
         <v>-13</v>
       </c>
       <c r="N26">
-        <v>16.899999999999999</v>
+        <v>16.2</v>
       </c>
       <c r="O26">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -4432,7 +4495,7 @@
         <v>48.6</v>
       </c>
       <c r="K27">
-        <v>24.9</v>
+        <v>21.5</v>
       </c>
       <c r="L27">
         <v>57.9</v>
@@ -4441,10 +4504,10 @@
         <v>-16.8</v>
       </c>
       <c r="N27">
-        <v>67.5</v>
+        <v>60.6</v>
       </c>
       <c r="O27">
-        <v>47.9</v>
+        <v>47.1</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -4484,7 +4547,7 @@
         <v>101.1</v>
       </c>
       <c r="K29">
-        <v>63.1</v>
+        <v>59.2</v>
       </c>
       <c r="L29">
         <v>133.69999999999999</v>
@@ -4493,10 +4556,10 @@
         <v>-13.3</v>
       </c>
       <c r="N29">
-        <v>119.1</v>
+        <v>106.3</v>
       </c>
       <c r="O29">
-        <v>95.9</v>
+        <v>94.7</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -4531,7 +4594,7 @@
         <v>-2.1</v>
       </c>
       <c r="K30">
-        <v>8.3000000000000007</v>
+        <v>5.7</v>
       </c>
       <c r="L30">
         <v>16.5</v>
@@ -4540,10 +4603,10 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="N30">
-        <v>-2</v>
+        <v>-4.8</v>
       </c>
       <c r="O30">
-        <v>9.3000000000000007</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -4578,7 +4641,7 @@
         <v>45</v>
       </c>
       <c r="K31">
-        <v>28.3</v>
+        <v>30.5</v>
       </c>
       <c r="L31">
         <v>40.9</v>
@@ -4587,10 +4650,10 @@
         <v>8</v>
       </c>
       <c r="N31">
-        <v>37.200000000000003</v>
+        <v>37.9</v>
       </c>
       <c r="O31">
-        <v>32.4</v>
+        <v>32.6</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -4625,7 +4688,7 @@
         <v>9.6</v>
       </c>
       <c r="K32">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="L32">
         <v>19.2</v>
@@ -4634,10 +4697,10 @@
         <v>-9.6999999999999993</v>
       </c>
       <c r="N32">
-        <v>17.2</v>
+        <v>15.3</v>
       </c>
       <c r="O32">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -4672,7 +4735,7 @@
         <v>48.6</v>
       </c>
       <c r="K33">
-        <v>25</v>
+        <v>21.6</v>
       </c>
       <c r="L33">
         <v>57.1</v>
@@ -4681,10 +4744,10 @@
         <v>-16.8</v>
       </c>
       <c r="N33">
-        <v>66.7</v>
+        <v>57.9</v>
       </c>
       <c r="O33">
-        <v>47.8</v>
+        <v>46.9</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -4724,7 +4787,7 @@
         <v>99.3</v>
       </c>
       <c r="K35">
-        <v>61.6</v>
+        <v>57.7</v>
       </c>
       <c r="L35">
         <v>133.69999999999999</v>
@@ -4733,10 +4796,10 @@
         <v>-15</v>
       </c>
       <c r="N35">
-        <v>118.4</v>
+        <v>106.1</v>
       </c>
       <c r="O35">
-        <v>93.3</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -4771,7 +4834,7 @@
         <v>-2.1</v>
       </c>
       <c r="K36">
-        <v>8.3000000000000007</v>
+        <v>5.7</v>
       </c>
       <c r="L36">
         <v>16.5</v>
@@ -4780,10 +4843,10 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="N36">
-        <v>-2</v>
+        <v>-4.9000000000000004</v>
       </c>
       <c r="O36">
-        <v>9.3000000000000007</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -4818,7 +4881,7 @@
         <v>45</v>
       </c>
       <c r="K37">
-        <v>28.3</v>
+        <v>30.4</v>
       </c>
       <c r="L37">
         <v>40.9</v>
@@ -4827,10 +4890,10 @@
         <v>8</v>
       </c>
       <c r="N37">
-        <v>37.200000000000003</v>
+        <v>37.9</v>
       </c>
       <c r="O37">
-        <v>32.200000000000003</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -4865,7 +4928,7 @@
         <v>9.6</v>
       </c>
       <c r="K38">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L38">
         <v>19.2</v>
@@ -4874,10 +4937,10 @@
         <v>-9.8000000000000007</v>
       </c>
       <c r="N38">
-        <v>17.2</v>
+        <v>15.3</v>
       </c>
       <c r="O38">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -4912,7 +4975,7 @@
         <v>46.8</v>
       </c>
       <c r="K39">
-        <v>23.1</v>
+        <v>19.7</v>
       </c>
       <c r="L39">
         <v>57.1</v>
@@ -4921,10 +4984,10 @@
         <v>-18.399999999999999</v>
       </c>
       <c r="N39">
-        <v>66</v>
+        <v>57.9</v>
       </c>
       <c r="O39">
-        <v>44.5</v>
+        <v>43.6</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -4964,7 +5027,7 @@
         <v>88.6</v>
       </c>
       <c r="K41">
-        <v>54.1</v>
+        <v>50.1</v>
       </c>
       <c r="L41">
         <v>117.1</v>
@@ -4973,10 +5036,10 @@
         <v>-17.2</v>
       </c>
       <c r="N41">
-        <v>107.7</v>
+        <v>95.4</v>
       </c>
       <c r="O41">
-        <v>79.7</v>
+        <v>78.400000000000006</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -5011,7 +5074,7 @@
         <v>-5</v>
       </c>
       <c r="K42">
-        <v>6.3</v>
+        <v>3.8</v>
       </c>
       <c r="L42">
         <v>16.3</v>
@@ -5020,10 +5083,10 @@
         <v>3.9</v>
       </c>
       <c r="N42">
-        <v>0.2</v>
+        <v>-3.1</v>
       </c>
       <c r="O42">
-        <v>8.6999999999999993</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -5058,7 +5121,7 @@
         <v>45</v>
       </c>
       <c r="K43">
-        <v>28.3</v>
+        <v>30.1</v>
       </c>
       <c r="L43">
         <v>40.9</v>
@@ -5067,10 +5130,10 @@
         <v>8</v>
       </c>
       <c r="N43">
-        <v>37.200000000000003</v>
+        <v>37.6</v>
       </c>
       <c r="O43">
-        <v>32.1</v>
+        <v>32.200000000000003</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -5105,7 +5168,7 @@
         <v>7.1</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L44">
         <v>15.4</v>
@@ -5114,10 +5177,10 @@
         <v>-10.7</v>
       </c>
       <c r="N44">
-        <v>15</v>
+        <v>13.3</v>
       </c>
       <c r="O44">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -5152,7 +5215,7 @@
         <v>41.4</v>
       </c>
       <c r="K45">
-        <v>19.5</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="L45">
         <v>44.5</v>
@@ -5161,10 +5224,10 @@
         <v>-18.399999999999999</v>
       </c>
       <c r="N45">
-        <v>55.2</v>
+        <v>47.6</v>
       </c>
       <c r="O45">
-        <v>34.6</v>
+        <v>33.799999999999997</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -5204,7 +5267,7 @@
         <v>88.6</v>
       </c>
       <c r="K47">
-        <v>50.7</v>
+        <v>46.7</v>
       </c>
       <c r="L47">
         <v>117.1</v>
@@ -5213,10 +5276,10 @@
         <v>-17.2</v>
       </c>
       <c r="N47">
-        <v>107.7</v>
+        <v>95.4</v>
       </c>
       <c r="O47">
-        <v>78.7</v>
+        <v>77.400000000000006</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -5251,7 +5314,7 @@
         <v>-5</v>
       </c>
       <c r="K48">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="L48">
         <v>16.3</v>
@@ -5260,10 +5323,10 @@
         <v>3.9</v>
       </c>
       <c r="N48">
-        <v>0.2</v>
+        <v>-3.1</v>
       </c>
       <c r="O48">
-        <v>8.1999999999999993</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="49" spans="1:20">
@@ -5298,7 +5361,7 @@
         <v>45</v>
       </c>
       <c r="K49">
-        <v>28.3</v>
+        <v>30.1</v>
       </c>
       <c r="L49">
         <v>40.9</v>
@@ -5307,10 +5370,10 @@
         <v>8</v>
       </c>
       <c r="N49">
-        <v>37.200000000000003</v>
+        <v>37.6</v>
       </c>
       <c r="O49">
-        <v>32.1</v>
+        <v>32.200000000000003</v>
       </c>
     </row>
     <row r="50" spans="1:20">
@@ -5345,7 +5408,7 @@
         <v>7.1</v>
       </c>
       <c r="K50">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="L50">
         <v>15.4</v>
@@ -5354,10 +5417,10 @@
         <v>-10.7</v>
       </c>
       <c r="N50">
-        <v>15</v>
+        <v>13.3</v>
       </c>
       <c r="O50">
-        <v>4.2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:20">
@@ -5392,7 +5455,7 @@
         <v>41.4</v>
       </c>
       <c r="K51">
-        <v>18.5</v>
+        <v>15.1</v>
       </c>
       <c r="L51">
         <v>44.5</v>
@@ -5401,10 +5464,10 @@
         <v>-18.399999999999999</v>
       </c>
       <c r="N51">
-        <v>55.2</v>
+        <v>47.6</v>
       </c>
       <c r="O51">
-        <v>34.299999999999997</v>
+        <v>33.4</v>
       </c>
     </row>
     <row r="53" spans="1:20" s="3" customFormat="1">
@@ -5438,23 +5501,23 @@
       </c>
       <c r="B56">
         <f t="shared" ref="B56:B63" ca="1" si="0">OFFSET($O$5,0+$T56,0)</f>
-        <v>197.9</v>
+        <v>196.8</v>
       </c>
       <c r="C56">
         <f t="shared" ref="C56:C63" ca="1" si="1">OFFSET($O$6,0+$T56,0)</f>
-        <v>83.4</v>
+        <v>82.5</v>
       </c>
       <c r="D56">
         <f t="shared" ref="D56:D63" ca="1" si="2">OFFSET($O$7,0+$T56,0)</f>
-        <v>60.2</v>
+        <v>60.7</v>
       </c>
       <c r="E56">
         <f t="shared" ref="E56:E63" ca="1" si="3">OFFSET($O$8,0+$T56,0)</f>
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="F56">
         <f t="shared" ref="F56:F63" ca="1" si="4">OFFSET($O$9,0+$T56,0)</f>
-        <v>49.9</v>
+        <v>49.1</v>
       </c>
       <c r="T56">
         <v>0</v>
@@ -5466,23 +5529,23 @@
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="0"/>
-        <v>153.5</v>
+        <v>152.4</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="1"/>
-        <v>26.4</v>
+        <v>25.7</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="2"/>
-        <v>60.2</v>
+        <v>60.7</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="3"/>
-        <v>17.100000000000001</v>
+        <v>17.2</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="4"/>
-        <v>49.7</v>
+        <v>48.9</v>
       </c>
       <c r="T57">
         <v>6</v>
@@ -5494,15 +5557,15 @@
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="0"/>
-        <v>111.9</v>
+        <v>111.2</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.1000000000000001</v>
+        <v>-1.4</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="2"/>
-        <v>60.2</v>
+        <v>60.7</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="3"/>
@@ -5510,7 +5573,7 @@
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="4"/>
-        <v>49.6</v>
+        <v>48.8</v>
       </c>
       <c r="T58">
         <v>12</v>
@@ -5522,23 +5585,23 @@
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="0"/>
-        <v>95.8</v>
+        <v>95</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="2"/>
-        <v>43.6</v>
+        <v>44</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="3"/>
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="4"/>
-        <v>47.9</v>
+        <v>47.1</v>
       </c>
       <c r="T59">
         <v>18</v>
@@ -5550,23 +5613,23 @@
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="0"/>
-        <v>95.9</v>
+        <v>94.7</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="1"/>
-        <v>9.3000000000000007</v>
+        <v>8.9</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="2"/>
-        <v>32.4</v>
+        <v>32.6</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="3"/>
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="4"/>
-        <v>47.8</v>
+        <v>46.9</v>
       </c>
       <c r="T60">
         <v>24</v>
@@ -5578,23 +5641,23 @@
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="0"/>
-        <v>93.3</v>
+        <v>92</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="1"/>
-        <v>9.3000000000000007</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="2"/>
-        <v>32.200000000000003</v>
+        <v>32.4</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="3"/>
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="4"/>
-        <v>44.5</v>
+        <v>43.6</v>
       </c>
       <c r="T61">
         <v>30</v>
@@ -5606,23 +5669,23 @@
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="0"/>
-        <v>79.7</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="1"/>
-        <v>8.6999999999999993</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="2"/>
-        <v>32.1</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="3"/>
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="4"/>
-        <v>34.6</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="T62">
         <v>36</v>
@@ -5634,23 +5697,23 @@
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="0"/>
-        <v>78.7</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="1"/>
-        <v>8.1999999999999993</v>
+        <v>7.7</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="2"/>
-        <v>32.1</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="3"/>
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="4"/>
-        <v>34.299999999999997</v>
+        <v>33.4</v>
       </c>
       <c r="T63">
         <v>42</v>
@@ -5739,7 +5802,7 @@
       </c>
       <c r="K67">
         <f t="shared" ca="1" si="5"/>
-        <v>125.1</v>
+        <v>123.1</v>
       </c>
       <c r="L67">
         <f t="shared" ca="1" si="5"/>
@@ -5751,7 +5814,7 @@
       </c>
       <c r="N67">
         <f t="shared" ca="1" si="5"/>
-        <v>239.5</v>
+        <v>226.8</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -5796,7 +5859,7 @@
       </c>
       <c r="K68">
         <f t="shared" ca="1" si="6"/>
-        <v>100.2</v>
+        <v>98.4</v>
       </c>
       <c r="L68">
         <f t="shared" ca="1" si="6"/>
@@ -5808,7 +5871,7 @@
       </c>
       <c r="N68">
         <f t="shared" ca="1" si="6"/>
-        <v>188.5</v>
+        <v>176.9</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -5853,7 +5916,7 @@
       </c>
       <c r="K69">
         <f t="shared" ca="1" si="6"/>
-        <v>72.8</v>
+        <v>69.7</v>
       </c>
       <c r="L69">
         <f t="shared" ca="1" si="6"/>
@@ -5865,7 +5928,7 @@
       </c>
       <c r="N69">
         <f t="shared" ca="1" si="6"/>
-        <v>145.1</v>
+        <v>138.30000000000001</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -5910,7 +5973,7 @@
       </c>
       <c r="K70">
         <f t="shared" ca="1" si="6"/>
-        <v>61.6</v>
+        <v>58.4</v>
       </c>
       <c r="L70">
         <f t="shared" ca="1" si="6"/>
@@ -5922,7 +5985,7 @@
       </c>
       <c r="N70">
         <f t="shared" ca="1" si="6"/>
-        <v>125.1</v>
+        <v>117.7</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -5967,7 +6030,7 @@
       </c>
       <c r="K71">
         <f t="shared" ca="1" si="6"/>
-        <v>63.1</v>
+        <v>59.2</v>
       </c>
       <c r="L71">
         <f t="shared" ca="1" si="6"/>
@@ -5979,7 +6042,7 @@
       </c>
       <c r="N71">
         <f t="shared" ca="1" si="6"/>
-        <v>119.1</v>
+        <v>106.3</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -6024,7 +6087,7 @@
       </c>
       <c r="K72">
         <f t="shared" ca="1" si="6"/>
-        <v>61.6</v>
+        <v>57.7</v>
       </c>
       <c r="L72">
         <f t="shared" ca="1" si="6"/>
@@ -6036,7 +6099,7 @@
       </c>
       <c r="N72">
         <f t="shared" ca="1" si="6"/>
-        <v>118.4</v>
+        <v>106.1</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -6081,7 +6144,7 @@
       </c>
       <c r="K73">
         <f t="shared" ca="1" si="6"/>
-        <v>54.1</v>
+        <v>50.1</v>
       </c>
       <c r="L73">
         <f t="shared" ca="1" si="6"/>
@@ -6093,7 +6156,7 @@
       </c>
       <c r="N73">
         <f t="shared" ca="1" si="6"/>
-        <v>107.7</v>
+        <v>95.4</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -6138,7 +6201,7 @@
       </c>
       <c r="K74">
         <f t="shared" ca="1" si="6"/>
-        <v>50.7</v>
+        <v>46.7</v>
       </c>
       <c r="L74">
         <f t="shared" ca="1" si="6"/>
@@ -6150,7 +6213,7 @@
       </c>
       <c r="N74">
         <f t="shared" ca="1" si="6"/>
-        <v>107.7</v>
+        <v>95.4</v>
       </c>
     </row>
   </sheetData>
@@ -6168,8 +6231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U57"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6210,7 +6273,7 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="L1" t="s">
         <v>11</v>
@@ -6259,7 +6322,7 @@
         <v>1628</v>
       </c>
       <c r="K3">
-        <v>14104</v>
+        <v>13982</v>
       </c>
       <c r="L3">
         <v>12784</v>
@@ -6268,7 +6331,7 @@
         <v>2454</v>
       </c>
       <c r="N3">
-        <v>17920</v>
+        <v>17248</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1">
@@ -6308,7 +6371,7 @@
         <v>1628</v>
       </c>
       <c r="K5">
-        <v>13792</v>
+        <v>13670</v>
       </c>
       <c r="L5">
         <v>12724</v>
@@ -6317,7 +6380,7 @@
         <v>2474</v>
       </c>
       <c r="N5">
-        <v>17972</v>
+        <v>17300</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -6352,7 +6415,7 @@
         <v>1438</v>
       </c>
       <c r="K6">
-        <v>12268</v>
+        <v>12158</v>
       </c>
       <c r="L6">
         <v>11626</v>
@@ -6361,7 +6424,7 @@
         <v>2208</v>
       </c>
       <c r="N6">
-        <v>15272</v>
+        <v>14660</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -6396,7 +6459,7 @@
         <v>1216</v>
       </c>
       <c r="K7">
-        <v>10592</v>
+        <v>10402</v>
       </c>
       <c r="L7">
         <v>10572</v>
@@ -6405,7 +6468,7 @@
         <v>1892</v>
       </c>
       <c r="N7">
-        <v>12976</v>
+        <v>12616</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -6440,7 +6503,7 @@
         <v>1112</v>
       </c>
       <c r="K8">
-        <v>9904</v>
+        <v>9704</v>
       </c>
       <c r="L8">
         <v>9466</v>
@@ -6449,10 +6512,10 @@
         <v>1734</v>
       </c>
       <c r="N8">
-        <v>11916</v>
+        <v>11524</v>
       </c>
       <c r="T8" s="10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="U8" s="10"/>
     </row>
@@ -6488,7 +6551,7 @@
         <v>1126</v>
       </c>
       <c r="K9">
-        <v>9996</v>
+        <v>9756</v>
       </c>
       <c r="L9">
         <v>9128</v>
@@ -6497,7 +6560,7 @@
         <v>1686</v>
       </c>
       <c r="N9">
-        <v>11600</v>
+        <v>10920</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -6532,7 +6595,7 @@
         <v>1116</v>
       </c>
       <c r="K10">
-        <v>9902</v>
+        <v>9662</v>
       </c>
       <c r="L10">
         <v>9128</v>
@@ -6541,7 +6604,7 @@
         <v>1652</v>
       </c>
       <c r="N10">
-        <v>11562</v>
+        <v>10912</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -6576,7 +6639,7 @@
         <v>1056</v>
       </c>
       <c r="K11">
-        <v>9444</v>
+        <v>9200</v>
       </c>
       <c r="L11">
         <v>8478</v>
@@ -6585,7 +6648,7 @@
         <v>1610</v>
       </c>
       <c r="N11">
-        <v>10994</v>
+        <v>10346</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -6620,7 +6683,7 @@
         <v>1056</v>
       </c>
       <c r="K12">
-        <v>9234</v>
+        <v>8990</v>
       </c>
       <c r="L12">
         <v>8478</v>
@@ -6629,7 +6692,7 @@
         <v>1610</v>
       </c>
       <c r="N12">
-        <v>10994</v>
+        <v>10346</v>
       </c>
     </row>
     <row r="13" spans="1:21" s="5" customFormat="1">
@@ -6741,7 +6804,7 @@
       </c>
       <c r="K16">
         <f t="shared" si="1"/>
-        <v>14104</v>
+        <v>13982</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
@@ -6753,7 +6816,7 @@
       </c>
       <c r="N16">
         <f t="shared" si="1"/>
-        <v>17920</v>
+        <v>17248</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -6798,7 +6861,7 @@
       </c>
       <c r="K17">
         <f t="shared" si="2"/>
-        <v>12580</v>
+        <v>12470</v>
       </c>
       <c r="L17">
         <f t="shared" si="2"/>
@@ -6810,7 +6873,7 @@
       </c>
       <c r="N17">
         <f t="shared" si="2"/>
-        <v>15220</v>
+        <v>14608</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -6855,7 +6918,7 @@
       </c>
       <c r="K18">
         <f t="shared" si="3"/>
-        <v>10904</v>
+        <v>10714</v>
       </c>
       <c r="L18">
         <f t="shared" si="3"/>
@@ -6867,7 +6930,7 @@
       </c>
       <c r="N18">
         <f t="shared" si="3"/>
-        <v>12924</v>
+        <v>12564</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -6912,7 +6975,7 @@
       </c>
       <c r="K19">
         <f t="shared" si="4"/>
-        <v>10216</v>
+        <v>10016</v>
       </c>
       <c r="L19">
         <f t="shared" si="4"/>
@@ -6924,7 +6987,7 @@
       </c>
       <c r="N19">
         <f t="shared" si="4"/>
-        <v>11864</v>
+        <v>11472</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -6969,7 +7032,7 @@
       </c>
       <c r="K20">
         <f t="shared" si="5"/>
-        <v>10308</v>
+        <v>10068</v>
       </c>
       <c r="L20">
         <f t="shared" si="5"/>
@@ -6981,7 +7044,7 @@
       </c>
       <c r="N20">
         <f t="shared" si="5"/>
-        <v>11548</v>
+        <v>10868</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -7026,7 +7089,7 @@
       </c>
       <c r="K21">
         <f t="shared" si="6"/>
-        <v>10214</v>
+        <v>9974</v>
       </c>
       <c r="L21">
         <f t="shared" si="6"/>
@@ -7038,7 +7101,7 @@
       </c>
       <c r="N21">
         <f t="shared" si="6"/>
-        <v>11510</v>
+        <v>10860</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -7083,7 +7146,7 @@
       </c>
       <c r="K22">
         <f t="shared" si="7"/>
-        <v>9756</v>
+        <v>9512</v>
       </c>
       <c r="L22">
         <f t="shared" si="7"/>
@@ -7095,7 +7158,7 @@
       </c>
       <c r="N22">
         <f t="shared" si="7"/>
-        <v>10942</v>
+        <v>10294</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -7140,7 +7203,7 @@
       </c>
       <c r="K23">
         <f t="shared" si="8"/>
-        <v>9546</v>
+        <v>9302</v>
       </c>
       <c r="L23">
         <f t="shared" si="8"/>
@@ -7152,7 +7215,7 @@
       </c>
       <c r="N23">
         <f t="shared" si="8"/>
-        <v>10942</v>
+        <v>10294</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -7197,7 +7260,7 @@
       </c>
       <c r="K24">
         <f t="shared" si="9"/>
-        <v>9234</v>
+        <v>8990</v>
       </c>
       <c r="L24">
         <f t="shared" si="9"/>
@@ -7209,7 +7272,7 @@
       </c>
       <c r="N24">
         <f t="shared" si="9"/>
-        <v>10994</v>
+        <v>10346</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="5" customFormat="1">
@@ -7321,7 +7384,7 @@
       </c>
       <c r="K27" s="6">
         <f t="shared" si="11"/>
-        <v>-0.10805445263754963</v>
+        <v>-0.10813903590330425</v>
       </c>
       <c r="L27" s="6">
         <f t="shared" si="11"/>
@@ -7333,12 +7396,12 @@
       </c>
       <c r="N27" s="6">
         <f t="shared" si="11"/>
-        <v>-0.15066964285714285</v>
+        <v>-0.15306122448979592</v>
       </c>
       <c r="O27" s="6"/>
       <c r="P27" s="6">
         <f t="shared" ref="P27:P34" si="12">AVERAGE(B27:N27)</f>
-        <v>-0.14561931456495994</v>
+        <v>-0.1458097887879144</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -7383,7 +7446,7 @@
       </c>
       <c r="K28" s="6">
         <f t="shared" si="13"/>
-        <v>-0.22688598979013047</v>
+        <v>-0.23372908024603062</v>
       </c>
       <c r="L28" s="6">
         <f t="shared" si="13"/>
@@ -7395,12 +7458,12 @@
       </c>
       <c r="N28" s="6">
         <f t="shared" si="13"/>
-        <v>-0.27879464285714284</v>
+        <v>-0.27156771799628943</v>
       </c>
       <c r="O28" s="6"/>
       <c r="P28" s="6">
         <f t="shared" si="12"/>
-        <v>-0.28199855274632607</v>
+        <v>-0.28196902702286814</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -7445,7 +7508,7 @@
       </c>
       <c r="K29" s="6">
         <f t="shared" si="14"/>
-        <v>-0.27566647759500851</v>
+        <v>-0.28365040766700045</v>
       </c>
       <c r="L29" s="6">
         <f t="shared" si="14"/>
@@ -7457,12 +7520,12 @@
       </c>
       <c r="N29" s="6">
         <f t="shared" si="14"/>
-        <v>-0.33794642857142859</v>
+        <v>-0.33487940630797774</v>
       </c>
       <c r="O29" s="6"/>
       <c r="P29" s="6">
         <f t="shared" si="12"/>
-        <v>-0.33683042019550391</v>
+        <v>-0.33720864387308402</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -7507,7 +7570,7 @@
       </c>
       <c r="K30" s="6">
         <f t="shared" si="15"/>
-        <v>-0.26914350538854226</v>
+        <v>-0.27993134029466454</v>
       </c>
       <c r="L30" s="6">
         <f t="shared" si="15"/>
@@ -7519,12 +7582,12 @@
       </c>
       <c r="N30" s="6">
         <f t="shared" si="15"/>
-        <v>-0.35558035714285713</v>
+        <v>-0.36989795918367346</v>
       </c>
       <c r="O30" s="6"/>
       <c r="P30" s="6">
         <f t="shared" si="12"/>
-        <v>-0.33593647273928889</v>
+        <v>-0.33786766019674569</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -7569,7 +7632,7 @@
       </c>
       <c r="K31" s="6">
         <f t="shared" si="16"/>
-        <v>-0.27580828133862734</v>
+        <v>-0.28665426977542557</v>
       </c>
       <c r="L31" s="6">
         <f t="shared" si="16"/>
@@ -7581,12 +7644,12 @@
       </c>
       <c r="N31" s="6">
         <f t="shared" si="16"/>
-        <v>-0.35770089285714285</v>
+        <v>-0.37036178107606677</v>
       </c>
       <c r="O31" s="6"/>
       <c r="P31" s="6">
         <f t="shared" si="12"/>
-        <v>-0.34468876281093436</v>
+        <v>-0.34649698409214369</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -7631,7 +7694,7 @@
       </c>
       <c r="K32" s="6">
         <f t="shared" si="17"/>
-        <v>-0.30828133862733975</v>
+        <v>-0.31969675296810185</v>
       </c>
       <c r="L32" s="6">
         <f t="shared" si="17"/>
@@ -7643,12 +7706,12 @@
       </c>
       <c r="N32" s="6">
         <f t="shared" si="17"/>
-        <v>-0.38939732142857142</v>
+        <v>-0.40317717996289426</v>
       </c>
       <c r="O32" s="6"/>
       <c r="P32" s="6">
         <f t="shared" si="12"/>
-        <v>-0.38836527049698294</v>
+        <v>-0.39030336841045093</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -7693,7 +7756,7 @@
       </c>
       <c r="K33" s="6">
         <f t="shared" si="18"/>
-        <v>-0.32317073170731708</v>
+        <v>-0.33471606351022742</v>
       </c>
       <c r="L33" s="6">
         <f t="shared" si="18"/>
@@ -7705,12 +7768,12 @@
       </c>
       <c r="N33" s="6">
         <f t="shared" si="18"/>
-        <v>-0.38939732142857142</v>
+        <v>-0.40317717996289426</v>
       </c>
       <c r="O33" s="6"/>
       <c r="P33" s="6">
         <f t="shared" si="12"/>
-        <v>-0.39333287311804183</v>
+        <v>-0.39528096468244434</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -7755,7 +7818,7 @@
       </c>
       <c r="K34" s="6">
         <f t="shared" si="19"/>
-        <v>-0.34529211571185481</v>
+        <v>-0.35703046774424257</v>
       </c>
       <c r="L34" s="6">
         <f t="shared" si="19"/>
@@ -7767,12 +7830,12 @@
       </c>
       <c r="N34" s="6">
         <f t="shared" si="19"/>
-        <v>-0.38649553571428569</v>
+        <v>-0.40016233766233766</v>
       </c>
       <c r="O34" s="6"/>
       <c r="P34" s="6">
         <f t="shared" si="12"/>
-        <v>-0.39545754336868144</v>
+        <v>-0.39741178598256155</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="1" customFormat="1">
@@ -7796,7 +7859,7 @@
         <v>67</v>
       </c>
       <c r="G37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -7807,7 +7870,7 @@
         <v>15847</v>
       </c>
       <c r="G38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -7901,7 +7964,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <f>B38-B$37</f>
+        <f t="shared" ref="B49:B57" si="20">B38-B$37</f>
         <v>6863</v>
       </c>
       <c r="G49">
@@ -7914,7 +7977,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <f t="shared" ref="B50:B57" si="20">B39-B$37</f>
+        <f t="shared" si="20"/>
         <v>7139</v>
       </c>
       <c r="C50">
@@ -7927,11 +7990,11 @@
       </c>
       <c r="E50" s="6">
         <f>P27</f>
-        <v>-0.14561931456495994</v>
+        <v>-0.1458097887879144</v>
       </c>
       <c r="F50" s="7">
         <f>-C50/E50/1000</f>
-        <v>1.8953529675960532</v>
+        <v>1.8928770303717535</v>
       </c>
       <c r="G50" s="5">
         <f>'mem usage'!C52</f>
@@ -7956,11 +8019,11 @@
       </c>
       <c r="E51" s="6">
         <f t="shared" ref="E51:E57" si="23">P28</f>
-        <v>-0.28199855274632607</v>
+        <v>-0.28196902702286814</v>
       </c>
       <c r="F51" s="7">
         <f t="shared" ref="F51:F57" si="24">-C51/E51/1000</f>
-        <v>3.8936370038314139</v>
+        <v>3.8940447168722203</v>
       </c>
       <c r="G51" s="5">
         <f>'mem usage'!D52</f>
@@ -7985,11 +8048,11 @@
       </c>
       <c r="E52" s="6">
         <f t="shared" si="23"/>
-        <v>-0.33683042019550391</v>
+        <v>-0.33720864387308402</v>
       </c>
       <c r="F52" s="7">
         <f t="shared" si="24"/>
-        <v>7.024306173494427</v>
+        <v>7.0164274937462663</v>
       </c>
       <c r="G52" s="5">
         <f>'mem usage'!E52</f>
@@ -8014,11 +8077,11 @@
       </c>
       <c r="E53" s="6">
         <f t="shared" si="23"/>
-        <v>-0.33593647273928889</v>
+        <v>-0.33786766019674569</v>
       </c>
       <c r="F53" s="7">
         <f t="shared" si="24"/>
-        <v>16.81270257422527</v>
+        <v>16.716604355418568</v>
       </c>
       <c r="G53" s="5">
         <f>'mem usage'!F$52</f>
@@ -8043,11 +8106,11 @@
       </c>
       <c r="E54" s="6">
         <f t="shared" si="23"/>
-        <v>-0.34468876281093436</v>
+        <v>-0.34649698409214369</v>
       </c>
       <c r="F54" s="7">
         <f t="shared" si="24"/>
-        <v>17.673915303532915</v>
+        <v>17.581682611066995</v>
       </c>
       <c r="G54" s="5">
         <f>'mem usage'!F$52</f>
@@ -8072,11 +8135,11 @@
       </c>
       <c r="E55" s="6">
         <f t="shared" si="23"/>
-        <v>-0.38836527049698294</v>
+        <v>-0.39030336841045093</v>
       </c>
       <c r="F55" s="7">
         <f t="shared" si="24"/>
-        <v>15.634765673639633</v>
+        <v>15.557129380483751</v>
       </c>
       <c r="G55" s="5">
         <f>'mem usage'!F$52</f>
@@ -8101,11 +8164,11 @@
       </c>
       <c r="E56" s="6">
         <f t="shared" si="23"/>
-        <v>-0.39333287311804183</v>
+        <v>-0.39528096468244434</v>
       </c>
       <c r="F56" s="7">
         <f t="shared" si="24"/>
-        <v>15.605103004339902</v>
+        <v>15.528195254560428</v>
       </c>
       <c r="G56" s="5">
         <f>'mem usage'!F$52</f>
@@ -8130,11 +8193,11 @@
       </c>
       <c r="E57" s="6">
         <f t="shared" si="23"/>
-        <v>-0.39545754336868144</v>
+        <v>-0.39741178598256155</v>
       </c>
       <c r="F57" s="7">
         <f t="shared" si="24"/>
-        <v>16.906998265972394</v>
+        <v>16.823859371632683</v>
       </c>
       <c r="G57" s="5">
         <f>'mem usage'!F$52</f>
@@ -8156,7 +8219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K52"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>

--- a/data/maingraphs-code-size-table.xlsx
+++ b/data/maingraphs-code-size-table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main table" sheetId="1" r:id="rId1"/>
@@ -509,8 +509,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="249">
+  <cellStyleXfs count="253">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -773,7 +777,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="249">
+  <cellStyles count="253">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -898,6 +902,8 @@
     <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1022,6 +1028,8 @@
     <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1353,7 +1361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
@@ -3444,8 +3452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R9" sqref="Q9:R9"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/data/maingraphs-code-size-table.xlsx
+++ b/data/maingraphs-code-size-table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main table" sheetId="1" r:id="rId1"/>
@@ -509,8 +509,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="253">
+  <cellStyleXfs count="257">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -777,7 +781,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="253">
+  <cellStyles count="257">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -904,6 +908,8 @@
     <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1030,6 +1036,8 @@
     <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1362,7 +1370,7 @@
   <dimension ref="A1:R49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="A28" sqref="A28:O48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3452,7 +3460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="A55" sqref="A55:F63"/>
     </sheetView>
   </sheetViews>
@@ -6239,8 +6247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="G57" sqref="A48:G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
